--- a/Translations.xlsx
+++ b/Translations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="0" windowWidth="28800" windowHeight="17480" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17480" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Taxonomy" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3284" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3158" uniqueCount="678">
   <si>
     <t>Class</t>
   </si>
@@ -2033,6 +2033,33 @@
   </si>
   <si>
     <t>Eventlog</t>
+  </si>
+  <si>
+    <t>mac</t>
+  </si>
+  <si>
+    <t>assigned_ip</t>
+  </si>
+  <si>
+    <t>lease_time</t>
+  </si>
+  <si>
+    <t>BRO APP STATS</t>
+  </si>
+  <si>
+    <t>app</t>
+  </si>
+  <si>
+    <t>uniq_hosts</t>
+  </si>
+  <si>
+    <t>hits</t>
+  </si>
+  <si>
+    <t>count_hosts</t>
+  </si>
+  <si>
+    <t>count_hits</t>
   </si>
 </sst>
 </file>
@@ -2139,8 +2166,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="413">
+  <cellStyleXfs count="423">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2592,9 +2629,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2609,8 +2643,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="413">
+  <cellStyles count="423">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2817,6 +2854,11 @@
     <cellStyle name="Followed Hyperlink" xfId="408" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="410" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="412" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="414" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="416" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="418" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="420" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="422" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3023,9 +3065,26 @@
     <cellStyle name="Hyperlink" xfId="407" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="409" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="411" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="413" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="415" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="417" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="419" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="421" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="71">
+    <dxf>
+      <font>
+        <color rgb="FF963634"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF2DCDB"/>
+          <bgColor rgb="FFF2DCDB"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -4314,18 +4373,6 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF963634"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF2DCDB"/>
-          <bgColor rgb="FFF2DCDB"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -4373,17 +4420,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:I243" totalsRowShown="0">
-  <autoFilter ref="A1:I243"/>
-  <sortState ref="A2:Q238">
-    <sortCondition ref="A2:A238"/>
-    <sortCondition ref="B2:B238"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:H258" totalsRowShown="0">
+  <autoFilter ref="A1:H258"/>
+  <sortState ref="A2:H252">
+    <sortCondition ref="A2:A252"/>
+    <sortCondition ref="B2:B252"/>
   </sortState>
-  <tableColumns count="9">
+  <tableColumns count="8">
     <tableColumn id="1" name="Source"/>
-    <tableColumn id="2" name="Order" dataDxfId="66"/>
+    <tableColumn id="2" name="Order" dataDxfId="0"/>
     <tableColumn id="3" name="VendorField"/>
-    <tableColumn id="4" name="TAP Field"/>
     <tableColumn id="5" name="NXLOG Field"/>
     <tableColumn id="6" name="Generated/Processed"/>
     <tableColumn id="7" name="Field Type"/>
@@ -4395,11 +4441,11 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:Q13" totalsRowShown="0" headerRowDxfId="65" headerRowBorderDxfId="64" tableBorderDxfId="63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:Q13" totalsRowShown="0" headerRowDxfId="66" headerRowBorderDxfId="65" tableBorderDxfId="64">
   <autoFilter ref="A1:Q13"/>
   <tableColumns count="17">
     <tableColumn id="1" name="Source"/>
-    <tableColumn id="2" name="Order" dataDxfId="62"/>
+    <tableColumn id="2" name="Order" dataDxfId="63"/>
     <tableColumn id="3" name="VendorField"/>
     <tableColumn id="4" name="TAP Field"/>
     <tableColumn id="5" name="NXLOG Field"/>
@@ -4409,7 +4455,7 @@
     <tableColumn id="9" name="Class"/>
     <tableColumn id="10" name="Metaclass"/>
     <tableColumn id="11" name="Log Type"/>
-    <tableColumn id="12" name="Delimiter" dataDxfId="61"/>
+    <tableColumn id="12" name="Delimiter" dataDxfId="62"/>
     <tableColumn id="13" name="NXLOG Module"/>
     <tableColumn id="14" name="Module Type"/>
     <tableColumn id="15" name="NXLOG Extension"/>
@@ -4421,78 +4467,78 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="60" dataDxfId="58" headerRowBorderDxfId="59" tableBorderDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="61" dataDxfId="59" headerRowBorderDxfId="60" tableBorderDxfId="58">
   <autoFilter ref="A1:Q2"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="Source" dataDxfId="56"/>
-    <tableColumn id="2" name="Order" dataDxfId="55"/>
-    <tableColumn id="3" name="VendorField" dataDxfId="54"/>
-    <tableColumn id="4" name="TAP Field" dataDxfId="53"/>
-    <tableColumn id="5" name="NXLOG Field" dataDxfId="52"/>
-    <tableColumn id="6" name="Generated/Processed" dataDxfId="51"/>
-    <tableColumn id="7" name="Field Type" dataDxfId="50"/>
-    <tableColumn id="8" name="Validation" dataDxfId="49"/>
-    <tableColumn id="9" name="Class" dataDxfId="48"/>
-    <tableColumn id="10" name="Metaclass" dataDxfId="47"/>
-    <tableColumn id="11" name="Log Type" dataDxfId="46"/>
-    <tableColumn id="12" name="Delimiter" dataDxfId="45"/>
-    <tableColumn id="13" name="NXLOG Module" dataDxfId="44"/>
-    <tableColumn id="14" name="Module Type" dataDxfId="43"/>
-    <tableColumn id="15" name="NXLOG Extension" dataDxfId="42"/>
-    <tableColumn id="16" name="Extension Type" dataDxfId="41"/>
-    <tableColumn id="17" name="Null Value" dataDxfId="40"/>
+    <tableColumn id="1" name="Source" dataDxfId="57"/>
+    <tableColumn id="2" name="Order" dataDxfId="56"/>
+    <tableColumn id="3" name="VendorField" dataDxfId="55"/>
+    <tableColumn id="4" name="TAP Field" dataDxfId="54"/>
+    <tableColumn id="5" name="NXLOG Field" dataDxfId="53"/>
+    <tableColumn id="6" name="Generated/Processed" dataDxfId="52"/>
+    <tableColumn id="7" name="Field Type" dataDxfId="51"/>
+    <tableColumn id="8" name="Validation" dataDxfId="50"/>
+    <tableColumn id="9" name="Class" dataDxfId="49"/>
+    <tableColumn id="10" name="Metaclass" dataDxfId="48"/>
+    <tableColumn id="11" name="Log Type" dataDxfId="47"/>
+    <tableColumn id="12" name="Delimiter" dataDxfId="46"/>
+    <tableColumn id="13" name="NXLOG Module" dataDxfId="45"/>
+    <tableColumn id="14" name="Module Type" dataDxfId="44"/>
+    <tableColumn id="15" name="NXLOG Extension" dataDxfId="43"/>
+    <tableColumn id="16" name="Extension Type" dataDxfId="42"/>
+    <tableColumn id="17" name="Null Value" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="39" dataDxfId="37" headerRowBorderDxfId="38" tableBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="40" dataDxfId="38" headerRowBorderDxfId="39" tableBorderDxfId="37">
   <autoFilter ref="A1:Q2"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="Source" dataDxfId="35"/>
-    <tableColumn id="2" name="Order" dataDxfId="34"/>
-    <tableColumn id="3" name="VendorField" dataDxfId="33"/>
-    <tableColumn id="4" name="TAP Field" dataDxfId="32"/>
-    <tableColumn id="5" name="NXLOG Field" dataDxfId="31"/>
-    <tableColumn id="6" name="Generated/Processed" dataDxfId="30"/>
-    <tableColumn id="7" name="Field Type" dataDxfId="29"/>
-    <tableColumn id="8" name="Validation" dataDxfId="28"/>
-    <tableColumn id="9" name="Class" dataDxfId="27"/>
-    <tableColumn id="10" name="Metaclass" dataDxfId="26"/>
-    <tableColumn id="11" name="Log Type" dataDxfId="25"/>
-    <tableColumn id="12" name="Delimiter" dataDxfId="24"/>
-    <tableColumn id="13" name="NXLOG Module" dataDxfId="23"/>
-    <tableColumn id="14" name="Module Type" dataDxfId="22"/>
-    <tableColumn id="15" name="NXLOG Extension" dataDxfId="21"/>
-    <tableColumn id="16" name="Extension Type" dataDxfId="20"/>
-    <tableColumn id="17" name="Null Value" dataDxfId="19"/>
+    <tableColumn id="1" name="Source" dataDxfId="36"/>
+    <tableColumn id="2" name="Order" dataDxfId="35"/>
+    <tableColumn id="3" name="VendorField" dataDxfId="34"/>
+    <tableColumn id="4" name="TAP Field" dataDxfId="33"/>
+    <tableColumn id="5" name="NXLOG Field" dataDxfId="32"/>
+    <tableColumn id="6" name="Generated/Processed" dataDxfId="31"/>
+    <tableColumn id="7" name="Field Type" dataDxfId="30"/>
+    <tableColumn id="8" name="Validation" dataDxfId="29"/>
+    <tableColumn id="9" name="Class" dataDxfId="28"/>
+    <tableColumn id="10" name="Metaclass" dataDxfId="27"/>
+    <tableColumn id="11" name="Log Type" dataDxfId="26"/>
+    <tableColumn id="12" name="Delimiter" dataDxfId="25"/>
+    <tableColumn id="13" name="NXLOG Module" dataDxfId="24"/>
+    <tableColumn id="14" name="Module Type" dataDxfId="23"/>
+    <tableColumn id="15" name="NXLOG Extension" dataDxfId="22"/>
+    <tableColumn id="16" name="Extension Type" dataDxfId="21"/>
+    <tableColumn id="17" name="Null Value" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="A1:N29" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="A1:N29" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A1:N29"/>
   <sortState ref="A2:O29">
     <sortCondition ref="A1:A29"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="1" name="Input Name" dataDxfId="16"/>
-    <tableColumn id="19" name="OS/App Supported" dataDxfId="15"/>
-    <tableColumn id="3" name="NXLOG Module Name" dataDxfId="14"/>
-    <tableColumn id="18" name="NXLOG Module Type" dataDxfId="13"/>
-    <tableColumn id="4" name="Module Hourly" dataDxfId="12"/>
-    <tableColumn id="5" name="Module Drop" dataDxfId="11"/>
-    <tableColumn id="7" name="Class" dataDxfId="10"/>
-    <tableColumn id="8" name="Metaclass" dataDxfId="9"/>
-    <tableColumn id="13" name="NXLOG Extension" dataDxfId="8"/>
-    <tableColumn id="14" name="Extension Type" dataDxfId="7"/>
-    <tableColumn id="15" name="Null Value" dataDxfId="6"/>
-    <tableColumn id="9" name="Log Type" dataDxfId="5"/>
-    <tableColumn id="10" name="Delimiter" dataDxfId="4"/>
-    <tableColumn id="16" name="Default Log Location" dataDxfId="3"/>
+    <tableColumn id="1" name="Input Name" dataDxfId="17"/>
+    <tableColumn id="19" name="OS/App Supported" dataDxfId="16"/>
+    <tableColumn id="3" name="NXLOG Module Name" dataDxfId="15"/>
+    <tableColumn id="18" name="NXLOG Module Type" dataDxfId="14"/>
+    <tableColumn id="4" name="Module Hourly" dataDxfId="13"/>
+    <tableColumn id="5" name="Module Drop" dataDxfId="12"/>
+    <tableColumn id="7" name="Class" dataDxfId="11"/>
+    <tableColumn id="8" name="Metaclass" dataDxfId="10"/>
+    <tableColumn id="13" name="NXLOG Extension" dataDxfId="9"/>
+    <tableColumn id="14" name="Extension Type" dataDxfId="8"/>
+    <tableColumn id="15" name="Null Value" dataDxfId="7"/>
+    <tableColumn id="9" name="Log Type" dataDxfId="6"/>
+    <tableColumn id="10" name="Delimiter" dataDxfId="5"/>
+    <tableColumn id="16" name="Default Log Location" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4509,12 +4555,12 @@
     <tableColumn id="4" name="Class"/>
     <tableColumn id="5" name="Metaclass"/>
     <tableColumn id="6" name="Log Type"/>
-    <tableColumn id="17" name="Delimiter" dataDxfId="2"/>
+    <tableColumn id="17" name="Delimiter" dataDxfId="3"/>
     <tableColumn id="8" name="NXLOG Module"/>
     <tableColumn id="9" name="Module Type"/>
     <tableColumn id="10" name="NXLOG Extension"/>
-    <tableColumn id="14" name="Extension Type" dataDxfId="1"/>
-    <tableColumn id="11" name="Null Value" dataDxfId="0"/>
+    <tableColumn id="14" name="Extension Type" dataDxfId="2"/>
+    <tableColumn id="11" name="Null Value" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8405,10 +8451,10 @@
       <c r="C107" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D107" s="24" t="s">
+      <c r="D107" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="E107" s="24" t="s">
+      <c r="E107" s="23" t="s">
         <v>186</v>
       </c>
       <c r="F107" s="3"/>
@@ -10991,10 +11037,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I243"/>
+  <dimension ref="A1:H258"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11003,14 +11049,13 @@
     <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="22" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="50.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>96</v>
       </c>
@@ -11021,25 +11066,22 @@
         <v>212</v>
       </c>
       <c r="D1" t="s">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="E1" t="s">
-        <v>132</v>
+        <v>181</v>
       </c>
       <c r="F1" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="G1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H1" t="s">
-        <v>154</v>
-      </c>
-      <c r="I1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>373</v>
       </c>
@@ -11052,11 +11094,11 @@
       <c r="D2" t="s">
         <v>394</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>373</v>
       </c>
@@ -11066,11 +11108,14 @@
       <c r="C3" t="s">
         <v>374</v>
       </c>
-      <c r="G3" t="s">
+      <c r="D3" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="F3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>373</v>
       </c>
@@ -11080,14 +11125,11 @@
       <c r="C4" t="s">
         <v>222</v>
       </c>
-      <c r="D4" t="s">
-        <v>222</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="F4" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>373</v>
       </c>
@@ -11097,11 +11139,14 @@
       <c r="C5" t="s">
         <v>375</v>
       </c>
-      <c r="G5" t="s">
+      <c r="D5" t="s">
+        <v>375</v>
+      </c>
+      <c r="F5" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>373</v>
       </c>
@@ -11111,11 +11156,11 @@
       <c r="C6" t="s">
         <v>376</v>
       </c>
-      <c r="G6" t="s">
+      <c r="F6" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>373</v>
       </c>
@@ -11125,11 +11170,11 @@
       <c r="C7" t="s">
         <v>377</v>
       </c>
-      <c r="G7" t="s">
+      <c r="F7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
         <v>367</v>
       </c>
@@ -11139,17 +11184,14 @@
       <c r="C8" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D8" t="s">
-        <v>394</v>
-      </c>
+      <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" t="s">
+      <c r="F8" t="s">
         <v>126</v>
       </c>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="3" t="s">
         <v>367</v>
       </c>
@@ -11159,14 +11201,11 @@
       <c r="C9" t="s">
         <v>222</v>
       </c>
-      <c r="D9" t="s">
-        <v>222</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="F9" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:8">
       <c r="A10" s="3" t="s">
         <v>367</v>
       </c>
@@ -11176,11 +11215,14 @@
       <c r="C10" t="s">
         <v>368</v>
       </c>
-      <c r="G10" t="s">
+      <c r="D10" t="s">
+        <v>368</v>
+      </c>
+      <c r="F10" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:8">
       <c r="A11" s="3" t="s">
         <v>367</v>
       </c>
@@ -11190,11 +11232,14 @@
       <c r="C11" t="s">
         <v>369</v>
       </c>
-      <c r="G11" t="s">
+      <c r="D11" t="s">
+        <v>369</v>
+      </c>
+      <c r="F11" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:8">
       <c r="A12" s="3" t="s">
         <v>367</v>
       </c>
@@ -11204,11 +11249,14 @@
       <c r="C12" t="s">
         <v>370</v>
       </c>
-      <c r="G12" t="s">
+      <c r="D12" t="s">
+        <v>370</v>
+      </c>
+      <c r="F12" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:8">
       <c r="A13" s="3" t="s">
         <v>367</v>
       </c>
@@ -11218,11 +11266,14 @@
       <c r="C13" t="s">
         <v>371</v>
       </c>
-      <c r="G13" t="s">
+      <c r="D13" t="s">
+        <v>371</v>
+      </c>
+      <c r="F13" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:8">
       <c r="A14" s="3" t="s">
         <v>367</v>
       </c>
@@ -11232,11 +11283,14 @@
       <c r="C14" t="s">
         <v>372</v>
       </c>
-      <c r="G14" t="s">
+      <c r="D14" t="s">
+        <v>372</v>
+      </c>
+      <c r="F14" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:8">
       <c r="A15" s="3" t="s">
         <v>367</v>
       </c>
@@ -11247,13 +11301,13 @@
         <v>229</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" t="s">
+        <v>229</v>
+      </c>
+      <c r="F15" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>210</v>
       </c>
@@ -11266,14 +11320,11 @@
       <c r="D16" t="s">
         <v>394</v>
       </c>
-      <c r="E16" t="s">
-        <v>394</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="F16" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>210</v>
       </c>
@@ -11286,14 +11337,11 @@
       <c r="D17" t="s">
         <v>395</v>
       </c>
-      <c r="E17" t="s">
-        <v>395</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="F17" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>210</v>
       </c>
@@ -11306,14 +11354,11 @@
       <c r="D18" t="s">
         <v>26</v>
       </c>
-      <c r="E18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="F18" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>210</v>
       </c>
@@ -11326,14 +11371,11 @@
       <c r="D19" t="s">
         <v>396</v>
       </c>
-      <c r="E19" t="s">
-        <v>396</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="F19" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>210</v>
       </c>
@@ -11346,14 +11388,11 @@
       <c r="D20" t="s">
         <v>67</v>
       </c>
-      <c r="E20" t="s">
-        <v>67</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="F20" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>210</v>
       </c>
@@ -11366,14 +11405,11 @@
       <c r="D21" t="s">
         <v>75</v>
       </c>
-      <c r="E21" t="s">
-        <v>75</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="F21" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>210</v>
       </c>
@@ -11386,14 +11422,11 @@
       <c r="D22" t="s">
         <v>48</v>
       </c>
-      <c r="E22" t="s">
-        <v>48</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="F22" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>210</v>
       </c>
@@ -11406,14 +11439,11 @@
       <c r="D23" t="s">
         <v>300</v>
       </c>
-      <c r="E23" t="s">
-        <v>300</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="F23" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>210</v>
       </c>
@@ -11426,14 +11456,11 @@
       <c r="D24" t="s">
         <v>92</v>
       </c>
-      <c r="E24" t="s">
-        <v>92</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="F24" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>210</v>
       </c>
@@ -11446,14 +11473,11 @@
       <c r="D25" t="s">
         <v>88</v>
       </c>
-      <c r="E25" t="s">
-        <v>88</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="F25" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>210</v>
       </c>
@@ -11466,14 +11490,11 @@
       <c r="D26" t="s">
         <v>90</v>
       </c>
-      <c r="E26" t="s">
-        <v>90</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="F26" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>210</v>
       </c>
@@ -11486,14 +11507,11 @@
       <c r="D27" t="s">
         <v>462</v>
       </c>
-      <c r="E27" t="s">
-        <v>462</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="F27" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>210</v>
       </c>
@@ -11506,14 +11524,11 @@
       <c r="D28" t="s">
         <v>463</v>
       </c>
-      <c r="E28" t="s">
-        <v>463</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="F28" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>210</v>
       </c>
@@ -11526,14 +11541,11 @@
       <c r="D29" t="s">
         <v>464</v>
       </c>
-      <c r="E29" t="s">
-        <v>464</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="F29" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>210</v>
       </c>
@@ -11546,14 +11558,11 @@
       <c r="D30" t="s">
         <v>358</v>
       </c>
-      <c r="E30" t="s">
-        <v>358</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="F30" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>210</v>
       </c>
@@ -11566,14 +11575,11 @@
       <c r="D31" t="s">
         <v>465</v>
       </c>
-      <c r="E31" t="s">
-        <v>465</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="F31" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>210</v>
       </c>
@@ -11586,14 +11592,11 @@
       <c r="D32" t="s">
         <v>466</v>
       </c>
-      <c r="E32" t="s">
-        <v>466</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="F32" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>210</v>
       </c>
@@ -11606,14 +11609,11 @@
       <c r="D33" t="s">
         <v>467</v>
       </c>
-      <c r="E33" t="s">
-        <v>467</v>
-      </c>
-      <c r="G33" t="s">
+      <c r="F33" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>210</v>
       </c>
@@ -11626,14 +11626,11 @@
       <c r="D34" t="s">
         <v>468</v>
       </c>
-      <c r="E34" t="s">
-        <v>468</v>
-      </c>
-      <c r="G34" t="s">
+      <c r="F34" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>210</v>
       </c>
@@ -11646,14 +11643,11 @@
       <c r="D35" t="s">
         <v>469</v>
       </c>
-      <c r="E35" t="s">
-        <v>469</v>
-      </c>
-      <c r="G35" t="s">
+      <c r="F35" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>210</v>
       </c>
@@ -11663,14 +11657,14 @@
       <c r="C36" t="s">
         <v>364</v>
       </c>
-      <c r="E36" t="s">
+      <c r="D36" t="s">
         <v>472</v>
       </c>
-      <c r="G36" t="s">
+      <c r="F36" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>210</v>
       </c>
@@ -11680,14 +11674,14 @@
       <c r="C37" t="s">
         <v>365</v>
       </c>
-      <c r="E37" t="s">
+      <c r="D37" t="s">
         <v>473</v>
       </c>
-      <c r="G37" t="s">
+      <c r="F37" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>210</v>
       </c>
@@ -11700,20 +11694,17 @@
       <c r="D38" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3" t="s">
+      <c r="E38" s="3"/>
+      <c r="F38" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="H38" s="3"/>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="B39" s="4">
+        <v>512</v>
+      </c>
+      <c r="B39" s="25">
         <v>1</v>
       </c>
       <c r="C39" s="3" t="s">
@@ -11722,20 +11713,17 @@
       <c r="D39" t="s">
         <v>394</v>
       </c>
-      <c r="E39" t="s">
-        <v>394</v>
-      </c>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3" t="s">
+      <c r="E39" s="3"/>
+      <c r="F39" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="H39" s="3"/>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="B40" s="1">
+        <v>512</v>
+      </c>
+      <c r="B40" s="14">
         <v>2</v>
       </c>
       <c r="C40" t="s">
@@ -11744,18 +11732,15 @@
       <c r="D40" t="s">
         <v>395</v>
       </c>
-      <c r="E40" t="s">
-        <v>395</v>
-      </c>
-      <c r="G40" t="s">
+      <c r="F40" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:7">
       <c r="A41" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="B41" s="1">
+        <v>512</v>
+      </c>
+      <c r="B41" s="14">
         <v>3</v>
       </c>
       <c r="C41" t="s">
@@ -11764,18 +11749,15 @@
       <c r="D41" t="s">
         <v>26</v>
       </c>
-      <c r="E41" t="s">
-        <v>26</v>
-      </c>
-      <c r="G41" t="s">
+      <c r="F41" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:7">
       <c r="A42" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="B42" s="1">
+        <v>512</v>
+      </c>
+      <c r="B42" s="14">
         <v>4</v>
       </c>
       <c r="C42" t="s">
@@ -11784,38 +11766,32 @@
       <c r="D42" t="s">
         <v>396</v>
       </c>
-      <c r="E42" t="s">
-        <v>396</v>
-      </c>
-      <c r="G42" t="s">
+      <c r="F42" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:7">
       <c r="A43" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="B43" s="1">
+        <v>512</v>
+      </c>
+      <c r="B43" s="14">
         <v>5</v>
       </c>
       <c r="C43" t="s">
         <v>217</v>
       </c>
       <c r="D43" t="s">
-        <v>67</v>
-      </c>
-      <c r="E43" t="s">
-        <v>67</v>
-      </c>
-      <c r="G43" t="s">
+        <v>75</v>
+      </c>
+      <c r="F43" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:7">
       <c r="A44" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="B44" s="1">
+        <v>512</v>
+      </c>
+      <c r="B44" s="14">
         <v>6</v>
       </c>
       <c r="C44" t="s">
@@ -11824,550 +11800,469 @@
       <c r="D44" t="s">
         <v>75</v>
       </c>
-      <c r="E44" t="s">
-        <v>75</v>
-      </c>
-      <c r="G44" t="s">
+      <c r="F44" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:7">
       <c r="A45" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="B45" s="1">
+        <v>512</v>
+      </c>
+      <c r="B45" s="14">
         <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>227</v>
+        <v>669</v>
       </c>
       <c r="D45" t="s">
-        <v>48</v>
-      </c>
-      <c r="E45" t="s">
-        <v>48</v>
-      </c>
-      <c r="G45" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>669</v>
+      </c>
+      <c r="F45" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="B46" s="1">
+        <v>512</v>
+      </c>
+      <c r="B46" s="14">
         <v>8</v>
       </c>
       <c r="C46" t="s">
+        <v>670</v>
+      </c>
+      <c r="D46" t="s">
+        <v>26</v>
+      </c>
+      <c r="F46" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="B47" s="14">
+        <v>9</v>
+      </c>
+      <c r="C47" t="s">
+        <v>671</v>
+      </c>
+      <c r="D47" t="s">
+        <v>671</v>
+      </c>
+      <c r="F47" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="B48" s="14">
+        <v>10</v>
+      </c>
+      <c r="C48" t="s">
         <v>338</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D48" t="s">
         <v>33</v>
       </c>
-      <c r="E46" t="s">
-        <v>33</v>
-      </c>
-      <c r="G46" t="s">
+      <c r="F48" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="B47" s="1">
-        <v>9</v>
-      </c>
-      <c r="C47" t="s">
-        <v>53</v>
-      </c>
-      <c r="D47" t="s">
-        <v>53</v>
-      </c>
-      <c r="E47" t="s">
-        <v>53</v>
-      </c>
-      <c r="G47" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="B48" s="1">
-        <v>10</v>
-      </c>
-      <c r="C48" t="s">
-        <v>339</v>
-      </c>
-      <c r="D48" t="s">
-        <v>451</v>
-      </c>
-      <c r="E48" t="s">
-        <v>451</v>
-      </c>
-      <c r="G48" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:7">
       <c r="A49" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="B49" s="1">
-        <v>11</v>
-      </c>
-      <c r="C49" t="s">
-        <v>340</v>
+      <c r="B49" s="4">
+        <v>1</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>213</v>
       </c>
       <c r="D49" t="s">
-        <v>452</v>
-      </c>
-      <c r="E49" t="s">
-        <v>452</v>
-      </c>
-      <c r="G49" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>394</v>
+      </c>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G49" s="3"/>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="3" t="s">
         <v>337</v>
       </c>
       <c r="B50" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C50" t="s">
-        <v>341</v>
+        <v>214</v>
       </c>
       <c r="D50" t="s">
-        <v>60</v>
-      </c>
-      <c r="E50" t="s">
-        <v>60</v>
-      </c>
-      <c r="G50" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>395</v>
+      </c>
+      <c r="F50" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="3" t="s">
         <v>337</v>
       </c>
       <c r="B51" s="1">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C51" t="s">
-        <v>342</v>
+        <v>215</v>
       </c>
       <c r="D51" t="s">
-        <v>453</v>
-      </c>
-      <c r="E51" t="s">
-        <v>453</v>
-      </c>
-      <c r="G51" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="F51" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="3" t="s">
         <v>337</v>
       </c>
       <c r="B52" s="1">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C52" t="s">
-        <v>343</v>
+        <v>216</v>
       </c>
       <c r="D52" t="s">
-        <v>454</v>
-      </c>
-      <c r="E52" t="s">
-        <v>454</v>
-      </c>
-      <c r="G52" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>396</v>
+      </c>
+      <c r="F52" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="3" t="s">
         <v>337</v>
       </c>
       <c r="B53" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C53" t="s">
-        <v>344</v>
+        <v>217</v>
       </c>
       <c r="D53" t="s">
-        <v>455</v>
-      </c>
-      <c r="E53" t="s">
-        <v>455</v>
-      </c>
-      <c r="G53" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="F53" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="3" t="s">
         <v>337</v>
       </c>
       <c r="B54" s="1">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>345</v>
+        <v>218</v>
       </c>
       <c r="D54" t="s">
-        <v>456</v>
-      </c>
-      <c r="E54" t="s">
-        <v>456</v>
-      </c>
-      <c r="G54" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="F54" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="3" t="s">
         <v>337</v>
       </c>
       <c r="B55" s="1">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>346</v>
+        <v>227</v>
       </c>
       <c r="D55" t="s">
-        <v>457</v>
-      </c>
-      <c r="E55" t="s">
-        <v>457</v>
-      </c>
-      <c r="G55" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="F55" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="3" t="s">
         <v>337</v>
       </c>
       <c r="B56" s="1">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="D56" t="s">
-        <v>458</v>
-      </c>
-      <c r="E56" t="s">
-        <v>458</v>
-      </c>
-      <c r="G56" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="F56" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="3" t="s">
         <v>337</v>
       </c>
       <c r="B57" s="1">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>348</v>
+        <v>53</v>
       </c>
       <c r="D57" t="s">
-        <v>459</v>
-      </c>
-      <c r="E57" t="s">
-        <v>459</v>
-      </c>
-      <c r="G57" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="F57" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="3" t="s">
         <v>337</v>
       </c>
       <c r="B58" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C58" t="s">
-        <v>349</v>
-      </c>
-      <c r="E58" t="s">
-        <v>471</v>
-      </c>
-      <c r="G58" t="s">
+        <v>339</v>
+      </c>
+      <c r="D58" t="s">
+        <v>451</v>
+      </c>
+      <c r="F58" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:7">
       <c r="A59" s="3" t="s">
         <v>337</v>
       </c>
       <c r="B59" s="1">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C59" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="D59" t="s">
-        <v>460</v>
-      </c>
-      <c r="E59" t="s">
-        <v>460</v>
-      </c>
-      <c r="G59" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>452</v>
+      </c>
+      <c r="F59" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="3" t="s">
         <v>337</v>
       </c>
       <c r="B60" s="1">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C60" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="D60" t="s">
-        <v>461</v>
-      </c>
-      <c r="E60" t="s">
-        <v>461</v>
-      </c>
-      <c r="G60" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="F60" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="3" t="s">
         <v>337</v>
       </c>
       <c r="B61" s="1">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C61" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="D61" t="s">
-        <v>352</v>
-      </c>
-      <c r="E61" t="s">
-        <v>352</v>
-      </c>
-      <c r="G61" t="s">
+        <v>453</v>
+      </c>
+      <c r="F61" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B62" s="1">
+        <v>14</v>
+      </c>
+      <c r="C62" t="s">
+        <v>343</v>
+      </c>
+      <c r="D62" t="s">
+        <v>454</v>
+      </c>
+      <c r="F62" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B63" s="1">
+        <v>15</v>
+      </c>
+      <c r="C63" t="s">
+        <v>344</v>
+      </c>
+      <c r="D63" t="s">
+        <v>455</v>
+      </c>
+      <c r="F63" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B64" s="1">
+        <v>16</v>
+      </c>
+      <c r="C64" t="s">
+        <v>345</v>
+      </c>
+      <c r="D64" t="s">
+        <v>456</v>
+      </c>
+      <c r="F64" t="s">
         <v>225</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="B62" s="14">
-        <v>1</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D62" t="s">
-        <v>394</v>
-      </c>
-      <c r="E62" t="s">
-        <v>394</v>
-      </c>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="H62" s="3"/>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="B63" s="5">
-        <v>2</v>
-      </c>
-      <c r="C63" t="s">
-        <v>282</v>
-      </c>
-      <c r="D63" t="s">
-        <v>434</v>
-      </c>
-      <c r="E63" t="s">
-        <v>434</v>
-      </c>
-      <c r="G63" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="B64" s="14">
-        <v>3</v>
-      </c>
-      <c r="C64" t="s">
-        <v>318</v>
-      </c>
-      <c r="D64" t="s">
-        <v>26</v>
-      </c>
-      <c r="E64" t="s">
-        <v>26</v>
-      </c>
-      <c r="G64" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="B65" s="5">
-        <v>4</v>
+        <v>337</v>
+      </c>
+      <c r="B65" s="1">
+        <v>17</v>
       </c>
       <c r="C65" t="s">
-        <v>319</v>
+        <v>346</v>
       </c>
       <c r="D65" t="s">
-        <v>67</v>
-      </c>
-      <c r="E65" t="s">
-        <v>67</v>
-      </c>
-      <c r="G65" t="s">
-        <v>336</v>
+        <v>457</v>
+      </c>
+      <c r="F65" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="B66" s="14">
-        <v>5</v>
+        <v>337</v>
+      </c>
+      <c r="B66" s="1">
+        <v>18</v>
       </c>
       <c r="C66" t="s">
-        <v>320</v>
+        <v>347</v>
       </c>
       <c r="D66" t="s">
-        <v>395</v>
-      </c>
-      <c r="E66" t="s">
-        <v>395</v>
-      </c>
-      <c r="G66" t="s">
-        <v>278</v>
+        <v>458</v>
+      </c>
+      <c r="F66" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="B67" s="5">
-        <v>6</v>
+        <v>337</v>
+      </c>
+      <c r="B67" s="1">
+        <v>19</v>
       </c>
       <c r="C67" t="s">
-        <v>5</v>
+        <v>348</v>
       </c>
       <c r="D67" t="s">
-        <v>5</v>
-      </c>
-      <c r="E67" t="s">
-        <v>5</v>
-      </c>
-      <c r="G67" t="s">
-        <v>156</v>
+        <v>459</v>
+      </c>
+      <c r="F67" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="B68" s="14">
-        <v>7</v>
+        <v>337</v>
+      </c>
+      <c r="B68" s="1">
+        <v>20</v>
       </c>
       <c r="C68" t="s">
-        <v>321</v>
+        <v>349</v>
       </c>
       <c r="D68" t="s">
-        <v>321</v>
-      </c>
-      <c r="E68" t="s">
-        <v>321</v>
-      </c>
-      <c r="G68" t="s">
+        <v>471</v>
+      </c>
+      <c r="F68" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="B69" s="14">
-        <v>8</v>
+        <v>337</v>
+      </c>
+      <c r="B69" s="1">
+        <v>21</v>
       </c>
       <c r="C69" t="s">
-        <v>322</v>
+        <v>350</v>
       </c>
       <c r="D69" t="s">
-        <v>481</v>
-      </c>
-      <c r="E69" t="s">
-        <v>481</v>
-      </c>
-      <c r="G69" t="s">
-        <v>278</v>
+        <v>460</v>
+      </c>
+      <c r="F69" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="B70" s="2">
-        <v>9</v>
+        <v>337</v>
+      </c>
+      <c r="B70" s="1">
+        <v>22</v>
       </c>
       <c r="C70" t="s">
-        <v>323</v>
+        <v>351</v>
       </c>
       <c r="D70" t="s">
-        <v>474</v>
-      </c>
-      <c r="E70" t="s">
-        <v>474</v>
-      </c>
-      <c r="G70" t="s">
-        <v>156</v>
+        <v>461</v>
+      </c>
+      <c r="F70" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="B71" s="14">
-        <v>10</v>
+        <v>337</v>
+      </c>
+      <c r="B71" s="1">
+        <v>23</v>
       </c>
       <c r="C71" t="s">
-        <v>18</v>
+        <v>352</v>
       </c>
       <c r="D71" t="s">
-        <v>18</v>
-      </c>
-      <c r="E71" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" t="s">
-        <v>156</v>
+        <v>352</v>
+      </c>
+      <c r="F71" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -12375,138 +12270,119 @@
         <v>317</v>
       </c>
       <c r="B72" s="14">
-        <v>11</v>
-      </c>
-      <c r="C72" t="s">
-        <v>92</v>
+        <v>1</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>213</v>
       </c>
       <c r="D72" t="s">
-        <v>92</v>
-      </c>
-      <c r="E72" t="s">
-        <v>92</v>
-      </c>
-      <c r="G72" t="s">
-        <v>296</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G72" s="3"/>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="B73" s="1">
-        <v>12</v>
+      <c r="B73" s="5">
+        <v>2</v>
       </c>
       <c r="C73" t="s">
-        <v>324</v>
+        <v>282</v>
       </c>
       <c r="D73" t="s">
-        <v>463</v>
-      </c>
-      <c r="E73" t="s">
-        <v>463</v>
-      </c>
-      <c r="G73" t="s">
-        <v>225</v>
+        <v>434</v>
+      </c>
+      <c r="F73" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="B74" s="1">
-        <v>13</v>
+      <c r="B74" s="14">
+        <v>3</v>
       </c>
       <c r="C74" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D74" t="s">
-        <v>482</v>
-      </c>
-      <c r="E74" t="s">
-        <v>482</v>
-      </c>
-      <c r="G74" t="s">
-        <v>225</v>
+        <v>26</v>
+      </c>
+      <c r="F74" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="B75" s="1">
-        <v>14</v>
+      <c r="B75" s="5">
+        <v>4</v>
       </c>
       <c r="C75" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="D75" t="s">
-        <v>483</v>
-      </c>
-      <c r="E75" t="s">
-        <v>483</v>
-      </c>
-      <c r="G75" t="s">
-        <v>251</v>
+        <v>67</v>
+      </c>
+      <c r="F75" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="B76" s="16">
-        <v>15</v>
+      <c r="B76" s="14">
+        <v>5</v>
       </c>
       <c r="C76" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="D76" t="s">
-        <v>190</v>
-      </c>
-      <c r="E76" t="s">
-        <v>190</v>
-      </c>
-      <c r="G76" t="s">
-        <v>251</v>
+        <v>395</v>
+      </c>
+      <c r="F76" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="B77" s="1">
-        <v>16</v>
+      <c r="B77" s="5">
+        <v>6</v>
       </c>
       <c r="C77" t="s">
-        <v>328</v>
+        <v>5</v>
       </c>
       <c r="D77" t="s">
-        <v>464</v>
-      </c>
-      <c r="E77" t="s">
-        <v>464</v>
-      </c>
-      <c r="G77" t="s">
-        <v>251</v>
+        <v>5</v>
+      </c>
+      <c r="F77" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="B78" s="1">
-        <v>17</v>
+      <c r="B78" s="14">
+        <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="D78" t="s">
-        <v>484</v>
-      </c>
-      <c r="E78" t="s">
-        <v>484</v>
-      </c>
-      <c r="G78" t="s">
+        <v>321</v>
+      </c>
+      <c r="F78" t="s">
         <v>251</v>
       </c>
     </row>
@@ -12514,39 +12390,33 @@
       <c r="A79" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="B79" s="1">
-        <v>18</v>
+      <c r="B79" s="14">
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="D79" t="s">
-        <v>485</v>
-      </c>
-      <c r="E79" t="s">
-        <v>485</v>
-      </c>
-      <c r="G79" t="s">
-        <v>225</v>
+        <v>481</v>
+      </c>
+      <c r="F79" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="B80" s="1">
-        <v>19</v>
+      <c r="B80" s="2">
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="D80" t="s">
-        <v>486</v>
-      </c>
-      <c r="E80" t="s">
-        <v>486</v>
-      </c>
-      <c r="G80" t="s">
+        <v>474</v>
+      </c>
+      <c r="F80" t="s">
         <v>156</v>
       </c>
     </row>
@@ -12554,19 +12424,16 @@
       <c r="A81" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="B81" s="1">
-        <v>20</v>
+      <c r="B81" s="14">
+        <v>10</v>
       </c>
       <c r="C81" t="s">
-        <v>332</v>
+        <v>18</v>
       </c>
       <c r="D81" t="s">
-        <v>332</v>
-      </c>
-      <c r="E81" t="s">
-        <v>332</v>
-      </c>
-      <c r="G81" t="s">
+        <v>18</v>
+      </c>
+      <c r="F81" t="s">
         <v>156</v>
       </c>
     </row>
@@ -12574,20 +12441,17 @@
       <c r="A82" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="B82" s="1">
-        <v>21</v>
+      <c r="B82" s="14">
+        <v>11</v>
       </c>
       <c r="C82" t="s">
-        <v>333</v>
+        <v>92</v>
       </c>
       <c r="D82" t="s">
-        <v>333</v>
-      </c>
-      <c r="E82" t="s">
-        <v>333</v>
-      </c>
-      <c r="G82" t="s">
-        <v>156</v>
+        <v>92</v>
+      </c>
+      <c r="F82" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -12595,954 +12459,819 @@
         <v>317</v>
       </c>
       <c r="B83" s="1">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C83" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="D83" t="s">
-        <v>334</v>
-      </c>
-      <c r="E83" t="s">
-        <v>334</v>
-      </c>
-      <c r="G83" t="s">
-        <v>156</v>
+        <v>463</v>
+      </c>
+      <c r="F83" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="B84" s="16">
+      <c r="B84" s="1">
+        <v>13</v>
+      </c>
+      <c r="C84" t="s">
+        <v>325</v>
+      </c>
+      <c r="D84" t="s">
+        <v>482</v>
+      </c>
+      <c r="F84" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B85" s="1">
+        <v>14</v>
+      </c>
+      <c r="C85" t="s">
+        <v>326</v>
+      </c>
+      <c r="D85" t="s">
+        <v>483</v>
+      </c>
+      <c r="F85" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B86" s="16">
+        <v>15</v>
+      </c>
+      <c r="C86" t="s">
+        <v>327</v>
+      </c>
+      <c r="D86" t="s">
+        <v>190</v>
+      </c>
+      <c r="F86" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B87" s="1">
+        <v>16</v>
+      </c>
+      <c r="C87" t="s">
+        <v>328</v>
+      </c>
+      <c r="D87" t="s">
+        <v>464</v>
+      </c>
+      <c r="F87" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B88" s="1">
+        <v>17</v>
+      </c>
+      <c r="C88" t="s">
+        <v>329</v>
+      </c>
+      <c r="D88" t="s">
+        <v>484</v>
+      </c>
+      <c r="F88" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B89" s="1">
+        <v>18</v>
+      </c>
+      <c r="C89" t="s">
+        <v>330</v>
+      </c>
+      <c r="D89" t="s">
+        <v>485</v>
+      </c>
+      <c r="F89" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B90" s="1">
+        <v>19</v>
+      </c>
+      <c r="C90" t="s">
+        <v>331</v>
+      </c>
+      <c r="D90" t="s">
+        <v>486</v>
+      </c>
+      <c r="F90" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B91" s="1">
+        <v>20</v>
+      </c>
+      <c r="C91" t="s">
+        <v>332</v>
+      </c>
+      <c r="D91" t="s">
+        <v>332</v>
+      </c>
+      <c r="F91" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B92" s="1">
+        <v>21</v>
+      </c>
+      <c r="C92" t="s">
+        <v>333</v>
+      </c>
+      <c r="D92" t="s">
+        <v>333</v>
+      </c>
+      <c r="F92" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B93" s="1">
+        <v>22</v>
+      </c>
+      <c r="C93" t="s">
+        <v>334</v>
+      </c>
+      <c r="D93" t="s">
+        <v>334</v>
+      </c>
+      <c r="F93" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B94" s="16">
         <v>23</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C94" t="s">
         <v>335</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D94" t="s">
         <v>335</v>
       </c>
-      <c r="E84" t="s">
-        <v>335</v>
-      </c>
-      <c r="G84" t="s">
+      <c r="F94" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
-      <c r="A85" t="s">
-        <v>316</v>
-      </c>
-      <c r="B85" s="1">
-        <v>1</v>
-      </c>
-      <c r="C85" t="s">
-        <v>213</v>
-      </c>
-      <c r="D85" t="s">
-        <v>394</v>
-      </c>
-      <c r="E85" t="s">
-        <v>394</v>
-      </c>
-      <c r="G85" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
-      <c r="A86" t="s">
-        <v>316</v>
-      </c>
-      <c r="B86" s="1">
-        <v>2</v>
-      </c>
-      <c r="C86" t="s">
-        <v>214</v>
-      </c>
-      <c r="D86" t="s">
-        <v>395</v>
-      </c>
-      <c r="E86" t="s">
-        <v>395</v>
-      </c>
-      <c r="G86" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
-      <c r="A87" t="s">
-        <v>316</v>
-      </c>
-      <c r="B87" s="1">
-        <v>3</v>
-      </c>
-      <c r="C87" t="s">
-        <v>215</v>
-      </c>
-      <c r="D87" t="s">
-        <v>26</v>
-      </c>
-      <c r="E87" t="s">
-        <v>26</v>
-      </c>
-      <c r="G87" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
-      <c r="A88" t="s">
-        <v>316</v>
-      </c>
-      <c r="B88" s="1">
-        <v>4</v>
-      </c>
-      <c r="C88" t="s">
-        <v>216</v>
-      </c>
-      <c r="D88" t="s">
-        <v>396</v>
-      </c>
-      <c r="E88" t="s">
-        <v>396</v>
-      </c>
-      <c r="G88" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
-      <c r="A89" t="s">
-        <v>316</v>
-      </c>
-      <c r="B89" s="1">
-        <v>5</v>
-      </c>
-      <c r="C89" t="s">
-        <v>217</v>
-      </c>
-      <c r="D89" t="s">
-        <v>67</v>
-      </c>
-      <c r="E89" t="s">
-        <v>67</v>
-      </c>
-      <c r="G89" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
-      <c r="A90" t="s">
-        <v>316</v>
-      </c>
-      <c r="B90" s="1">
-        <v>6</v>
-      </c>
-      <c r="C90" t="s">
-        <v>218</v>
-      </c>
-      <c r="D90" t="s">
-        <v>75</v>
-      </c>
-      <c r="E90" t="s">
-        <v>75</v>
-      </c>
-      <c r="G90" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
-      <c r="A91" t="s">
-        <v>316</v>
-      </c>
-      <c r="B91" s="1">
-        <v>7</v>
-      </c>
-      <c r="C91" t="s">
-        <v>263</v>
-      </c>
-      <c r="D91" t="s">
-        <v>321</v>
-      </c>
-      <c r="E91" t="s">
-        <v>321</v>
-      </c>
-      <c r="G91" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
-      <c r="A92" t="s">
-        <v>316</v>
-      </c>
-      <c r="B92" s="1">
-        <v>8</v>
-      </c>
-      <c r="C92" t="s">
-        <v>302</v>
-      </c>
-      <c r="D92" t="s">
-        <v>69</v>
-      </c>
-      <c r="E92" t="s">
-        <v>69</v>
-      </c>
-      <c r="G92" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
-      <c r="A93" t="s">
-        <v>316</v>
-      </c>
-      <c r="B93" s="1">
-        <v>9</v>
-      </c>
-      <c r="C93" t="s">
-        <v>252</v>
-      </c>
-      <c r="D93" t="s">
-        <v>62</v>
-      </c>
-      <c r="E93" t="s">
-        <v>62</v>
-      </c>
-      <c r="G93" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
-      <c r="A94" t="s">
-        <v>316</v>
-      </c>
-      <c r="B94" s="1">
-        <v>10</v>
-      </c>
-      <c r="C94" t="s">
-        <v>71</v>
-      </c>
-      <c r="D94" t="s">
-        <v>71</v>
-      </c>
-      <c r="E94" t="s">
-        <v>71</v>
-      </c>
-      <c r="G94" t="s">
-        <v>156</v>
-      </c>
-    </row>
     <row r="95" spans="1:7">
-      <c r="A95" t="s">
-        <v>316</v>
-      </c>
-      <c r="B95" s="1">
-        <v>11</v>
-      </c>
-      <c r="C95" t="s">
-        <v>83</v>
-      </c>
-      <c r="D95" t="s">
-        <v>83</v>
-      </c>
-      <c r="E95" t="s">
-        <v>83</v>
-      </c>
-      <c r="G95" t="s">
-        <v>156</v>
-      </c>
+      <c r="A95" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B95" s="25"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
         <v>316</v>
       </c>
       <c r="B96" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C96" t="s">
-        <v>275</v>
+        <v>213</v>
       </c>
       <c r="D96" t="s">
-        <v>80</v>
-      </c>
-      <c r="E96" t="s">
-        <v>80</v>
-      </c>
-      <c r="G96" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>394</v>
+      </c>
+      <c r="F96" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" t="s">
         <v>316</v>
       </c>
       <c r="B97" s="1">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C97" t="s">
-        <v>303</v>
+        <v>214</v>
       </c>
       <c r="D97" t="s">
-        <v>397</v>
-      </c>
-      <c r="E97" t="s">
-        <v>397</v>
-      </c>
-      <c r="G97" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>395</v>
+      </c>
+      <c r="F97" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" t="s">
         <v>316</v>
       </c>
       <c r="B98" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C98" t="s">
-        <v>304</v>
+        <v>215</v>
       </c>
       <c r="D98" t="s">
-        <v>398</v>
-      </c>
-      <c r="E98" t="s">
-        <v>398</v>
-      </c>
-      <c r="G98" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="F98" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" t="s">
         <v>316</v>
       </c>
       <c r="B99" s="1">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C99" t="s">
-        <v>305</v>
+        <v>216</v>
       </c>
       <c r="D99" t="s">
-        <v>189</v>
-      </c>
-      <c r="E99" t="s">
-        <v>189</v>
-      </c>
-      <c r="G99" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>396</v>
+      </c>
+      <c r="F99" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" t="s">
         <v>316</v>
       </c>
       <c r="B100" s="1">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C100" t="s">
-        <v>306</v>
+        <v>217</v>
       </c>
       <c r="D100" t="s">
-        <v>399</v>
-      </c>
-      <c r="E100" t="s">
-        <v>399</v>
-      </c>
-      <c r="G100" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="F100" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" t="s">
         <v>316</v>
       </c>
       <c r="B101" s="1">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C101" t="s">
-        <v>307</v>
+        <v>218</v>
       </c>
       <c r="D101" t="s">
-        <v>400</v>
-      </c>
-      <c r="E101" t="s">
-        <v>400</v>
-      </c>
-      <c r="G101" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="F101" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" t="s">
         <v>316</v>
       </c>
       <c r="B102" s="1">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C102" t="s">
-        <v>308</v>
+        <v>263</v>
       </c>
       <c r="D102" t="s">
-        <v>401</v>
-      </c>
-      <c r="E102" t="s">
-        <v>401</v>
-      </c>
-      <c r="G102" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>321</v>
+      </c>
+      <c r="F102" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" t="s">
         <v>316</v>
       </c>
-      <c r="B103" s="16">
-        <v>19</v>
+      <c r="B103" s="1">
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>18</v>
+        <v>302</v>
       </c>
       <c r="D103" t="s">
-        <v>18</v>
-      </c>
-      <c r="E103" t="s">
-        <v>18</v>
-      </c>
-      <c r="G103" t="s">
+        <v>69</v>
+      </c>
+      <c r="F103" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:6">
       <c r="A104" t="s">
         <v>316</v>
       </c>
       <c r="B104" s="1">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>309</v>
+        <v>252</v>
       </c>
       <c r="D104" t="s">
-        <v>309</v>
-      </c>
-      <c r="E104" t="s">
-        <v>309</v>
-      </c>
-      <c r="G104" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>62</v>
+      </c>
+      <c r="F104" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
       <c r="A105" t="s">
         <v>316</v>
       </c>
       <c r="B105" s="1">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C105" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="D105" t="s">
-        <v>14</v>
-      </c>
-      <c r="E105" t="s">
-        <v>14</v>
-      </c>
-      <c r="G105" t="s">
+        <v>71</v>
+      </c>
+      <c r="F105" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:6">
       <c r="A106" t="s">
         <v>316</v>
       </c>
       <c r="B106" s="1">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C106" t="s">
-        <v>310</v>
+        <v>83</v>
       </c>
       <c r="D106" t="s">
-        <v>310</v>
-      </c>
-      <c r="E106" t="s">
-        <v>310</v>
-      </c>
-      <c r="G106" t="s">
+        <v>83</v>
+      </c>
+      <c r="F106" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:6">
       <c r="A107" t="s">
         <v>316</v>
       </c>
       <c r="B107" s="1">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C107" t="s">
-        <v>311</v>
+        <v>275</v>
       </c>
       <c r="D107" t="s">
-        <v>311</v>
-      </c>
-      <c r="E107" t="s">
-        <v>311</v>
-      </c>
-      <c r="G107" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="F107" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
       <c r="A108" t="s">
         <v>316</v>
       </c>
       <c r="B108" s="1">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C108" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="D108" t="s">
-        <v>402</v>
-      </c>
-      <c r="E108" t="s">
-        <v>402</v>
-      </c>
-      <c r="G108" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>397</v>
+      </c>
+      <c r="F108" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
       <c r="A109" t="s">
         <v>316</v>
       </c>
       <c r="B109" s="1">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C109" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="D109" t="s">
-        <v>403</v>
-      </c>
-      <c r="E109" t="s">
-        <v>403</v>
-      </c>
-      <c r="G109" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>398</v>
+      </c>
+      <c r="F109" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
       <c r="A110" t="s">
         <v>316</v>
       </c>
       <c r="B110" s="1">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C110" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="D110" t="s">
-        <v>404</v>
-      </c>
-      <c r="E110" t="s">
-        <v>404</v>
-      </c>
-      <c r="G110" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>189</v>
+      </c>
+      <c r="F110" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
       <c r="A111" t="s">
         <v>316</v>
       </c>
       <c r="B111" s="1">
+        <v>16</v>
+      </c>
+      <c r="C111" t="s">
+        <v>306</v>
+      </c>
+      <c r="D111" t="s">
+        <v>399</v>
+      </c>
+      <c r="F111" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" t="s">
+        <v>316</v>
+      </c>
+      <c r="B112" s="1">
+        <v>17</v>
+      </c>
+      <c r="C112" t="s">
+        <v>307</v>
+      </c>
+      <c r="D112" t="s">
+        <v>400</v>
+      </c>
+      <c r="F112" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" t="s">
+        <v>316</v>
+      </c>
+      <c r="B113" s="1">
+        <v>18</v>
+      </c>
+      <c r="C113" t="s">
+        <v>308</v>
+      </c>
+      <c r="D113" t="s">
+        <v>401</v>
+      </c>
+      <c r="F113" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" t="s">
+        <v>316</v>
+      </c>
+      <c r="B114" s="16">
+        <v>19</v>
+      </c>
+      <c r="C114" t="s">
+        <v>18</v>
+      </c>
+      <c r="D114" t="s">
+        <v>18</v>
+      </c>
+      <c r="F114" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" t="s">
+        <v>316</v>
+      </c>
+      <c r="B115" s="1">
+        <v>20</v>
+      </c>
+      <c r="C115" t="s">
+        <v>309</v>
+      </c>
+      <c r="D115" t="s">
+        <v>309</v>
+      </c>
+      <c r="F115" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" t="s">
+        <v>316</v>
+      </c>
+      <c r="B116" s="1">
+        <v>21</v>
+      </c>
+      <c r="C116" t="s">
+        <v>14</v>
+      </c>
+      <c r="D116" t="s">
+        <v>14</v>
+      </c>
+      <c r="F116" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" t="s">
+        <v>316</v>
+      </c>
+      <c r="B117" s="1">
+        <v>22</v>
+      </c>
+      <c r="C117" t="s">
+        <v>310</v>
+      </c>
+      <c r="D117" t="s">
+        <v>310</v>
+      </c>
+      <c r="F117" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" t="s">
+        <v>316</v>
+      </c>
+      <c r="B118" s="1">
+        <v>23</v>
+      </c>
+      <c r="C118" t="s">
+        <v>311</v>
+      </c>
+      <c r="D118" t="s">
+        <v>311</v>
+      </c>
+      <c r="F118" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" t="s">
+        <v>316</v>
+      </c>
+      <c r="B119" s="1">
+        <v>24</v>
+      </c>
+      <c r="C119" t="s">
+        <v>312</v>
+      </c>
+      <c r="D119" t="s">
+        <v>402</v>
+      </c>
+      <c r="F119" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" t="s">
+        <v>316</v>
+      </c>
+      <c r="B120" s="1">
+        <v>25</v>
+      </c>
+      <c r="C120" t="s">
+        <v>313</v>
+      </c>
+      <c r="D120" t="s">
+        <v>403</v>
+      </c>
+      <c r="F120" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" t="s">
+        <v>316</v>
+      </c>
+      <c r="B121" s="1">
+        <v>26</v>
+      </c>
+      <c r="C121" t="s">
+        <v>314</v>
+      </c>
+      <c r="D121" t="s">
+        <v>404</v>
+      </c>
+      <c r="F121" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" t="s">
+        <v>316</v>
+      </c>
+      <c r="B122" s="1">
         <v>27</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="C122" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="D111" s="3" t="s">
+      <c r="D122" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="E111" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="F111" s="3"/>
-      <c r="G111" s="3" t="s">
+      <c r="E122" s="3"/>
+      <c r="F122" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="H111" s="3"/>
-    </row>
-    <row r="112" spans="1:8">
-      <c r="A112" s="3" t="s">
+      <c r="G122" s="3"/>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="B123" s="25"/>
+      <c r="C123" s="3"/>
+      <c r="D123" s="3"/>
+      <c r="E123" s="3"/>
+      <c r="F123" s="3"/>
+      <c r="G123" s="3"/>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="B112" s="1">
+      <c r="B124" s="1">
         <v>1</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="C124" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D124" t="s">
         <v>394</v>
       </c>
-      <c r="E112" s="3"/>
-      <c r="F112" s="3"/>
-      <c r="G112" s="3"/>
-      <c r="H112" s="3"/>
-    </row>
-    <row r="113" spans="1:8">
-      <c r="A113" s="3" t="s">
+      <c r="E124" s="3"/>
+      <c r="F124" s="3"/>
+      <c r="G124" s="3"/>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="B113" s="1">
+      <c r="B125" s="1">
         <v>2</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C125" t="s">
         <v>252</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D125" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
-      <c r="A114" s="3" t="s">
+    <row r="126" spans="1:7">
+      <c r="A126" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="B114" s="1">
+      <c r="B126" s="1">
         <v>3</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C126" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
-      <c r="A115" s="3" t="s">
+    <row r="127" spans="1:7">
+      <c r="A127" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="B115" s="1">
+      <c r="B127" s="1">
         <v>4</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C127" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
-      <c r="A116" s="3" t="s">
+    <row r="128" spans="1:7">
+      <c r="A128" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="B116" s="1">
+      <c r="B128" s="1">
         <v>5</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C128" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="117" spans="1:8">
-      <c r="A117" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="B117" s="1">
-        <v>6</v>
-      </c>
-      <c r="C117" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
-      <c r="A118" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="B118" s="1">
-        <v>7</v>
-      </c>
-      <c r="C118" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
-      <c r="A119" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="B119" s="1">
-        <v>8</v>
-      </c>
-      <c r="C119" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
-      <c r="A120" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="B120" s="1">
-        <v>9</v>
-      </c>
-      <c r="C120" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
-      <c r="A121" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="B121" s="1">
-        <v>10</v>
-      </c>
-      <c r="C121" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
-      <c r="A122" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="B122" s="1">
-        <v>11</v>
-      </c>
-      <c r="C122" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
-      <c r="A123" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="B123" s="1">
-        <v>1</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D123" t="s">
-        <v>394</v>
-      </c>
-      <c r="E123" t="s">
-        <v>394</v>
-      </c>
-      <c r="F123" s="3"/>
-      <c r="G123" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="H123" s="3"/>
-    </row>
-    <row r="124" spans="1:8">
-      <c r="A124" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="B124" s="1">
-        <v>2</v>
-      </c>
-      <c r="C124" t="s">
-        <v>214</v>
-      </c>
-      <c r="D124" t="s">
-        <v>395</v>
-      </c>
-      <c r="E124" t="s">
-        <v>395</v>
-      </c>
-      <c r="G124" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
-      <c r="A125" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="B125" s="1">
-        <v>3</v>
-      </c>
-      <c r="C125" t="s">
-        <v>215</v>
-      </c>
-      <c r="D125" t="s">
-        <v>26</v>
-      </c>
-      <c r="E125" t="s">
-        <v>26</v>
-      </c>
-      <c r="G125" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
-      <c r="A126" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="B126" s="1">
-        <v>4</v>
-      </c>
-      <c r="C126" t="s">
-        <v>216</v>
-      </c>
-      <c r="D126" t="s">
-        <v>396</v>
-      </c>
-      <c r="E126" t="s">
-        <v>396</v>
-      </c>
-      <c r="G126" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
-      <c r="A127" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="B127" s="1">
-        <v>5</v>
-      </c>
-      <c r="C127" t="s">
-        <v>217</v>
-      </c>
-      <c r="D127" t="s">
-        <v>67</v>
-      </c>
-      <c r="E127" t="s">
-        <v>67</v>
-      </c>
-      <c r="G127" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
-      <c r="A128" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="B128" s="1">
-        <v>6</v>
-      </c>
-      <c r="C128" t="s">
-        <v>218</v>
-      </c>
       <c r="D128" t="s">
-        <v>75</v>
-      </c>
-      <c r="E128" t="s">
-        <v>75</v>
-      </c>
-      <c r="G128" t="s">
-        <v>224</v>
+        <v>300</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="3" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="B129" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C129" t="s">
-        <v>282</v>
-      </c>
-      <c r="D129" t="s">
-        <v>434</v>
-      </c>
-      <c r="E129" t="s">
-        <v>434</v>
-      </c>
-      <c r="G129" t="s">
-        <v>156</v>
+        <v>301</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="3" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="B130" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C130" t="s">
-        <v>283</v>
-      </c>
-      <c r="D130" t="s">
-        <v>474</v>
-      </c>
-      <c r="E130" t="s">
-        <v>474</v>
-      </c>
-      <c r="G130" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="3" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="B131" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>284</v>
-      </c>
-      <c r="D131" t="s">
-        <v>475</v>
-      </c>
-      <c r="E131" t="s">
-        <v>475</v>
-      </c>
-      <c r="G131" t="s">
-        <v>156</v>
+        <v>223</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="3" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="B132" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>227</v>
-      </c>
-      <c r="D132" t="s">
-        <v>48</v>
-      </c>
-      <c r="E132" t="s">
-        <v>48</v>
-      </c>
-      <c r="G132" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="3" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="B133" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C133" t="s">
-        <v>285</v>
-      </c>
-      <c r="D133" t="s">
-        <v>11</v>
-      </c>
-      <c r="E133" t="s">
-        <v>11</v>
-      </c>
-      <c r="G133" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="3" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="B134" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C134" t="s">
-        <v>10</v>
-      </c>
-      <c r="D134" t="s">
-        <v>10</v>
-      </c>
-      <c r="E134" t="s">
-        <v>10</v>
-      </c>
-      <c r="G134" t="s">
-        <v>156</v>
+        <v>278</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -13550,39 +13279,35 @@
         <v>281</v>
       </c>
       <c r="B135" s="1">
-        <v>13</v>
-      </c>
-      <c r="C135" t="s">
-        <v>286</v>
+        <v>1</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>213</v>
       </c>
       <c r="D135" t="s">
-        <v>191</v>
-      </c>
-      <c r="E135" t="s">
-        <v>191</v>
-      </c>
-      <c r="G135" t="s">
-        <v>156</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="E135" s="3"/>
+      <c r="F135" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G135" s="3"/>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="3" t="s">
         <v>281</v>
       </c>
       <c r="B136" s="1">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C136" t="s">
-        <v>287</v>
+        <v>214</v>
       </c>
       <c r="D136" t="s">
-        <v>5</v>
-      </c>
-      <c r="E136" t="s">
-        <v>5</v>
-      </c>
-      <c r="G136" t="s">
-        <v>223</v>
+        <v>395</v>
+      </c>
+      <c r="F136" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -13590,15 +13315,15 @@
         <v>281</v>
       </c>
       <c r="B137" s="1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C137" t="s">
-        <v>288</v>
-      </c>
-      <c r="E137" t="s">
-        <v>288</v>
-      </c>
-      <c r="G137" t="s">
+        <v>215</v>
+      </c>
+      <c r="D137" t="s">
+        <v>26</v>
+      </c>
+      <c r="F137" t="s">
         <v>223</v>
       </c>
     </row>
@@ -13607,15 +13332,15 @@
         <v>281</v>
       </c>
       <c r="B138" s="1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C138" t="s">
-        <v>289</v>
-      </c>
-      <c r="E138" t="s">
-        <v>289</v>
-      </c>
-      <c r="G138" t="s">
+        <v>216</v>
+      </c>
+      <c r="D138" t="s">
+        <v>396</v>
+      </c>
+      <c r="F138" t="s">
         <v>224</v>
       </c>
     </row>
@@ -13624,16 +13349,16 @@
         <v>281</v>
       </c>
       <c r="B139" s="1">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C139" t="s">
-        <v>290</v>
-      </c>
-      <c r="E139" t="s">
-        <v>290</v>
-      </c>
-      <c r="G139" t="s">
-        <v>251</v>
+        <v>217</v>
+      </c>
+      <c r="D139" t="s">
+        <v>67</v>
+      </c>
+      <c r="F139" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -13641,19 +13366,16 @@
         <v>281</v>
       </c>
       <c r="B140" s="1">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C140" t="s">
-        <v>291</v>
+        <v>218</v>
       </c>
       <c r="D140" t="s">
-        <v>222</v>
-      </c>
-      <c r="E140" t="s">
-        <v>222</v>
-      </c>
-      <c r="G140" t="s">
-        <v>156</v>
+        <v>75</v>
+      </c>
+      <c r="F140" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -13661,19 +13383,16 @@
         <v>281</v>
       </c>
       <c r="B141" s="1">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C141" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="D141" t="s">
-        <v>139</v>
-      </c>
-      <c r="E141" t="s">
-        <v>139</v>
-      </c>
-      <c r="G141" t="s">
-        <v>295</v>
+        <v>434</v>
+      </c>
+      <c r="F141" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -13681,19 +13400,16 @@
         <v>281</v>
       </c>
       <c r="B142" s="1">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="D142" t="s">
-        <v>406</v>
-      </c>
-      <c r="E142" t="s">
-        <v>406</v>
-      </c>
-      <c r="G142" t="s">
-        <v>296</v>
+        <v>474</v>
+      </c>
+      <c r="F142" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -13701,19 +13417,16 @@
         <v>281</v>
       </c>
       <c r="B143" s="1">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="D143" t="s">
-        <v>294</v>
-      </c>
-      <c r="E143" t="s">
-        <v>294</v>
-      </c>
-      <c r="G143" t="s">
-        <v>225</v>
+        <v>475</v>
+      </c>
+      <c r="F143" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -13721,337 +13434,288 @@
         <v>281</v>
       </c>
       <c r="B144" s="1">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C144" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="D144" t="s">
-        <v>476</v>
-      </c>
-      <c r="E144" t="s">
-        <v>476</v>
-      </c>
-      <c r="G144" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="F144" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
       <c r="A145" s="3" t="s">
         <v>281</v>
       </c>
       <c r="B145" s="1">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C145" t="s">
-        <v>246</v>
+        <v>285</v>
       </c>
       <c r="D145" t="s">
-        <v>477</v>
-      </c>
-      <c r="E145" t="s">
-        <v>477</v>
-      </c>
-      <c r="G145" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>11</v>
+      </c>
+      <c r="F145" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
       <c r="A146" s="3" t="s">
         <v>281</v>
       </c>
       <c r="B146" s="1">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C146" t="s">
-        <v>247</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>478</v>
-      </c>
-      <c r="E146" t="s">
-        <v>478</v>
-      </c>
-      <c r="G146" t="s">
+        <v>229</v>
+      </c>
+      <c r="F146" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:6">
       <c r="A147" s="3" t="s">
         <v>281</v>
       </c>
       <c r="B147" s="1">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C147" t="s">
-        <v>248</v>
+        <v>286</v>
       </c>
       <c r="D147" t="s">
-        <v>479</v>
-      </c>
-      <c r="E147" t="s">
-        <v>479</v>
-      </c>
-      <c r="G147" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>191</v>
+      </c>
+      <c r="F147" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
       <c r="A148" s="3" t="s">
         <v>281</v>
       </c>
       <c r="B148" s="1">
+        <v>14</v>
+      </c>
+      <c r="C148" t="s">
+        <v>287</v>
+      </c>
+      <c r="D148" t="s">
+        <v>5</v>
+      </c>
+      <c r="F148" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B149" s="1">
+        <v>15</v>
+      </c>
+      <c r="C149" t="s">
+        <v>288</v>
+      </c>
+      <c r="D149" t="s">
+        <v>288</v>
+      </c>
+      <c r="F149" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B150" s="1">
+        <v>16</v>
+      </c>
+      <c r="C150" t="s">
+        <v>289</v>
+      </c>
+      <c r="D150" t="s">
+        <v>289</v>
+      </c>
+      <c r="F150" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B151" s="1">
+        <v>17</v>
+      </c>
+      <c r="C151" t="s">
+        <v>290</v>
+      </c>
+      <c r="D151" t="s">
+        <v>290</v>
+      </c>
+      <c r="F151" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B152" s="1">
+        <v>18</v>
+      </c>
+      <c r="C152" t="s">
+        <v>291</v>
+      </c>
+      <c r="D152" t="s">
+        <v>222</v>
+      </c>
+      <c r="F152" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B153" s="1">
+        <v>19</v>
+      </c>
+      <c r="C153" t="s">
+        <v>292</v>
+      </c>
+      <c r="D153" t="s">
+        <v>139</v>
+      </c>
+      <c r="F153" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B154" s="1">
+        <v>20</v>
+      </c>
+      <c r="C154" t="s">
+        <v>293</v>
+      </c>
+      <c r="D154" t="s">
+        <v>406</v>
+      </c>
+      <c r="F154" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B155" s="1">
+        <v>21</v>
+      </c>
+      <c r="C155" t="s">
+        <v>294</v>
+      </c>
+      <c r="D155" t="s">
+        <v>294</v>
+      </c>
+      <c r="F155" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B156" s="1">
+        <v>22</v>
+      </c>
+      <c r="C156" t="s">
+        <v>245</v>
+      </c>
+      <c r="D156" t="s">
+        <v>476</v>
+      </c>
+      <c r="F156" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B157" s="1">
+        <v>23</v>
+      </c>
+      <c r="C157" t="s">
+        <v>246</v>
+      </c>
+      <c r="D157" t="s">
+        <v>477</v>
+      </c>
+      <c r="F157" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B158" s="1">
+        <v>24</v>
+      </c>
+      <c r="C158" t="s">
+        <v>247</v>
+      </c>
+      <c r="D158" t="s">
+        <v>478</v>
+      </c>
+      <c r="F158" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B159" s="1">
+        <v>25</v>
+      </c>
+      <c r="C159" t="s">
+        <v>248</v>
+      </c>
+      <c r="D159" t="s">
+        <v>479</v>
+      </c>
+      <c r="F159" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B160" s="1">
         <v>26</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C160" t="s">
         <v>249</v>
       </c>
-      <c r="D148" t="s">
+      <c r="D160" t="s">
         <v>480</v>
       </c>
-      <c r="E148" t="s">
-        <v>480</v>
-      </c>
-      <c r="G148" t="s">
+      <c r="F160" t="s">
         <v>250</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
-      <c r="A149" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="B149" s="1">
-        <v>1</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D149" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="E149" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="F149" s="3"/>
-      <c r="G149" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="H149" s="3"/>
-    </row>
-    <row r="150" spans="1:8">
-      <c r="A150" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="B150" s="1">
-        <v>2</v>
-      </c>
-      <c r="C150" t="s">
-        <v>214</v>
-      </c>
-      <c r="D150" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="E150" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="G150" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
-      <c r="A151" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="B151" s="1">
-        <v>3</v>
-      </c>
-      <c r="C151" t="s">
-        <v>215</v>
-      </c>
-      <c r="D151" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E151" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G151" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
-      <c r="A152" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="B152" s="1">
-        <v>4</v>
-      </c>
-      <c r="C152" t="s">
-        <v>216</v>
-      </c>
-      <c r="D152" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="E152" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="G152" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
-      <c r="A153" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="B153" s="1">
-        <v>5</v>
-      </c>
-      <c r="C153" t="s">
-        <v>217</v>
-      </c>
-      <c r="D153" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E153" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G153" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
-      <c r="A154" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="B154" s="1">
-        <v>6</v>
-      </c>
-      <c r="C154" t="s">
-        <v>218</v>
-      </c>
-      <c r="D154" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E154" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G154" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
-      <c r="A155" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="B155" s="1">
-        <v>7</v>
-      </c>
-      <c r="C155" t="s">
-        <v>263</v>
-      </c>
-      <c r="D155" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="E155" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="G155" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
-      <c r="A156" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="B156" s="1">
-        <v>8</v>
-      </c>
-      <c r="C156" t="s">
-        <v>264</v>
-      </c>
-      <c r="D156" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="E156" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="G156" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
-      <c r="A157" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="B157" s="1">
-        <v>9</v>
-      </c>
-      <c r="C157" t="s">
-        <v>265</v>
-      </c>
-      <c r="D157" s="7"/>
-      <c r="E157" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="G157" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
-      <c r="A158" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="B158" s="1">
-        <v>10</v>
-      </c>
-      <c r="C158" t="s">
-        <v>266</v>
-      </c>
-      <c r="D158" s="6"/>
-      <c r="E158" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="G158" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
-      <c r="A159" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="B159" s="1">
-        <v>11</v>
-      </c>
-      <c r="C159" t="s">
-        <v>125</v>
-      </c>
-      <c r="D159" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E159" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G159" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
-      <c r="A160" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="B160" s="1">
-        <v>12</v>
-      </c>
-      <c r="C160" t="s">
-        <v>193</v>
-      </c>
-      <c r="D160" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="E160" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="G160" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -14059,38 +13723,34 @@
         <v>262</v>
       </c>
       <c r="B161" s="1">
-        <v>13</v>
-      </c>
-      <c r="C161" t="s">
-        <v>192</v>
+        <v>1</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>213</v>
       </c>
       <c r="D161" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="E161" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G161" t="s">
-        <v>278</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="E161" s="3"/>
+      <c r="F161" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G161" s="3"/>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="3" t="s">
         <v>262</v>
       </c>
       <c r="B162" s="1">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C162" t="s">
-        <v>267</v>
+        <v>214</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="E162" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="G162" t="s">
+        <v>395</v>
+      </c>
+      <c r="F162" t="s">
         <v>156</v>
       </c>
     </row>
@@ -14099,19 +13759,16 @@
         <v>262</v>
       </c>
       <c r="B163" s="1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C163" t="s">
-        <v>268</v>
+        <v>215</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E163" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G163" t="s">
-        <v>156</v>
+        <v>26</v>
+      </c>
+      <c r="F163" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -14119,17 +13776,16 @@
         <v>262</v>
       </c>
       <c r="B164" s="1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C164" t="s">
-        <v>269</v>
-      </c>
-      <c r="D164" s="6"/>
-      <c r="E164" t="s">
-        <v>489</v>
-      </c>
-      <c r="G164" t="s">
-        <v>156</v>
+        <v>216</v>
+      </c>
+      <c r="D164" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="F164" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -14137,19 +13793,16 @@
         <v>262</v>
       </c>
       <c r="B165" s="1">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C165" t="s">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="E165" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G165" t="s">
-        <v>156</v>
+        <v>67</v>
+      </c>
+      <c r="F165" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -14157,19 +13810,16 @@
         <v>262</v>
       </c>
       <c r="B166" s="1">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C166" t="s">
-        <v>270</v>
+        <v>218</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>487</v>
-      </c>
-      <c r="E166" s="6" t="s">
-        <v>487</v>
-      </c>
-      <c r="G166" t="s">
-        <v>223</v>
+        <v>75</v>
+      </c>
+      <c r="F166" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -14177,17 +13827,16 @@
         <v>262</v>
       </c>
       <c r="B167" s="1">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C167" t="s">
-        <v>271</v>
-      </c>
-      <c r="D167" s="7"/>
-      <c r="E167" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="G167" t="s">
-        <v>156</v>
+        <v>263</v>
+      </c>
+      <c r="D167" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F167" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -14195,16 +13844,15 @@
         <v>262</v>
       </c>
       <c r="B168" s="1">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>272</v>
-      </c>
-      <c r="D168" s="6"/>
-      <c r="E168" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="G168" t="s">
+        <v>264</v>
+      </c>
+      <c r="D168" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="F168" t="s">
         <v>156</v>
       </c>
     </row>
@@ -14213,16 +13861,15 @@
         <v>262</v>
       </c>
       <c r="B169" s="1">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>273</v>
-      </c>
-      <c r="D169" s="7"/>
-      <c r="E169" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="G169" t="s">
+        <v>265</v>
+      </c>
+      <c r="D169" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F169" t="s">
         <v>156</v>
       </c>
     </row>
@@ -14231,17 +13878,16 @@
         <v>262</v>
       </c>
       <c r="B170" s="1">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C170" t="s">
-        <v>274</v>
-      </c>
-      <c r="D170" s="6"/>
-      <c r="E170" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="G170" t="s">
-        <v>279</v>
+        <v>266</v>
+      </c>
+      <c r="D170" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="F170" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -14249,18 +13895,15 @@
         <v>262</v>
       </c>
       <c r="B171" s="1">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C171" t="s">
-        <v>275</v>
+        <v>125</v>
       </c>
       <c r="D171" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E171" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G171" t="s">
+        <v>1</v>
+      </c>
+      <c r="F171" t="s">
         <v>156</v>
       </c>
     </row>
@@ -14269,19 +13912,16 @@
         <v>262</v>
       </c>
       <c r="B172" s="1">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C172" t="s">
-        <v>276</v>
+        <v>193</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="E172" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="G172" t="s">
-        <v>280</v>
+        <v>193</v>
+      </c>
+      <c r="F172" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -14289,1370 +13929,1461 @@
         <v>262</v>
       </c>
       <c r="B173" s="1">
+        <v>13</v>
+      </c>
+      <c r="C173" t="s">
+        <v>192</v>
+      </c>
+      <c r="D173" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F173" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B174" s="1">
+        <v>14</v>
+      </c>
+      <c r="C174" t="s">
+        <v>267</v>
+      </c>
+      <c r="D174" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="F174" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B175" s="1">
+        <v>15</v>
+      </c>
+      <c r="C175" t="s">
+        <v>268</v>
+      </c>
+      <c r="D175" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F175" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B176" s="1">
+        <v>16</v>
+      </c>
+      <c r="C176" t="s">
+        <v>269</v>
+      </c>
+      <c r="D176" t="s">
+        <v>489</v>
+      </c>
+      <c r="F176" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B177" s="1">
+        <v>17</v>
+      </c>
+      <c r="C177" t="s">
+        <v>191</v>
+      </c>
+      <c r="D177" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F177" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B178" s="1">
+        <v>18</v>
+      </c>
+      <c r="C178" t="s">
+        <v>270</v>
+      </c>
+      <c r="D178" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="F178" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B179" s="1">
+        <v>19</v>
+      </c>
+      <c r="C179" t="s">
+        <v>271</v>
+      </c>
+      <c r="D179" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="F179" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B180" s="1">
+        <v>20</v>
+      </c>
+      <c r="C180" t="s">
+        <v>272</v>
+      </c>
+      <c r="D180" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="F180" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B181" s="1">
+        <v>21</v>
+      </c>
+      <c r="C181" t="s">
+        <v>273</v>
+      </c>
+      <c r="D181" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="F181" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B182" s="1">
+        <v>22</v>
+      </c>
+      <c r="C182" t="s">
+        <v>274</v>
+      </c>
+      <c r="D182" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="F182" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B183" s="1">
+        <v>23</v>
+      </c>
+      <c r="C183" t="s">
+        <v>275</v>
+      </c>
+      <c r="D183" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F183" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B184" s="1">
+        <v>24</v>
+      </c>
+      <c r="C184" t="s">
+        <v>276</v>
+      </c>
+      <c r="D184" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="F184" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B185" s="1">
         <v>25</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C185" t="s">
         <v>277</v>
       </c>
-      <c r="D173" s="7" t="s">
+      <c r="D185" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="E173" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="G173" t="s">
+      <c r="F185" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
-      <c r="A174" t="s">
+    <row r="186" spans="1:7">
+      <c r="A186" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B186" s="25"/>
+      <c r="C186" s="3"/>
+      <c r="D186" s="3"/>
+      <c r="E186" s="3"/>
+      <c r="F186" s="3"/>
+      <c r="G186" s="3"/>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" t="s">
         <v>261</v>
       </c>
-      <c r="B174" s="1">
+      <c r="B187" s="1">
         <v>1</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C187" t="s">
         <v>213</v>
       </c>
-      <c r="D174" t="s">
+      <c r="D187" t="s">
         <v>394</v>
       </c>
-      <c r="E174" t="s">
-        <v>394</v>
-      </c>
-      <c r="G174" t="s">
+      <c r="F187" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
-      <c r="A175" t="s">
+    <row r="188" spans="1:7">
+      <c r="A188" t="s">
         <v>261</v>
       </c>
-      <c r="B175" s="1">
+      <c r="B188" s="1">
         <v>2</v>
       </c>
-      <c r="C175" t="s">
+      <c r="C188" t="s">
         <v>252</v>
       </c>
-      <c r="D175" t="s">
+      <c r="D188" t="s">
         <v>62</v>
       </c>
-      <c r="E175" t="s">
-        <v>62</v>
-      </c>
-      <c r="G175" t="s">
+      <c r="F188" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
-      <c r="A176" t="s">
+    <row r="189" spans="1:7">
+      <c r="A189" t="s">
         <v>261</v>
       </c>
-      <c r="B176" s="1">
+      <c r="B189" s="1">
         <v>3</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C189" t="s">
         <v>253</v>
       </c>
-      <c r="D176" t="s">
+      <c r="D189" t="s">
         <v>396</v>
       </c>
-      <c r="E176" t="s">
-        <v>396</v>
-      </c>
-      <c r="G176" t="s">
+      <c r="F189" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
-      <c r="A177" t="s">
+    <row r="190" spans="1:7">
+      <c r="A190" t="s">
         <v>261</v>
       </c>
-      <c r="B177" s="1">
+      <c r="B190" s="1">
         <v>4</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C190" t="s">
         <v>254</v>
       </c>
-      <c r="D177" t="s">
+      <c r="D190" t="s">
         <v>11</v>
       </c>
-      <c r="E177" t="s">
+      <c r="F190" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" t="s">
+        <v>261</v>
+      </c>
+      <c r="B191" s="1">
+        <v>5</v>
+      </c>
+      <c r="C191" t="s">
+        <v>219</v>
+      </c>
+      <c r="D191" t="s">
+        <v>493</v>
+      </c>
+      <c r="F191" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" t="s">
+        <v>261</v>
+      </c>
+      <c r="B192" s="1">
+        <v>6</v>
+      </c>
+      <c r="C192" t="s">
+        <v>255</v>
+      </c>
+      <c r="D192" t="s">
+        <v>495</v>
+      </c>
+      <c r="F192" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" t="s">
+        <v>261</v>
+      </c>
+      <c r="B193" s="1">
+        <v>7</v>
+      </c>
+      <c r="C193" t="s">
+        <v>256</v>
+      </c>
+      <c r="D193" t="s">
+        <v>496</v>
+      </c>
+      <c r="F193" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" t="s">
+        <v>261</v>
+      </c>
+      <c r="B194" s="1">
+        <v>8</v>
+      </c>
+      <c r="C194" t="s">
+        <v>257</v>
+      </c>
+      <c r="D194" t="s">
+        <v>497</v>
+      </c>
+      <c r="F194" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" t="s">
+        <v>261</v>
+      </c>
+      <c r="B195" s="1">
+        <v>9</v>
+      </c>
+      <c r="C195" t="s">
+        <v>258</v>
+      </c>
+      <c r="D195" t="s">
+        <v>498</v>
+      </c>
+      <c r="F195" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" t="s">
+        <v>261</v>
+      </c>
+      <c r="B196" s="1">
+        <v>10</v>
+      </c>
+      <c r="C196" t="s">
+        <v>259</v>
+      </c>
+      <c r="D196" t="s">
+        <v>220</v>
+      </c>
+      <c r="F196" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197" t="s">
+        <v>261</v>
+      </c>
+      <c r="B197" s="1">
         <v>11</v>
       </c>
-      <c r="G177" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
-      <c r="A178" t="s">
-        <v>261</v>
-      </c>
-      <c r="B178" s="1">
-        <v>5</v>
-      </c>
-      <c r="C178" t="s">
-        <v>219</v>
-      </c>
-      <c r="D178" t="s">
-        <v>493</v>
-      </c>
-      <c r="E178" t="s">
-        <v>493</v>
-      </c>
-      <c r="G178" t="s">
+      <c r="C197" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="E197" s="3"/>
+      <c r="F197" s="3" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="179" spans="1:8">
-      <c r="A179" t="s">
-        <v>261</v>
-      </c>
-      <c r="B179" s="1">
-        <v>6</v>
-      </c>
-      <c r="C179" t="s">
-        <v>255</v>
-      </c>
-      <c r="E179" t="s">
-        <v>495</v>
-      </c>
-      <c r="G179" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
-      <c r="A180" t="s">
-        <v>261</v>
-      </c>
-      <c r="B180" s="1">
-        <v>7</v>
-      </c>
-      <c r="C180" t="s">
-        <v>256</v>
-      </c>
-      <c r="E180" t="s">
-        <v>496</v>
-      </c>
-      <c r="G180" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
-      <c r="A181" t="s">
-        <v>261</v>
-      </c>
-      <c r="B181" s="1">
-        <v>8</v>
-      </c>
-      <c r="C181" t="s">
-        <v>257</v>
-      </c>
-      <c r="E181" t="s">
-        <v>497</v>
-      </c>
-      <c r="G181" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
-      <c r="A182" t="s">
-        <v>261</v>
-      </c>
-      <c r="B182" s="1">
-        <v>9</v>
-      </c>
-      <c r="C182" t="s">
-        <v>258</v>
-      </c>
-      <c r="E182" t="s">
-        <v>498</v>
-      </c>
-      <c r="G182" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
-      <c r="A183" t="s">
-        <v>261</v>
-      </c>
-      <c r="B183" s="1">
-        <v>10</v>
-      </c>
-      <c r="C183" t="s">
-        <v>259</v>
-      </c>
-      <c r="E183" t="s">
-        <v>220</v>
-      </c>
-      <c r="G183" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
-      <c r="A184" t="s">
-        <v>261</v>
-      </c>
-      <c r="B184" s="1">
-        <v>11</v>
-      </c>
-      <c r="C184" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="D184" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="E184" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="F184" s="3"/>
-      <c r="G184" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="H184" s="3"/>
-    </row>
-    <row r="185" spans="1:8">
-      <c r="A185" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="B185" s="1">
-        <v>1</v>
-      </c>
-      <c r="C185" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D185" t="s">
-        <v>394</v>
-      </c>
-      <c r="E185" t="s">
-        <v>394</v>
-      </c>
-      <c r="F185" s="3"/>
-      <c r="G185" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="H185" s="3"/>
-    </row>
-    <row r="186" spans="1:8">
-      <c r="A186" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="B186" s="1">
-        <v>2</v>
-      </c>
-      <c r="C186" t="s">
-        <v>214</v>
-      </c>
-      <c r="D186" t="s">
-        <v>395</v>
-      </c>
-      <c r="E186" t="s">
-        <v>395</v>
-      </c>
-      <c r="G186" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
-      <c r="A187" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="B187" s="1">
-        <v>3</v>
-      </c>
-      <c r="C187" t="s">
-        <v>215</v>
-      </c>
-      <c r="D187" t="s">
-        <v>26</v>
-      </c>
-      <c r="E187" t="s">
-        <v>26</v>
-      </c>
-      <c r="G187" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
-      <c r="A188" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="B188" s="1">
-        <v>4</v>
-      </c>
-      <c r="C188" t="s">
-        <v>216</v>
-      </c>
-      <c r="D188" t="s">
-        <v>396</v>
-      </c>
-      <c r="E188" t="s">
-        <v>396</v>
-      </c>
-      <c r="G188" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
-      <c r="A189" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="B189" s="1">
-        <v>5</v>
-      </c>
-      <c r="C189" t="s">
-        <v>217</v>
-      </c>
-      <c r="D189" t="s">
-        <v>67</v>
-      </c>
-      <c r="E189" t="s">
-        <v>67</v>
-      </c>
-      <c r="G189" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
-      <c r="A190" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="B190" s="1">
-        <v>6</v>
-      </c>
-      <c r="C190" t="s">
-        <v>218</v>
-      </c>
-      <c r="D190" t="s">
-        <v>75</v>
-      </c>
-      <c r="E190" t="s">
-        <v>75</v>
-      </c>
-      <c r="G190" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
-      <c r="A191" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="B191" s="1">
-        <v>7</v>
-      </c>
-      <c r="C191" t="s">
-        <v>189</v>
-      </c>
-      <c r="D191" t="s">
-        <v>189</v>
-      </c>
-      <c r="E191" t="s">
-        <v>189</v>
-      </c>
-      <c r="G191" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
-      <c r="A192" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="B192" s="1">
-        <v>8</v>
-      </c>
-      <c r="C192" t="s">
-        <v>49</v>
-      </c>
-      <c r="D192" t="s">
-        <v>49</v>
-      </c>
-      <c r="E192" t="s">
-        <v>49</v>
-      </c>
-      <c r="G192" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7">
-      <c r="A193" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="B193" s="1">
-        <v>9</v>
-      </c>
-      <c r="C193" t="s">
-        <v>244</v>
-      </c>
-      <c r="D193" t="s">
-        <v>28</v>
-      </c>
-      <c r="E193" t="s">
-        <v>28</v>
-      </c>
-      <c r="G193" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7">
-      <c r="A194" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="B194" s="1">
-        <v>10</v>
-      </c>
-      <c r="C194" t="s">
-        <v>65</v>
-      </c>
-      <c r="D194" t="s">
-        <v>65</v>
-      </c>
-      <c r="E194" t="s">
-        <v>65</v>
-      </c>
-      <c r="G194" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7">
-      <c r="A195" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="B195" s="1">
-        <v>11</v>
-      </c>
-      <c r="C195" t="s">
-        <v>245</v>
-      </c>
-      <c r="D195" t="s">
-        <v>507</v>
-      </c>
-      <c r="E195" t="s">
-        <v>507</v>
-      </c>
-      <c r="G195" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7">
-      <c r="A196" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="B196" s="1">
-        <v>12</v>
-      </c>
-      <c r="C196" t="s">
-        <v>246</v>
-      </c>
-      <c r="D196" t="s">
-        <v>477</v>
-      </c>
-      <c r="E196" t="s">
-        <v>477</v>
-      </c>
-      <c r="G196" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7">
-      <c r="A197" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="B197" s="1">
-        <v>13</v>
-      </c>
-      <c r="C197" t="s">
-        <v>247</v>
-      </c>
-      <c r="D197" t="s">
-        <v>478</v>
-      </c>
-      <c r="E197" t="s">
-        <v>478</v>
-      </c>
-      <c r="G197" t="s">
-        <v>156</v>
-      </c>
+      <c r="G197" s="3"/>
     </row>
     <row r="198" spans="1:7">
       <c r="A198" s="3" t="s">
         <v>243</v>
       </c>
       <c r="B198" s="1">
-        <v>14</v>
-      </c>
-      <c r="C198" t="s">
-        <v>248</v>
+        <v>1</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>213</v>
       </c>
       <c r="D198" t="s">
-        <v>479</v>
-      </c>
-      <c r="E198" t="s">
-        <v>479</v>
-      </c>
-      <c r="G198" t="s">
-        <v>250</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="E198" s="3"/>
+      <c r="F198" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G198" s="3"/>
     </row>
     <row r="199" spans="1:7">
       <c r="A199" s="3" t="s">
         <v>243</v>
       </c>
       <c r="B199" s="1">
+        <v>2</v>
+      </c>
+      <c r="C199" t="s">
+        <v>214</v>
+      </c>
+      <c r="D199" t="s">
+        <v>395</v>
+      </c>
+      <c r="F199" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B200" s="1">
+        <v>3</v>
+      </c>
+      <c r="C200" t="s">
+        <v>215</v>
+      </c>
+      <c r="D200" t="s">
+        <v>26</v>
+      </c>
+      <c r="F200" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B201" s="1">
+        <v>4</v>
+      </c>
+      <c r="C201" t="s">
+        <v>216</v>
+      </c>
+      <c r="D201" t="s">
+        <v>396</v>
+      </c>
+      <c r="F201" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B202" s="1">
+        <v>5</v>
+      </c>
+      <c r="C202" t="s">
+        <v>217</v>
+      </c>
+      <c r="D202" t="s">
+        <v>67</v>
+      </c>
+      <c r="F202" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B203" s="1">
+        <v>6</v>
+      </c>
+      <c r="C203" t="s">
+        <v>218</v>
+      </c>
+      <c r="D203" t="s">
+        <v>75</v>
+      </c>
+      <c r="F203" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B204" s="1">
+        <v>7</v>
+      </c>
+      <c r="C204" t="s">
+        <v>189</v>
+      </c>
+      <c r="D204" t="s">
+        <v>189</v>
+      </c>
+      <c r="F204" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B205" s="1">
+        <v>8</v>
+      </c>
+      <c r="C205" t="s">
+        <v>49</v>
+      </c>
+      <c r="D205" t="s">
+        <v>49</v>
+      </c>
+      <c r="F205" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B206" s="1">
+        <v>9</v>
+      </c>
+      <c r="C206" t="s">
+        <v>244</v>
+      </c>
+      <c r="D206" t="s">
+        <v>28</v>
+      </c>
+      <c r="F206" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B207" s="1">
+        <v>10</v>
+      </c>
+      <c r="C207" t="s">
+        <v>65</v>
+      </c>
+      <c r="D207" t="s">
+        <v>65</v>
+      </c>
+      <c r="F207" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B208" s="1">
+        <v>11</v>
+      </c>
+      <c r="C208" t="s">
+        <v>245</v>
+      </c>
+      <c r="D208" t="s">
+        <v>507</v>
+      </c>
+      <c r="F208" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B209" s="1">
+        <v>12</v>
+      </c>
+      <c r="C209" t="s">
+        <v>246</v>
+      </c>
+      <c r="D209" t="s">
+        <v>477</v>
+      </c>
+      <c r="F209" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B210" s="1">
+        <v>13</v>
+      </c>
+      <c r="C210" t="s">
+        <v>247</v>
+      </c>
+      <c r="D210" t="s">
+        <v>478</v>
+      </c>
+      <c r="F210" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B211" s="1">
+        <v>14</v>
+      </c>
+      <c r="C211" t="s">
+        <v>248</v>
+      </c>
+      <c r="D211" t="s">
+        <v>479</v>
+      </c>
+      <c r="F211" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B212" s="1">
         <v>15</v>
       </c>
-      <c r="C199" t="s">
+      <c r="C212" t="s">
         <v>249</v>
       </c>
-      <c r="D199" t="s">
+      <c r="D212" t="s">
         <v>480</v>
       </c>
-      <c r="E199" t="s">
-        <v>480</v>
-      </c>
-      <c r="G199" t="s">
+      <c r="F212" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="200" spans="1:7">
-      <c r="A200" t="s">
-        <v>242</v>
-      </c>
-      <c r="B200" s="1">
-        <v>1</v>
-      </c>
-      <c r="C200" t="s">
-        <v>213</v>
-      </c>
-      <c r="D200" t="s">
-        <v>394</v>
-      </c>
-      <c r="E200" t="s">
-        <v>394</v>
-      </c>
-      <c r="G200" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7">
-      <c r="A201" t="s">
-        <v>242</v>
-      </c>
-      <c r="B201" s="1">
-        <v>2</v>
-      </c>
-      <c r="C201" t="s">
-        <v>214</v>
-      </c>
-      <c r="D201" t="s">
-        <v>395</v>
-      </c>
-      <c r="E201" t="s">
-        <v>395</v>
-      </c>
-      <c r="G201" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7">
-      <c r="A202" t="s">
-        <v>242</v>
-      </c>
-      <c r="B202" s="1">
-        <v>3</v>
-      </c>
-      <c r="C202" t="s">
-        <v>215</v>
-      </c>
-      <c r="D202" t="s">
-        <v>26</v>
-      </c>
-      <c r="E202" t="s">
-        <v>26</v>
-      </c>
-      <c r="G202" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7">
-      <c r="A203" t="s">
-        <v>242</v>
-      </c>
-      <c r="B203" s="1">
-        <v>4</v>
-      </c>
-      <c r="C203" t="s">
-        <v>216</v>
-      </c>
-      <c r="D203" t="s">
-        <v>396</v>
-      </c>
-      <c r="E203" t="s">
-        <v>396</v>
-      </c>
-      <c r="G203" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7">
-      <c r="A204" t="s">
-        <v>242</v>
-      </c>
-      <c r="B204" s="1">
-        <v>5</v>
-      </c>
-      <c r="C204" t="s">
-        <v>217</v>
-      </c>
-      <c r="D204" t="s">
-        <v>67</v>
-      </c>
-      <c r="E204" t="s">
-        <v>67</v>
-      </c>
-      <c r="G204" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7">
-      <c r="A205" t="s">
-        <v>242</v>
-      </c>
-      <c r="B205" s="1">
-        <v>6</v>
-      </c>
-      <c r="C205" t="s">
-        <v>218</v>
-      </c>
-      <c r="D205" t="s">
-        <v>75</v>
-      </c>
-      <c r="E205" t="s">
-        <v>75</v>
-      </c>
-      <c r="G205" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7">
-      <c r="A206" t="s">
-        <v>242</v>
-      </c>
-      <c r="B206" s="1">
-        <v>7</v>
-      </c>
-      <c r="C206" t="s">
-        <v>6</v>
-      </c>
-      <c r="D206" t="s">
-        <v>205</v>
-      </c>
-      <c r="E206" t="s">
-        <v>205</v>
-      </c>
-      <c r="G206" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7">
-      <c r="A207" t="s">
-        <v>242</v>
-      </c>
-      <c r="B207" s="1">
-        <v>8</v>
-      </c>
-      <c r="C207" t="s">
-        <v>231</v>
-      </c>
-      <c r="D207" t="s">
-        <v>231</v>
-      </c>
-      <c r="E207" t="s">
-        <v>231</v>
-      </c>
-      <c r="G207" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7">
-      <c r="A208" t="s">
-        <v>242</v>
-      </c>
-      <c r="B208" s="1">
-        <v>9</v>
-      </c>
-      <c r="C208" t="s">
-        <v>232</v>
-      </c>
-      <c r="D208" t="s">
-        <v>2</v>
-      </c>
-      <c r="E208" t="s">
-        <v>2</v>
-      </c>
-      <c r="G208" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
-      <c r="A209" t="s">
-        <v>242</v>
-      </c>
-      <c r="B209" s="1">
-        <v>10</v>
-      </c>
-      <c r="C209" t="s">
-        <v>233</v>
-      </c>
-      <c r="D209" t="s">
-        <v>441</v>
-      </c>
-      <c r="E209" t="s">
-        <v>441</v>
-      </c>
-      <c r="G209" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
-      <c r="A210" t="s">
-        <v>242</v>
-      </c>
-      <c r="B210" s="1">
-        <v>11</v>
-      </c>
-      <c r="C210" t="s">
-        <v>191</v>
-      </c>
-      <c r="D210" t="s">
-        <v>499</v>
-      </c>
-      <c r="E210" t="s">
-        <v>499</v>
-      </c>
-      <c r="G210" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
-      <c r="A211" t="s">
-        <v>242</v>
-      </c>
-      <c r="B211" s="1">
-        <v>12</v>
-      </c>
-      <c r="C211" t="s">
-        <v>234</v>
-      </c>
-      <c r="D211" t="s">
-        <v>500</v>
-      </c>
-      <c r="E211" t="s">
-        <v>500</v>
-      </c>
-      <c r="G211" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
-      <c r="A212" t="s">
-        <v>242</v>
-      </c>
-      <c r="B212" s="1">
-        <v>13</v>
-      </c>
-      <c r="C212" t="s">
-        <v>235</v>
-      </c>
-      <c r="D212" t="s">
-        <v>501</v>
-      </c>
-      <c r="E212" t="s">
-        <v>501</v>
-      </c>
-      <c r="G212" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:6">
       <c r="A213" t="s">
         <v>242</v>
       </c>
       <c r="B213" s="1">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C213" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="D213" t="s">
-        <v>502</v>
-      </c>
-      <c r="E213" t="s">
-        <v>502</v>
-      </c>
-      <c r="G213" t="s">
+        <v>394</v>
+      </c>
+      <c r="F213" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:6">
       <c r="A214" t="s">
         <v>242</v>
       </c>
       <c r="B214" s="1">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C214" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="D214" t="s">
-        <v>503</v>
-      </c>
-      <c r="E214" t="s">
-        <v>503</v>
-      </c>
-      <c r="G214" t="s">
+        <v>395</v>
+      </c>
+      <c r="F214" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:6">
       <c r="A215" t="s">
         <v>242</v>
       </c>
       <c r="B215" s="1">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C215" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="D215" t="s">
-        <v>504</v>
-      </c>
-      <c r="E215" t="s">
-        <v>504</v>
-      </c>
-      <c r="G215" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="F215" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
       <c r="A216" t="s">
         <v>242</v>
       </c>
       <c r="B216" s="1">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C216" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="D216" t="s">
-        <v>505</v>
-      </c>
-      <c r="E216" t="s">
-        <v>505</v>
-      </c>
-      <c r="G216" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8">
+        <v>396</v>
+      </c>
+      <c r="F216" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
       <c r="A217" t="s">
         <v>242</v>
       </c>
       <c r="B217" s="1">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C217" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="D217" t="s">
-        <v>332</v>
-      </c>
-      <c r="E217" t="s">
-        <v>332</v>
-      </c>
-      <c r="G217" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="F217" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
       <c r="A218" t="s">
         <v>242</v>
       </c>
       <c r="B218" s="1">
+        <v>6</v>
+      </c>
+      <c r="C218" t="s">
+        <v>218</v>
+      </c>
+      <c r="D218" t="s">
+        <v>75</v>
+      </c>
+      <c r="F218" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219" t="s">
+        <v>242</v>
+      </c>
+      <c r="B219" s="1">
+        <v>7</v>
+      </c>
+      <c r="C219" t="s">
+        <v>6</v>
+      </c>
+      <c r="D219" t="s">
+        <v>205</v>
+      </c>
+      <c r="F219" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" t="s">
+        <v>242</v>
+      </c>
+      <c r="B220" s="1">
+        <v>8</v>
+      </c>
+      <c r="C220" t="s">
+        <v>231</v>
+      </c>
+      <c r="D220" t="s">
+        <v>231</v>
+      </c>
+      <c r="F220" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221" t="s">
+        <v>242</v>
+      </c>
+      <c r="B221" s="1">
+        <v>9</v>
+      </c>
+      <c r="C221" t="s">
+        <v>232</v>
+      </c>
+      <c r="D221" t="s">
+        <v>2</v>
+      </c>
+      <c r="F221" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222" t="s">
+        <v>242</v>
+      </c>
+      <c r="B222" s="1">
+        <v>10</v>
+      </c>
+      <c r="C222" t="s">
+        <v>233</v>
+      </c>
+      <c r="D222" t="s">
+        <v>441</v>
+      </c>
+      <c r="F222" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" t="s">
+        <v>242</v>
+      </c>
+      <c r="B223" s="1">
+        <v>11</v>
+      </c>
+      <c r="C223" t="s">
+        <v>191</v>
+      </c>
+      <c r="D223" t="s">
+        <v>499</v>
+      </c>
+      <c r="F223" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" t="s">
+        <v>242</v>
+      </c>
+      <c r="B224" s="1">
+        <v>12</v>
+      </c>
+      <c r="C224" t="s">
+        <v>234</v>
+      </c>
+      <c r="D224" t="s">
+        <v>500</v>
+      </c>
+      <c r="F224" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225" t="s">
+        <v>242</v>
+      </c>
+      <c r="B225" s="1">
+        <v>13</v>
+      </c>
+      <c r="C225" t="s">
+        <v>235</v>
+      </c>
+      <c r="D225" t="s">
+        <v>501</v>
+      </c>
+      <c r="F225" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226" t="s">
+        <v>242</v>
+      </c>
+      <c r="B226" s="1">
+        <v>14</v>
+      </c>
+      <c r="C226" t="s">
+        <v>236</v>
+      </c>
+      <c r="D226" t="s">
+        <v>502</v>
+      </c>
+      <c r="F226" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="A227" t="s">
+        <v>242</v>
+      </c>
+      <c r="B227" s="1">
+        <v>15</v>
+      </c>
+      <c r="C227" t="s">
+        <v>237</v>
+      </c>
+      <c r="D227" t="s">
+        <v>503</v>
+      </c>
+      <c r="F227" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
+      <c r="A228" t="s">
+        <v>242</v>
+      </c>
+      <c r="B228" s="1">
+        <v>16</v>
+      </c>
+      <c r="C228" t="s">
+        <v>238</v>
+      </c>
+      <c r="D228" t="s">
+        <v>504</v>
+      </c>
+      <c r="F228" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="A229" t="s">
+        <v>242</v>
+      </c>
+      <c r="B229" s="1">
+        <v>17</v>
+      </c>
+      <c r="C229" t="s">
+        <v>239</v>
+      </c>
+      <c r="D229" t="s">
+        <v>505</v>
+      </c>
+      <c r="F229" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230" t="s">
+        <v>242</v>
+      </c>
+      <c r="B230" s="1">
+        <v>18</v>
+      </c>
+      <c r="C230" t="s">
+        <v>240</v>
+      </c>
+      <c r="D230" t="s">
+        <v>332</v>
+      </c>
+      <c r="F230" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231" t="s">
+        <v>242</v>
+      </c>
+      <c r="B231" s="1">
         <v>19</v>
       </c>
-      <c r="C218" s="3" t="s">
+      <c r="C231" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="D218" s="3" t="s">
+      <c r="D231" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="E218" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="F218" s="3"/>
-      <c r="G218" s="3" t="s">
+      <c r="E231" s="3"/>
+      <c r="F231" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="H218" s="3"/>
-    </row>
-    <row r="219" spans="1:8">
-      <c r="A219" s="3" t="s">
+      <c r="G231" s="3"/>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="B219" s="1">
+      <c r="B232" s="1">
         <v>1</v>
       </c>
-      <c r="C219" s="3" t="s">
+      <c r="C232" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D219" t="s">
+      <c r="D232" t="s">
         <v>394</v>
       </c>
-      <c r="E219" t="s">
-        <v>394</v>
-      </c>
-      <c r="F219" s="3"/>
-      <c r="G219" s="3" t="s">
+      <c r="E232" s="3"/>
+      <c r="F232" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="H219" s="3"/>
-    </row>
-    <row r="220" spans="1:8">
-      <c r="A220" s="3" t="s">
+      <c r="G232" s="3"/>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="B220" s="1">
+      <c r="B233" s="1">
         <v>2</v>
       </c>
-      <c r="C220" t="s">
+      <c r="C233" t="s">
         <v>214</v>
       </c>
-      <c r="D220" t="s">
+      <c r="D233" t="s">
         <v>395</v>
       </c>
-      <c r="E220" t="s">
-        <v>395</v>
-      </c>
-      <c r="G220" t="s">
+      <c r="F233" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
-      <c r="A221" s="3" t="s">
+    <row r="234" spans="1:7">
+      <c r="A234" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="B221" s="1">
+      <c r="B234" s="1">
         <v>3</v>
       </c>
-      <c r="C221" t="s">
+      <c r="C234" t="s">
         <v>215</v>
       </c>
-      <c r="D221" t="s">
+      <c r="D234" t="s">
         <v>26</v>
       </c>
-      <c r="E221" t="s">
-        <v>26</v>
-      </c>
-      <c r="G221" t="s">
+      <c r="F234" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
-      <c r="A222" s="3" t="s">
+    <row r="235" spans="1:7">
+      <c r="A235" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="B222" s="1">
+      <c r="B235" s="1">
         <v>4</v>
       </c>
-      <c r="C222" t="s">
+      <c r="C235" t="s">
         <v>216</v>
       </c>
-      <c r="D222" t="s">
+      <c r="D235" t="s">
         <v>396</v>
       </c>
-      <c r="E222" t="s">
-        <v>396</v>
-      </c>
-      <c r="G222" t="s">
+      <c r="F235" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
-      <c r="A223" s="3" t="s">
+    <row r="236" spans="1:7">
+      <c r="A236" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="B223" s="1">
+      <c r="B236" s="1">
         <v>5</v>
       </c>
-      <c r="C223" t="s">
+      <c r="C236" t="s">
         <v>217</v>
       </c>
-      <c r="D223" t="s">
+      <c r="D236" t="s">
         <v>67</v>
       </c>
-      <c r="E223" t="s">
-        <v>67</v>
-      </c>
-      <c r="G223" t="s">
+      <c r="F236" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="224" spans="1:8">
-      <c r="A224" s="3" t="s">
+    <row r="237" spans="1:7">
+      <c r="A237" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="B224" s="1">
+      <c r="B237" s="1">
         <v>6</v>
       </c>
-      <c r="C224" t="s">
+      <c r="C237" t="s">
         <v>218</v>
       </c>
-      <c r="D224" t="s">
+      <c r="D237" t="s">
         <v>75</v>
       </c>
-      <c r="E224" t="s">
-        <v>75</v>
-      </c>
-      <c r="G224" t="s">
+      <c r="F237" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="225" spans="1:8">
-      <c r="A225" s="3" t="s">
+    <row r="238" spans="1:7">
+      <c r="A238" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="B225" s="1">
+      <c r="B238" s="1">
         <v>7</v>
       </c>
-      <c r="C225" t="s">
+      <c r="C238" t="s">
         <v>227</v>
       </c>
-      <c r="D225" t="s">
+      <c r="D238" t="s">
         <v>48</v>
       </c>
-      <c r="E225" t="s">
-        <v>48</v>
-      </c>
-      <c r="G225" t="s">
+      <c r="F238" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="226" spans="1:8">
-      <c r="A226" s="3" t="s">
+    <row r="239" spans="1:7">
+      <c r="A239" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="B226" s="1">
+      <c r="B239" s="1">
         <v>8</v>
       </c>
-      <c r="C226" t="s">
+      <c r="C239" t="s">
         <v>228</v>
       </c>
-      <c r="D226" t="s">
+      <c r="D239" t="s">
         <v>11</v>
       </c>
-      <c r="E226" t="s">
-        <v>11</v>
-      </c>
-      <c r="G226" t="s">
+      <c r="F239" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
-      <c r="A227" s="3" t="s">
+    <row r="240" spans="1:7">
+      <c r="A240" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="B227" s="1">
+      <c r="B240" s="1">
         <v>9</v>
       </c>
-      <c r="C227" t="s">
+      <c r="C240" t="s">
         <v>3</v>
       </c>
-      <c r="D227" t="s">
+      <c r="D240" t="s">
         <v>3</v>
       </c>
-      <c r="E227" t="s">
-        <v>3</v>
-      </c>
-      <c r="G227" t="s">
+      <c r="F240" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="228" spans="1:8">
-      <c r="A228" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="B228" s="1">
-        <v>10</v>
-      </c>
-      <c r="C228" t="s">
-        <v>229</v>
-      </c>
-      <c r="D228" t="s">
-        <v>10</v>
-      </c>
-      <c r="E228" t="s">
-        <v>10</v>
-      </c>
-      <c r="G228" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8">
-      <c r="A229" t="s">
-        <v>211</v>
-      </c>
-      <c r="B229" s="1">
-        <v>1</v>
-      </c>
-      <c r="C229" t="s">
-        <v>213</v>
-      </c>
-      <c r="D229" t="s">
-        <v>394</v>
-      </c>
-      <c r="E229" t="s">
-        <v>394</v>
-      </c>
-      <c r="G229" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8">
-      <c r="A230" t="s">
-        <v>211</v>
-      </c>
-      <c r="B230" s="1">
-        <v>2</v>
-      </c>
-      <c r="C230" t="s">
-        <v>214</v>
-      </c>
-      <c r="D230" t="s">
-        <v>395</v>
-      </c>
-      <c r="E230" t="s">
-        <v>395</v>
-      </c>
-      <c r="G230" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8">
-      <c r="A231" t="s">
-        <v>211</v>
-      </c>
-      <c r="B231" s="1">
-        <v>3</v>
-      </c>
-      <c r="C231" t="s">
-        <v>215</v>
-      </c>
-      <c r="D231" t="s">
-        <v>26</v>
-      </c>
-      <c r="E231" t="s">
-        <v>26</v>
-      </c>
-      <c r="G231" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8">
-      <c r="A232" t="s">
-        <v>211</v>
-      </c>
-      <c r="B232" s="1">
-        <v>4</v>
-      </c>
-      <c r="C232" t="s">
-        <v>216</v>
-      </c>
-      <c r="D232" t="s">
-        <v>396</v>
-      </c>
-      <c r="E232" t="s">
-        <v>396</v>
-      </c>
-      <c r="G232" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8">
-      <c r="A233" t="s">
-        <v>211</v>
-      </c>
-      <c r="B233" s="1">
-        <v>5</v>
-      </c>
-      <c r="C233" t="s">
-        <v>217</v>
-      </c>
-      <c r="D233" t="s">
-        <v>67</v>
-      </c>
-      <c r="E233" t="s">
-        <v>67</v>
-      </c>
-      <c r="G233" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8">
-      <c r="A234" t="s">
-        <v>211</v>
-      </c>
-      <c r="B234" s="1">
-        <v>6</v>
-      </c>
-      <c r="C234" t="s">
-        <v>218</v>
-      </c>
-      <c r="D234" t="s">
-        <v>75</v>
-      </c>
-      <c r="E234" t="s">
-        <v>75</v>
-      </c>
-      <c r="G234" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8">
-      <c r="A235" t="s">
-        <v>211</v>
-      </c>
-      <c r="B235" s="1">
-        <v>7</v>
-      </c>
-      <c r="C235" t="s">
-        <v>219</v>
-      </c>
-      <c r="D235" t="s">
-        <v>475</v>
-      </c>
-      <c r="E235" t="s">
-        <v>475</v>
-      </c>
-      <c r="G235" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8">
-      <c r="A236" t="s">
-        <v>211</v>
-      </c>
-      <c r="B236" s="1">
-        <v>8</v>
-      </c>
-      <c r="C236" t="s">
-        <v>220</v>
-      </c>
-      <c r="D236" t="s">
-        <v>44</v>
-      </c>
-      <c r="E236" t="s">
-        <v>44</v>
-      </c>
-      <c r="G236" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8">
-      <c r="A237" t="s">
-        <v>211</v>
-      </c>
-      <c r="B237" s="1">
-        <v>9</v>
-      </c>
-      <c r="C237" t="s">
-        <v>221</v>
-      </c>
-      <c r="E237" t="s">
-        <v>221</v>
-      </c>
-      <c r="G237" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8">
-      <c r="A238" t="s">
-        <v>211</v>
-      </c>
-      <c r="B238" s="1">
-        <v>10</v>
-      </c>
-      <c r="C238" t="s">
-        <v>222</v>
-      </c>
-      <c r="D238" t="s">
-        <v>222</v>
-      </c>
-      <c r="E238" t="s">
-        <v>222</v>
-      </c>
-      <c r="G238" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8">
-      <c r="A239" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="B239" s="17"/>
-      <c r="C239" s="3"/>
-      <c r="D239" s="3"/>
-      <c r="E239" s="3"/>
-      <c r="F239" s="3"/>
-      <c r="G239" s="3"/>
-      <c r="H239" s="3"/>
-    </row>
-    <row r="240" spans="1:8">
-      <c r="A240" s="3" t="s">
-        <v>509</v>
-      </c>
-      <c r="B240" s="17"/>
-      <c r="C240" s="3"/>
-      <c r="D240" s="3"/>
-      <c r="E240" s="3"/>
-      <c r="F240" s="3"/>
-      <c r="G240" s="3"/>
-      <c r="H240" s="3"/>
     </row>
     <row r="241" spans="1:8">
       <c r="A241" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="B241" s="17"/>
-      <c r="C241" s="3"/>
-      <c r="D241" s="3"/>
-      <c r="E241" s="3"/>
-      <c r="F241" s="3"/>
-      <c r="G241" s="3"/>
-      <c r="H241" s="3"/>
+        <v>226</v>
+      </c>
+      <c r="B241" s="1">
+        <v>10</v>
+      </c>
+      <c r="C241" t="s">
+        <v>229</v>
+      </c>
+      <c r="D241" t="s">
+        <v>229</v>
+      </c>
+      <c r="F241" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="242" spans="1:8">
       <c r="A242" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="B242" s="17"/>
+        <v>509</v>
+      </c>
+      <c r="B242" s="25"/>
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
       <c r="F242" s="3"/>
       <c r="G242" s="3"/>
-      <c r="H242" s="3"/>
     </row>
     <row r="243" spans="1:8">
-      <c r="A243" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="B243" s="17"/>
-      <c r="C243" s="3"/>
-      <c r="D243" s="3"/>
-      <c r="E243" s="3"/>
-      <c r="F243" s="3"/>
-      <c r="G243" s="3"/>
-      <c r="H243" s="3"/>
+      <c r="A243" t="s">
+        <v>211</v>
+      </c>
+      <c r="B243" s="1">
+        <v>1</v>
+      </c>
+      <c r="C243" t="s">
+        <v>213</v>
+      </c>
+      <c r="D243" t="s">
+        <v>394</v>
+      </c>
+      <c r="F243" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8">
+      <c r="A244" t="s">
+        <v>211</v>
+      </c>
+      <c r="B244" s="1">
+        <v>2</v>
+      </c>
+      <c r="C244" t="s">
+        <v>214</v>
+      </c>
+      <c r="D244" t="s">
+        <v>395</v>
+      </c>
+      <c r="F244" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8">
+      <c r="A245" t="s">
+        <v>211</v>
+      </c>
+      <c r="B245" s="1">
+        <v>3</v>
+      </c>
+      <c r="C245" t="s">
+        <v>215</v>
+      </c>
+      <c r="D245" t="s">
+        <v>26</v>
+      </c>
+      <c r="F245" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8">
+      <c r="A246" t="s">
+        <v>211</v>
+      </c>
+      <c r="B246" s="1">
+        <v>4</v>
+      </c>
+      <c r="C246" t="s">
+        <v>216</v>
+      </c>
+      <c r="D246" t="s">
+        <v>396</v>
+      </c>
+      <c r="F246" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8">
+      <c r="A247" t="s">
+        <v>211</v>
+      </c>
+      <c r="B247" s="1">
+        <v>5</v>
+      </c>
+      <c r="C247" t="s">
+        <v>217</v>
+      </c>
+      <c r="D247" t="s">
+        <v>67</v>
+      </c>
+      <c r="F247" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8">
+      <c r="A248" t="s">
+        <v>211</v>
+      </c>
+      <c r="B248" s="1">
+        <v>6</v>
+      </c>
+      <c r="C248" t="s">
+        <v>218</v>
+      </c>
+      <c r="D248" t="s">
+        <v>75</v>
+      </c>
+      <c r="F248" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8">
+      <c r="A249" t="s">
+        <v>211</v>
+      </c>
+      <c r="B249" s="1">
+        <v>7</v>
+      </c>
+      <c r="C249" t="s">
+        <v>219</v>
+      </c>
+      <c r="D249" t="s">
+        <v>475</v>
+      </c>
+      <c r="F249" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8">
+      <c r="A250" t="s">
+        <v>211</v>
+      </c>
+      <c r="B250" s="1">
+        <v>8</v>
+      </c>
+      <c r="C250" t="s">
+        <v>220</v>
+      </c>
+      <c r="D250" t="s">
+        <v>44</v>
+      </c>
+      <c r="F250" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8">
+      <c r="A251" t="s">
+        <v>211</v>
+      </c>
+      <c r="B251" s="1">
+        <v>9</v>
+      </c>
+      <c r="C251" t="s">
+        <v>221</v>
+      </c>
+      <c r="D251" t="s">
+        <v>221</v>
+      </c>
+      <c r="F251" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8">
+      <c r="A252" t="s">
+        <v>211</v>
+      </c>
+      <c r="B252" s="1">
+        <v>10</v>
+      </c>
+      <c r="C252" t="s">
+        <v>222</v>
+      </c>
+      <c r="D252" t="s">
+        <v>222</v>
+      </c>
+      <c r="F252" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8">
+      <c r="A253" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="B253" s="25">
+        <v>1</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D253" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="E253" s="3"/>
+      <c r="F253" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G253" s="3"/>
+      <c r="H253" s="3"/>
+    </row>
+    <row r="254" spans="1:8">
+      <c r="A254" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="B254" s="14">
+        <v>2</v>
+      </c>
+      <c r="C254" t="s">
+        <v>374</v>
+      </c>
+      <c r="D254" t="s">
+        <v>296</v>
+      </c>
+      <c r="F254" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8">
+      <c r="A255" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="B255" s="14">
+        <v>3</v>
+      </c>
+      <c r="C255" t="s">
+        <v>673</v>
+      </c>
+      <c r="D255" t="s">
+        <v>493</v>
+      </c>
+      <c r="F255" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8">
+      <c r="A256" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="B256" s="14">
+        <v>4</v>
+      </c>
+      <c r="C256" t="s">
+        <v>674</v>
+      </c>
+      <c r="D256" t="s">
+        <v>676</v>
+      </c>
+      <c r="F256" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
+      <c r="A257" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="B257" s="14">
+        <v>5</v>
+      </c>
+      <c r="C257" t="s">
+        <v>675</v>
+      </c>
+      <c r="D257" t="s">
+        <v>677</v>
+      </c>
+      <c r="F257" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
+      <c r="A258" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="B258" s="14">
+        <v>6</v>
+      </c>
+      <c r="C258" t="s">
+        <v>190</v>
+      </c>
+      <c r="D258" t="s">
+        <v>483</v>
+      </c>
+      <c r="F258" t="s">
+        <v>251</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16539,1124 +16270,1124 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>622</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>521</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="17" t="s">
         <v>529</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>547</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18" t="s">
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17" t="s">
         <v>639</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="L2" s="21" t="s">
         <v>415</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="18" t="s">
         <v>393</v>
       </c>
-      <c r="N2" s="18"/>
+      <c r="N2" s="17"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>367</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>622</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>522</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="17" t="s">
         <v>530</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="17" t="s">
         <v>548</v>
       </c>
-      <c r="G3" s="22"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18" t="s">
+      <c r="G3" s="21"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17" t="s">
         <v>640</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="L3" s="22" t="s">
+      <c r="L3" s="21" t="s">
         <v>415</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="M3" s="18" t="s">
         <v>393</v>
       </c>
-      <c r="N3" s="18"/>
+      <c r="N3" s="17"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>622</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>388</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="17" t="s">
         <v>515</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="17" t="s">
         <v>516</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="21" t="s">
         <v>388</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="17" t="s">
         <v>520</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="17" t="s">
         <v>641</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="L4" s="22" t="s">
+      <c r="L4" s="21" t="s">
         <v>415</v>
       </c>
-      <c r="M4" s="19" t="s">
+      <c r="M4" s="18" t="s">
         <v>393</v>
       </c>
-      <c r="N4" s="18" t="s">
+      <c r="N4" s="17" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="19" t="s">
         <v>512</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>622</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="19" t="s">
         <v>523</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="19" t="s">
         <v>531</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="19" t="s">
         <v>549</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20" t="s">
+      <c r="G5" s="17"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19" t="s">
         <v>642</v>
       </c>
-      <c r="J5" s="18" t="s">
+      <c r="J5" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="L5" s="22" t="s">
+      <c r="L5" s="21" t="s">
         <v>415</v>
       </c>
-      <c r="M5" s="19" t="s">
+      <c r="M5" s="18" t="s">
         <v>393</v>
       </c>
-      <c r="N5" s="20"/>
+      <c r="N5" s="19"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
         <v>337</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>622</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>387</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="17" t="s">
         <v>532</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="17" t="s">
         <v>550</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="19" t="s">
         <v>387</v>
       </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18" t="s">
+      <c r="H6" s="17"/>
+      <c r="I6" s="17" t="s">
         <v>643</v>
       </c>
-      <c r="J6" s="18" t="s">
+      <c r="J6" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="L6" s="22" t="s">
+      <c r="L6" s="21" t="s">
         <v>415</v>
       </c>
-      <c r="M6" s="19" t="s">
+      <c r="M6" s="18" t="s">
         <v>393</v>
       </c>
-      <c r="N6" s="18"/>
+      <c r="N6" s="17"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="17" t="s">
         <v>317</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>622</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>386</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="17" t="s">
         <v>533</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="17" t="s">
         <v>551</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="22" t="s">
         <v>386</v>
       </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18" t="s">
+      <c r="H7" s="17"/>
+      <c r="I7" s="17" t="s">
         <v>644</v>
       </c>
-      <c r="J7" s="18" t="s">
+      <c r="J7" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="K7" s="19" t="s">
+      <c r="K7" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="L7" s="22" t="s">
+      <c r="L7" s="21" t="s">
         <v>415</v>
       </c>
-      <c r="M7" s="19" t="s">
+      <c r="M7" s="18" t="s">
         <v>393</v>
       </c>
-      <c r="N7" s="18"/>
+      <c r="N7" s="17"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="17" t="s">
         <v>511</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>622</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>524</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="17" t="s">
         <v>534</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="17" t="s">
         <v>552</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18" t="s">
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17" t="s">
         <v>645</v>
       </c>
-      <c r="J8" s="18" t="s">
+      <c r="J8" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="K8" s="19" t="s">
+      <c r="K8" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="L8" s="22" t="s">
+      <c r="L8" s="21" t="s">
         <v>415</v>
       </c>
-      <c r="M8" s="19" t="s">
+      <c r="M8" s="18" t="s">
         <v>393</v>
       </c>
-      <c r="N8" s="18"/>
+      <c r="N8" s="17"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="17" t="s">
         <v>316</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>622</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>385</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="17" t="s">
         <v>535</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="17" t="s">
         <v>553</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="17" t="s">
         <v>385</v>
       </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18" t="s">
+      <c r="H9" s="17"/>
+      <c r="I9" s="17" t="s">
         <v>646</v>
       </c>
-      <c r="J9" s="18" t="s">
+      <c r="J9" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="K9" s="19" t="s">
+      <c r="K9" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="L9" s="22" t="s">
+      <c r="L9" s="21" t="s">
         <v>415</v>
       </c>
-      <c r="M9" s="19" t="s">
+      <c r="M9" s="18" t="s">
         <v>393</v>
       </c>
-      <c r="N9" s="18"/>
+      <c r="N9" s="17"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="17" t="s">
         <v>508</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>622</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="17" t="s">
         <v>525</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="17" t="s">
         <v>536</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="17" t="s">
         <v>554</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="19" t="s">
         <v>390</v>
       </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18" t="s">
+      <c r="H10" s="17"/>
+      <c r="I10" s="17" t="s">
         <v>647</v>
       </c>
-      <c r="J10" s="18" t="s">
+      <c r="J10" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="K10" s="19" t="s">
+      <c r="K10" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="L10" s="22" t="s">
+      <c r="L10" s="21" t="s">
         <v>415</v>
       </c>
-      <c r="M10" s="19" t="s">
+      <c r="M10" s="18" t="s">
         <v>393</v>
       </c>
-      <c r="N10" s="18"/>
+      <c r="N10" s="17"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>622</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="17" t="s">
         <v>526</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="17" t="s">
         <v>537</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="17" t="s">
         <v>555</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="17" t="s">
         <v>389</v>
       </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18" t="s">
+      <c r="H11" s="17"/>
+      <c r="I11" s="17" t="s">
         <v>648</v>
       </c>
-      <c r="J11" s="18" t="s">
+      <c r="J11" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="K11" s="19" t="s">
+      <c r="K11" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="L11" s="22" t="s">
+      <c r="L11" s="21" t="s">
         <v>415</v>
       </c>
-      <c r="M11" s="19" t="s">
+      <c r="M11" s="18" t="s">
         <v>393</v>
       </c>
-      <c r="N11" s="18"/>
+      <c r="N11" s="17"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="17" t="s">
         <v>281</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>622</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="17" t="s">
         <v>384</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="17" t="s">
         <v>538</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="17" t="s">
         <v>556</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="19" t="s">
         <v>384</v>
       </c>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18" t="s">
+      <c r="H12" s="17"/>
+      <c r="I12" s="17" t="s">
         <v>649</v>
       </c>
-      <c r="J12" s="18" t="s">
+      <c r="J12" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="K12" s="19" t="s">
+      <c r="K12" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="L12" s="22" t="s">
+      <c r="L12" s="21" t="s">
         <v>415</v>
       </c>
-      <c r="M12" s="19" t="s">
+      <c r="M12" s="18" t="s">
         <v>393</v>
       </c>
-      <c r="N12" s="18"/>
+      <c r="N12" s="17"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="17" t="s">
         <v>622</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="17" t="s">
         <v>383</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="17" t="s">
         <v>539</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="17" t="s">
         <v>557</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="19" t="s">
         <v>383</v>
       </c>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18" t="s">
+      <c r="H13" s="17"/>
+      <c r="I13" s="17" t="s">
         <v>650</v>
       </c>
-      <c r="J13" s="18" t="s">
+      <c r="J13" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="K13" s="19" t="s">
+      <c r="K13" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="L13" s="22" t="s">
+      <c r="L13" s="21" t="s">
         <v>415</v>
       </c>
-      <c r="M13" s="19" t="s">
+      <c r="M13" s="18" t="s">
         <v>393</v>
       </c>
-      <c r="N13" s="18"/>
+      <c r="N13" s="17"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="17" t="s">
         <v>510</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>622</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="17" t="s">
         <v>527</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="17" t="s">
         <v>540</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="17" t="s">
         <v>558</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="17" t="s">
         <v>382</v>
       </c>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18" t="s">
+      <c r="H14" s="17"/>
+      <c r="I14" s="17" t="s">
         <v>651</v>
       </c>
-      <c r="J14" s="18" t="s">
+      <c r="J14" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="K14" s="19" t="s">
+      <c r="K14" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="L14" s="22" t="s">
+      <c r="L14" s="21" t="s">
         <v>415</v>
       </c>
-      <c r="M14" s="19" t="s">
+      <c r="M14" s="18" t="s">
         <v>393</v>
       </c>
-      <c r="N14" s="18"/>
+      <c r="N14" s="17"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="17" t="s">
         <v>622</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="17" t="s">
         <v>382</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="17" t="s">
         <v>541</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="17" t="s">
         <v>559</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="19" t="s">
         <v>381</v>
       </c>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18" t="s">
+      <c r="H15" s="17"/>
+      <c r="I15" s="17" t="s">
         <v>652</v>
       </c>
-      <c r="J15" s="18" t="s">
+      <c r="J15" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="K15" s="19" t="s">
+      <c r="K15" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="L15" s="22" t="s">
+      <c r="L15" s="21" t="s">
         <v>415</v>
       </c>
-      <c r="M15" s="19" t="s">
+      <c r="M15" s="18" t="s">
         <v>393</v>
       </c>
-      <c r="N15" s="18"/>
+      <c r="N15" s="17"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="17" t="s">
         <v>622</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="17" t="s">
         <v>381</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="17" t="s">
         <v>542</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="17" t="s">
         <v>560</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G16" s="19" t="s">
         <v>381</v>
       </c>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18" t="s">
+      <c r="H16" s="17"/>
+      <c r="I16" s="17" t="s">
         <v>653</v>
       </c>
-      <c r="J16" s="18" t="s">
+      <c r="J16" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="K16" s="19" t="s">
+      <c r="K16" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="L16" s="22" t="s">
+      <c r="L16" s="21" t="s">
         <v>415</v>
       </c>
-      <c r="M16" s="19" t="s">
+      <c r="M16" s="18" t="s">
         <v>393</v>
       </c>
-      <c r="N16" s="18"/>
+      <c r="N16" s="17"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="17" t="s">
         <v>622</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="17" t="s">
         <v>380</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="17" t="s">
         <v>543</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="17" t="s">
         <v>561</v>
       </c>
-      <c r="G17" s="23" t="s">
+      <c r="G17" s="22" t="s">
         <v>380</v>
       </c>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18" t="s">
+      <c r="H17" s="17"/>
+      <c r="I17" s="17" t="s">
         <v>654</v>
       </c>
-      <c r="J17" s="18" t="s">
+      <c r="J17" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="K17" s="19" t="s">
+      <c r="K17" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="L17" s="22" t="s">
+      <c r="L17" s="21" t="s">
         <v>415</v>
       </c>
-      <c r="M17" s="19" t="s">
+      <c r="M17" s="18" t="s">
         <v>393</v>
       </c>
-      <c r="N17" s="18"/>
+      <c r="N17" s="17"/>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="17" t="s">
         <v>622</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="17" t="s">
         <v>379</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="17" t="s">
         <v>544</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="17" t="s">
         <v>562</v>
       </c>
-      <c r="G18" s="23" t="s">
+      <c r="G18" s="22" t="s">
         <v>379</v>
       </c>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18" t="s">
+      <c r="H18" s="17"/>
+      <c r="I18" s="17" t="s">
         <v>655</v>
       </c>
-      <c r="J18" s="18" t="s">
+      <c r="J18" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="K18" s="19" t="s">
+      <c r="K18" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="L18" s="22" t="s">
+      <c r="L18" s="21" t="s">
         <v>415</v>
       </c>
-      <c r="M18" s="19" t="s">
+      <c r="M18" s="18" t="s">
         <v>393</v>
       </c>
-      <c r="N18" s="18"/>
+      <c r="N18" s="17"/>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="17" t="s">
         <v>509</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="17" t="s">
         <v>622</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="17" t="s">
         <v>528</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="17" t="s">
         <v>545</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="17" t="s">
         <v>563</v>
       </c>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18" t="s">
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17" t="s">
         <v>656</v>
       </c>
-      <c r="J19" s="18" t="s">
+      <c r="J19" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="K19" s="19" t="s">
+      <c r="K19" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="L19" s="22" t="s">
+      <c r="L19" s="21" t="s">
         <v>415</v>
       </c>
-      <c r="M19" s="19" t="s">
+      <c r="M19" s="18" t="s">
         <v>393</v>
       </c>
-      <c r="N19" s="18"/>
+      <c r="N19" s="17"/>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="17" t="s">
         <v>622</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="17" t="s">
         <v>378</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="17" t="s">
         <v>546</v>
       </c>
-      <c r="F20" s="18" t="s">
+      <c r="F20" s="17" t="s">
         <v>564</v>
       </c>
-      <c r="G20" s="22" t="s">
+      <c r="G20" s="21" t="s">
         <v>378</v>
       </c>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18" t="s">
+      <c r="H20" s="17"/>
+      <c r="I20" s="17" t="s">
         <v>657</v>
       </c>
-      <c r="J20" s="18" t="s">
+      <c r="J20" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="K20" s="19" t="s">
+      <c r="K20" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="L20" s="22" t="s">
+      <c r="L20" s="21" t="s">
         <v>415</v>
       </c>
-      <c r="M20" s="19" t="s">
+      <c r="M20" s="18" t="s">
         <v>393</v>
       </c>
-      <c r="N20" s="18"/>
+      <c r="N20" s="17"/>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="17" t="s">
         <v>627</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="17" t="s">
         <v>636</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="22" t="s">
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="21" t="s">
         <v>658</v>
       </c>
-      <c r="J21" s="18" t="s">
+      <c r="J21" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="K21" s="19"/>
-      <c r="L21" s="22" t="s">
+      <c r="K21" s="18"/>
+      <c r="L21" s="21" t="s">
         <v>415</v>
       </c>
-      <c r="M21" s="19" t="s">
+      <c r="M21" s="18" t="s">
         <v>416</v>
       </c>
-      <c r="N21" s="18"/>
+      <c r="N21" s="17"/>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="17" t="s">
         <v>627</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="17" t="s">
         <v>637</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="22" t="s">
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="21" t="s">
         <v>659</v>
       </c>
-      <c r="J22" s="18" t="s">
+      <c r="J22" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="K22" s="19"/>
-      <c r="L22" s="22" t="s">
+      <c r="K22" s="18"/>
+      <c r="L22" s="21" t="s">
         <v>415</v>
       </c>
-      <c r="M22" s="19" t="s">
+      <c r="M22" s="18" t="s">
         <v>416</v>
       </c>
-      <c r="N22" s="18"/>
+      <c r="N22" s="17"/>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="17" t="s">
         <v>627</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="17" t="s">
         <v>635</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18" t="s">
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17" t="s">
         <v>660</v>
       </c>
-      <c r="J23" s="18"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="18"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="17"/>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="17" t="s">
         <v>626</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="17" t="s">
         <v>634</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="22" t="s">
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="21" t="s">
         <v>661</v>
       </c>
-      <c r="J24" s="18"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="18"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="17"/>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="19" t="s">
         <v>631</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="19" t="s">
         <v>623</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="17" t="s">
         <v>630</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="25" t="s">
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="24" t="s">
         <v>662</v>
       </c>
-      <c r="J25" s="18" t="s">
+      <c r="J25" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="K25" s="19"/>
-      <c r="L25" s="22" t="s">
+      <c r="K25" s="18"/>
+      <c r="L25" s="21" t="s">
         <v>415</v>
       </c>
-      <c r="M25" s="19" t="s">
+      <c r="M25" s="18" t="s">
         <v>416</v>
       </c>
-      <c r="N25" s="18"/>
+      <c r="N25" s="17"/>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="19" t="s">
         <v>565</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="19" t="s">
         <v>623</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="17" t="s">
         <v>629</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="23" t="s">
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="22" t="s">
         <v>638</v>
       </c>
-      <c r="J26" s="18" t="s">
+      <c r="J26" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="K26" s="19"/>
-      <c r="L26" s="22" t="s">
+      <c r="K26" s="18"/>
+      <c r="L26" s="21" t="s">
         <v>415</v>
       </c>
-      <c r="M26" s="19" t="s">
+      <c r="M26" s="18" t="s">
         <v>416</v>
       </c>
-      <c r="N26" s="18"/>
+      <c r="N26" s="17"/>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="19" t="s">
         <v>442</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="19" t="s">
         <v>624</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="17" t="s">
         <v>633</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="22" t="s">
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="21" t="s">
         <v>663</v>
       </c>
-      <c r="J27" s="18" t="s">
+      <c r="J27" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="K27" s="19"/>
-      <c r="L27" s="22" t="s">
+      <c r="K27" s="18"/>
+      <c r="L27" s="21" t="s">
         <v>415</v>
       </c>
-      <c r="M27" s="19" t="s">
+      <c r="M27" s="18" t="s">
         <v>416</v>
       </c>
-      <c r="N27" s="18"/>
+      <c r="N27" s="17"/>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="19" t="s">
         <v>443</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="19" t="s">
         <v>623</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="17" t="s">
         <v>632</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="22" t="s">
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="21" t="s">
         <v>664</v>
       </c>
-      <c r="J28" s="18" t="s">
+      <c r="J28" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="K28" s="19"/>
-      <c r="L28" s="22" t="s">
+      <c r="K28" s="18"/>
+      <c r="L28" s="21" t="s">
         <v>415</v>
       </c>
-      <c r="M28" s="19" t="s">
+      <c r="M28" s="18" t="s">
         <v>416</v>
       </c>
-      <c r="N28" s="18"/>
+      <c r="N28" s="17"/>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="19" t="s">
         <v>628</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="D29" s="19" t="s">
         <v>628</v>
       </c>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="22" t="s">
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="21" t="s">
         <v>665</v>
       </c>
-      <c r="J29" s="20"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="20"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="19"/>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="18"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="17"/>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="18"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="17"/>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="18"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="17"/>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="18"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="17"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="18"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="17"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="18"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -17676,7 +17407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J242"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>

--- a/Translations.xlsx
+++ b/Translations.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3158" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3263" uniqueCount="703">
   <si>
     <t>Class</t>
   </si>
@@ -2060,6 +2060,81 @@
   </si>
   <si>
     <t>count_hits</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>BRO X509</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>certificate.version</t>
+  </si>
+  <si>
+    <t>certificate.serial</t>
+  </si>
+  <si>
+    <t>certificate.subject</t>
+  </si>
+  <si>
+    <t>certificate.issuer</t>
+  </si>
+  <si>
+    <t>certificate.not_valid_before</t>
+  </si>
+  <si>
+    <t>certificate.not_valid_after</t>
+  </si>
+  <si>
+    <t>certificate.key_alg</t>
+  </si>
+  <si>
+    <t>certificate.sig_alg</t>
+  </si>
+  <si>
+    <t>certificate.key_type</t>
+  </si>
+  <si>
+    <t>certificate.key_length</t>
+  </si>
+  <si>
+    <t>certificate.exponent</t>
+  </si>
+  <si>
+    <t>certificate.curve</t>
+  </si>
+  <si>
+    <t>san.dns</t>
+  </si>
+  <si>
+    <t>san.uri</t>
+  </si>
+  <si>
+    <t>san.email</t>
+  </si>
+  <si>
+    <t>san.ip</t>
+  </si>
+  <si>
+    <t>basic_constraints.ca</t>
+  </si>
+  <si>
+    <t>basic_constraints.path_len</t>
+  </si>
+  <si>
+    <t>coun</t>
+  </si>
+  <si>
+    <t>BRO DPD</t>
+  </si>
+  <si>
+    <t>failure_reason</t>
+  </si>
+  <si>
+    <t>tls</t>
   </si>
 </sst>
 </file>
@@ -2166,7 +2241,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="423">
+  <cellStyleXfs count="441">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2590,8 +2665,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2629,6 +2722,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2646,8 +2742,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="423">
+  <cellStyles count="441">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2859,6 +2956,15 @@
     <cellStyle name="Followed Hyperlink" xfId="418" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="420" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="422" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="424" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="426" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="428" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="430" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="432" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="434" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="436" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="438" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="440" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3070,6 +3176,15 @@
     <cellStyle name="Hyperlink" xfId="417" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="419" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="421" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="423" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="425" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="427" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="429" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="431" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="433" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="435" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="437" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="439" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="71">
@@ -4420,11 +4535,11 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:H258" totalsRowShown="0">
-  <autoFilter ref="A1:H258"/>
-  <sortState ref="A2:H252">
-    <sortCondition ref="A2:A252"/>
-    <sortCondition ref="B2:B252"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:H289" totalsRowShown="0">
+  <autoFilter ref="A1:H289"/>
+  <sortState ref="A2:H259">
+    <sortCondition ref="A2:A259"/>
+    <sortCondition ref="B2:B259"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" name="Source"/>
@@ -8451,10 +8566,10 @@
       <c r="C107" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D107" s="23" t="s">
+      <c r="D107" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="E107" s="23" t="s">
+      <c r="E107" s="24" t="s">
         <v>186</v>
       </c>
       <c r="F107" s="3"/>
@@ -11037,10 +11152,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H258"/>
+  <dimension ref="A1:H289"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="F184" sqref="F184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11082,25 +11197,28 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>373</v>
-      </c>
-      <c r="B2" s="14">
+      <c r="A2" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="B2" s="26">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
         <v>126</v>
       </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>373</v>
+      <c r="A3" s="3" t="s">
+        <v>672</v>
       </c>
       <c r="B3" s="14">
         <v>2</v>
@@ -11116,161 +11234,164 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>373</v>
+      <c r="A4" s="3" t="s">
+        <v>672</v>
       </c>
       <c r="B4" s="14">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>222</v>
+        <v>673</v>
+      </c>
+      <c r="D4" t="s">
+        <v>493</v>
       </c>
       <c r="F4" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>373</v>
+      <c r="A5" s="3" t="s">
+        <v>672</v>
       </c>
       <c r="B5" s="14">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>375</v>
+        <v>674</v>
       </c>
       <c r="D5" t="s">
-        <v>375</v>
+        <v>676</v>
       </c>
       <c r="F5" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>373</v>
+      <c r="A6" s="3" t="s">
+        <v>672</v>
       </c>
       <c r="B6" s="14">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>376</v>
+        <v>675</v>
+      </c>
+      <c r="D6" t="s">
+        <v>677</v>
       </c>
       <c r="F6" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>373</v>
+      <c r="A7" s="3" t="s">
+        <v>672</v>
       </c>
       <c r="B7" s="14">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>377</v>
+        <v>190</v>
+      </c>
+      <c r="D7" t="s">
+        <v>483</v>
       </c>
       <c r="F7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="3" t="s">
-        <v>367</v>
+      <c r="A8" t="s">
+        <v>373</v>
       </c>
       <c r="B8" s="14">
         <v>1</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" t="s">
         <v>213</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="D8" t="s">
+        <v>394</v>
+      </c>
       <c r="F8" t="s">
         <v>126</v>
       </c>
-      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="3" t="s">
-        <v>367</v>
+      <c r="A9" t="s">
+        <v>373</v>
       </c>
       <c r="B9" s="14">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>222</v>
+        <v>374</v>
+      </c>
+      <c r="D9" t="s">
+        <v>296</v>
       </c>
       <c r="F9" t="s">
-        <v>156</v>
+        <v>296</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="3" t="s">
-        <v>367</v>
+      <c r="A10" t="s">
+        <v>373</v>
       </c>
       <c r="B10" s="14">
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>368</v>
-      </c>
-      <c r="D10" t="s">
-        <v>368</v>
+        <v>222</v>
       </c>
       <c r="F10" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="3" t="s">
-        <v>367</v>
+      <c r="A11" t="s">
+        <v>373</v>
       </c>
       <c r="B11" s="14">
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="D11" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="F11" t="s">
-        <v>156</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="3" t="s">
-        <v>367</v>
+      <c r="A12" t="s">
+        <v>373</v>
       </c>
       <c r="B12" s="14">
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>370</v>
-      </c>
-      <c r="D12" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="F12" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="3" t="s">
-        <v>367</v>
+      <c r="A13" t="s">
+        <v>373</v>
       </c>
       <c r="B13" s="14">
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>371</v>
-      </c>
-      <c r="D13" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="F13" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -11278,152 +11399,149 @@
         <v>367</v>
       </c>
       <c r="B14" s="14">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>372</v>
-      </c>
-      <c r="D14" t="s">
-        <v>372</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
       <c r="F14" t="s">
-        <v>156</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="3" t="s">
         <v>367</v>
       </c>
       <c r="B15" s="14">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>229</v>
-      </c>
-      <c r="D15" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F15" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" t="s">
-        <v>210</v>
-      </c>
-      <c r="B16" s="15">
-        <v>1</v>
+      <c r="A16" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B16" s="14">
+        <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>213</v>
+        <v>368</v>
       </c>
       <c r="D16" t="s">
-        <v>394</v>
+        <v>368</v>
       </c>
       <c r="F16" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>210</v>
-      </c>
-      <c r="B17" s="1">
-        <v>2</v>
+      <c r="A17" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B17" s="14">
+        <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>214</v>
+        <v>369</v>
       </c>
       <c r="D17" t="s">
-        <v>395</v>
+        <v>369</v>
       </c>
       <c r="F17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>210</v>
-      </c>
-      <c r="B18" s="1">
-        <v>3</v>
+      <c r="A18" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B18" s="14">
+        <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>215</v>
+        <v>370</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>370</v>
       </c>
       <c r="F18" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>210</v>
-      </c>
-      <c r="B19" s="1">
-        <v>4</v>
+      <c r="A19" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B19" s="14">
+        <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>216</v>
+        <v>371</v>
       </c>
       <c r="D19" t="s">
-        <v>396</v>
+        <v>371</v>
       </c>
       <c r="F19" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>210</v>
-      </c>
-      <c r="B20" s="1">
-        <v>5</v>
+      <c r="A20" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B20" s="14">
+        <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>217</v>
+        <v>372</v>
       </c>
       <c r="D20" t="s">
-        <v>67</v>
+        <v>372</v>
       </c>
       <c r="F20" t="s">
-        <v>223</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>210</v>
-      </c>
-      <c r="B21" s="1">
-        <v>6</v>
+      <c r="A21" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B21" s="14">
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>229</v>
       </c>
       <c r="F21" t="s">
-        <v>224</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>210</v>
       </c>
-      <c r="B22" s="1">
-        <v>7</v>
+      <c r="B22" s="15">
+        <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>394</v>
       </c>
       <c r="F22" t="s">
-        <v>230</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -11431,13 +11549,13 @@
         <v>210</v>
       </c>
       <c r="B23" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>300</v>
+        <v>214</v>
       </c>
       <c r="D23" t="s">
-        <v>300</v>
+        <v>395</v>
       </c>
       <c r="F23" t="s">
         <v>156</v>
@@ -11448,16 +11566,16 @@
         <v>210</v>
       </c>
       <c r="B24" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>92</v>
+        <v>215</v>
       </c>
       <c r="D24" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="F24" t="s">
-        <v>296</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -11465,16 +11583,16 @@
         <v>210</v>
       </c>
       <c r="B25" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>354</v>
+        <v>216</v>
       </c>
       <c r="D25" t="s">
-        <v>88</v>
+        <v>396</v>
       </c>
       <c r="F25" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -11482,16 +11600,16 @@
         <v>210</v>
       </c>
       <c r="B26" s="1">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>355</v>
+        <v>217</v>
       </c>
       <c r="D26" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="F26" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -11499,16 +11617,16 @@
         <v>210</v>
       </c>
       <c r="B27" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>356</v>
+        <v>218</v>
       </c>
       <c r="D27" t="s">
-        <v>462</v>
+        <v>75</v>
       </c>
       <c r="F27" t="s">
-        <v>156</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -11516,16 +11634,16 @@
         <v>210</v>
       </c>
       <c r="B28" s="1">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>324</v>
+        <v>227</v>
       </c>
       <c r="D28" t="s">
-        <v>463</v>
+        <v>48</v>
       </c>
       <c r="F28" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -11533,16 +11651,16 @@
         <v>210</v>
       </c>
       <c r="B29" s="1">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>357</v>
+        <v>300</v>
       </c>
       <c r="D29" t="s">
-        <v>464</v>
+        <v>300</v>
       </c>
       <c r="F29" t="s">
-        <v>251</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -11550,16 +11668,16 @@
         <v>210</v>
       </c>
       <c r="B30" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>358</v>
+        <v>92</v>
       </c>
       <c r="D30" t="s">
-        <v>358</v>
+        <v>92</v>
       </c>
       <c r="F30" t="s">
-        <v>156</v>
+        <v>296</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -11567,13 +11685,13 @@
         <v>210</v>
       </c>
       <c r="B31" s="1">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D31" t="s">
-        <v>465</v>
+        <v>88</v>
       </c>
       <c r="F31" t="s">
         <v>251</v>
@@ -11584,13 +11702,13 @@
         <v>210</v>
       </c>
       <c r="B32" s="1">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D32" t="s">
-        <v>466</v>
+        <v>90</v>
       </c>
       <c r="F32" t="s">
         <v>251</v>
@@ -11601,16 +11719,16 @@
         <v>210</v>
       </c>
       <c r="B33" s="1">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C33" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="D33" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="F33" t="s">
-        <v>251</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -11618,16 +11736,16 @@
         <v>210</v>
       </c>
       <c r="B34" s="1">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C34" t="s">
-        <v>362</v>
+        <v>324</v>
       </c>
       <c r="D34" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="F34" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -11635,16 +11753,16 @@
         <v>210</v>
       </c>
       <c r="B35" s="1">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C35" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="D35" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="F35" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -11652,13 +11770,13 @@
         <v>210</v>
       </c>
       <c r="B36" s="1">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="D36" t="s">
-        <v>472</v>
+        <v>358</v>
       </c>
       <c r="F36" t="s">
         <v>156</v>
@@ -11669,16 +11787,16 @@
         <v>210</v>
       </c>
       <c r="B37" s="1">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C37" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D37" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F37" t="s">
-        <v>156</v>
+        <v>251</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -11686,156 +11804,156 @@
         <v>210</v>
       </c>
       <c r="B38" s="1">
+        <v>17</v>
+      </c>
+      <c r="C38" t="s">
+        <v>360</v>
+      </c>
+      <c r="D38" t="s">
+        <v>466</v>
+      </c>
+      <c r="F38" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>210</v>
+      </c>
+      <c r="B39" s="1">
+        <v>18</v>
+      </c>
+      <c r="C39" t="s">
+        <v>361</v>
+      </c>
+      <c r="D39" t="s">
+        <v>467</v>
+      </c>
+      <c r="F39" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>210</v>
+      </c>
+      <c r="B40" s="1">
+        <v>19</v>
+      </c>
+      <c r="C40" t="s">
+        <v>362</v>
+      </c>
+      <c r="D40" t="s">
+        <v>468</v>
+      </c>
+      <c r="F40" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>210</v>
+      </c>
+      <c r="B41" s="1">
+        <v>20</v>
+      </c>
+      <c r="C41" t="s">
+        <v>363</v>
+      </c>
+      <c r="D41" t="s">
+        <v>469</v>
+      </c>
+      <c r="F41" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>210</v>
+      </c>
+      <c r="B42" s="1">
+        <v>21</v>
+      </c>
+      <c r="C42" t="s">
+        <v>364</v>
+      </c>
+      <c r="D42" t="s">
+        <v>472</v>
+      </c>
+      <c r="F42" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>210</v>
+      </c>
+      <c r="B43" s="1">
+        <v>22</v>
+      </c>
+      <c r="C43" t="s">
+        <v>365</v>
+      </c>
+      <c r="D43" t="s">
+        <v>473</v>
+      </c>
+      <c r="F43" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>210</v>
+      </c>
+      <c r="B44" s="1">
         <v>23</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C44" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D44" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3" t="s">
+      <c r="E44" s="3"/>
+      <c r="F44" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="G38" s="3"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="B39" s="25">
-        <v>1</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D39" t="s">
-        <v>394</v>
-      </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="G39" s="3"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="B40" s="14">
-        <v>2</v>
-      </c>
-      <c r="C40" t="s">
-        <v>214</v>
-      </c>
-      <c r="D40" t="s">
-        <v>395</v>
-      </c>
-      <c r="F40" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="B41" s="14">
-        <v>3</v>
-      </c>
-      <c r="C41" t="s">
-        <v>215</v>
-      </c>
-      <c r="D41" t="s">
-        <v>26</v>
-      </c>
-      <c r="F41" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="B42" s="14">
-        <v>4</v>
-      </c>
-      <c r="C42" t="s">
-        <v>216</v>
-      </c>
-      <c r="D42" t="s">
-        <v>396</v>
-      </c>
-      <c r="F42" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="B43" s="14">
-        <v>5</v>
-      </c>
-      <c r="C43" t="s">
-        <v>217</v>
-      </c>
-      <c r="D43" t="s">
-        <v>75</v>
-      </c>
-      <c r="F43" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="B44" s="14">
-        <v>6</v>
-      </c>
-      <c r="C44" t="s">
-        <v>218</v>
-      </c>
-      <c r="D44" t="s">
-        <v>75</v>
-      </c>
-      <c r="F44" t="s">
-        <v>224</v>
-      </c>
+      <c r="G44" s="3"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="B45" s="14">
-        <v>7</v>
-      </c>
-      <c r="C45" t="s">
-        <v>669</v>
+      <c r="B45" s="26">
+        <v>1</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>213</v>
       </c>
       <c r="D45" t="s">
-        <v>669</v>
-      </c>
-      <c r="F45" t="s">
-        <v>156</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G45" s="3"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="3" t="s">
         <v>512</v>
       </c>
       <c r="B46" s="14">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C46" t="s">
-        <v>670</v>
+        <v>214</v>
       </c>
       <c r="D46" t="s">
-        <v>26</v>
+        <v>395</v>
       </c>
       <c r="F46" t="s">
-        <v>223</v>
+        <v>156</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -11843,16 +11961,16 @@
         <v>512</v>
       </c>
       <c r="B47" s="14">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C47" t="s">
-        <v>671</v>
+        <v>215</v>
       </c>
       <c r="D47" t="s">
-        <v>671</v>
+        <v>26</v>
       </c>
       <c r="F47" t="s">
-        <v>296</v>
+        <v>223</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -11860,154 +11978,154 @@
         <v>512</v>
       </c>
       <c r="B48" s="14">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C48" t="s">
-        <v>338</v>
+        <v>216</v>
       </c>
       <c r="D48" t="s">
-        <v>33</v>
+        <v>396</v>
       </c>
       <c r="F48" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="B49" s="4">
-        <v>1</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>213</v>
+        <v>512</v>
+      </c>
+      <c r="B49" s="14">
+        <v>5</v>
+      </c>
+      <c r="C49" t="s">
+        <v>217</v>
       </c>
       <c r="D49" t="s">
-        <v>394</v>
-      </c>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="G49" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="F49" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="B50" s="1">
-        <v>2</v>
+        <v>512</v>
+      </c>
+      <c r="B50" s="14">
+        <v>6</v>
       </c>
       <c r="C50" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D50" t="s">
-        <v>395</v>
+        <v>75</v>
       </c>
       <c r="F50" t="s">
-        <v>156</v>
+        <v>224</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="B51" s="1">
-        <v>3</v>
+        <v>512</v>
+      </c>
+      <c r="B51" s="14">
+        <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>215</v>
+        <v>669</v>
       </c>
       <c r="D51" t="s">
-        <v>26</v>
+        <v>669</v>
       </c>
       <c r="F51" t="s">
-        <v>223</v>
+        <v>156</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="B52" s="1">
-        <v>4</v>
+        <v>512</v>
+      </c>
+      <c r="B52" s="14">
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>216</v>
+        <v>670</v>
       </c>
       <c r="D52" t="s">
-        <v>396</v>
+        <v>26</v>
       </c>
       <c r="F52" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="B53" s="1">
-        <v>5</v>
+        <v>512</v>
+      </c>
+      <c r="B53" s="14">
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>217</v>
+        <v>671</v>
       </c>
       <c r="D53" t="s">
-        <v>67</v>
+        <v>671</v>
       </c>
       <c r="F53" t="s">
-        <v>223</v>
+        <v>296</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="B54" s="1">
-        <v>6</v>
+        <v>512</v>
+      </c>
+      <c r="B54" s="14">
+        <v>10</v>
       </c>
       <c r="C54" t="s">
-        <v>218</v>
+        <v>338</v>
       </c>
       <c r="D54" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="F54" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="B55" s="1">
-        <v>7</v>
-      </c>
-      <c r="C55" t="s">
-        <v>227</v>
+      <c r="B55" s="4">
+        <v>1</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>213</v>
       </c>
       <c r="D55" t="s">
-        <v>48</v>
-      </c>
-      <c r="F55" t="s">
-        <v>230</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G55" s="3"/>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="3" t="s">
         <v>337</v>
       </c>
       <c r="B56" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C56" t="s">
-        <v>338</v>
+        <v>214</v>
       </c>
       <c r="D56" t="s">
-        <v>33</v>
+        <v>395</v>
       </c>
       <c r="F56" t="s">
-        <v>251</v>
+        <v>156</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -12015,16 +12133,16 @@
         <v>337</v>
       </c>
       <c r="B57" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C57" t="s">
-        <v>53</v>
+        <v>215</v>
       </c>
       <c r="D57" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="F57" t="s">
-        <v>156</v>
+        <v>223</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -12032,16 +12150,16 @@
         <v>337</v>
       </c>
       <c r="B58" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C58" t="s">
-        <v>339</v>
+        <v>216</v>
       </c>
       <c r="D58" t="s">
-        <v>451</v>
+        <v>396</v>
       </c>
       <c r="F58" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -12049,16 +12167,16 @@
         <v>337</v>
       </c>
       <c r="B59" s="1">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C59" t="s">
-        <v>340</v>
+        <v>217</v>
       </c>
       <c r="D59" t="s">
-        <v>452</v>
+        <v>67</v>
       </c>
       <c r="F59" t="s">
-        <v>156</v>
+        <v>223</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -12066,16 +12184,16 @@
         <v>337</v>
       </c>
       <c r="B60" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C60" t="s">
-        <v>341</v>
+        <v>218</v>
       </c>
       <c r="D60" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="F60" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -12083,16 +12201,16 @@
         <v>337</v>
       </c>
       <c r="B61" s="1">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>342</v>
+        <v>227</v>
       </c>
       <c r="D61" t="s">
-        <v>453</v>
+        <v>48</v>
       </c>
       <c r="F61" t="s">
-        <v>156</v>
+        <v>230</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -12100,13 +12218,13 @@
         <v>337</v>
       </c>
       <c r="B62" s="1">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D62" t="s">
-        <v>454</v>
+        <v>33</v>
       </c>
       <c r="F62" t="s">
         <v>251</v>
@@ -12117,13 +12235,13 @@
         <v>337</v>
       </c>
       <c r="B63" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>344</v>
+        <v>53</v>
       </c>
       <c r="D63" t="s">
-        <v>455</v>
+        <v>53</v>
       </c>
       <c r="F63" t="s">
         <v>156</v>
@@ -12134,16 +12252,16 @@
         <v>337</v>
       </c>
       <c r="B64" s="1">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C64" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="D64" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="F64" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -12151,16 +12269,16 @@
         <v>337</v>
       </c>
       <c r="B65" s="1">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C65" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="D65" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F65" t="s">
-        <v>225</v>
+        <v>156</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -12168,16 +12286,16 @@
         <v>337</v>
       </c>
       <c r="B66" s="1">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C66" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="D66" t="s">
-        <v>458</v>
+        <v>60</v>
       </c>
       <c r="F66" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -12185,16 +12303,16 @@
         <v>337</v>
       </c>
       <c r="B67" s="1">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C67" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="D67" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="F67" t="s">
-        <v>225</v>
+        <v>156</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -12202,13 +12320,13 @@
         <v>337</v>
       </c>
       <c r="B68" s="1">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C68" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="D68" t="s">
-        <v>471</v>
+        <v>454</v>
       </c>
       <c r="F68" t="s">
         <v>251</v>
@@ -12219,16 +12337,16 @@
         <v>337</v>
       </c>
       <c r="B69" s="1">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C69" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="D69" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="F69" t="s">
-        <v>280</v>
+        <v>156</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -12236,16 +12354,16 @@
         <v>337</v>
       </c>
       <c r="B70" s="1">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C70" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="D70" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="F70" t="s">
-        <v>353</v>
+        <v>225</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -12253,13 +12371,13 @@
         <v>337</v>
       </c>
       <c r="B71" s="1">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C71" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="D71" t="s">
-        <v>352</v>
+        <v>457</v>
       </c>
       <c r="F71" t="s">
         <v>225</v>
@@ -12267,106 +12385,104 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="B72" s="14">
-        <v>1</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>213</v>
+        <v>337</v>
+      </c>
+      <c r="B72" s="1">
+        <v>18</v>
+      </c>
+      <c r="C72" t="s">
+        <v>347</v>
       </c>
       <c r="D72" t="s">
-        <v>394</v>
-      </c>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="G72" s="3"/>
+        <v>458</v>
+      </c>
+      <c r="F72" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="B73" s="5">
-        <v>2</v>
+        <v>337</v>
+      </c>
+      <c r="B73" s="1">
+        <v>19</v>
       </c>
       <c r="C73" t="s">
-        <v>282</v>
+        <v>348</v>
       </c>
       <c r="D73" t="s">
-        <v>434</v>
+        <v>459</v>
       </c>
       <c r="F73" t="s">
-        <v>156</v>
+        <v>225</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="B74" s="14">
-        <v>3</v>
+        <v>337</v>
+      </c>
+      <c r="B74" s="1">
+        <v>20</v>
       </c>
       <c r="C74" t="s">
-        <v>318</v>
+        <v>349</v>
       </c>
       <c r="D74" t="s">
-        <v>26</v>
+        <v>471</v>
       </c>
       <c r="F74" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="B75" s="5">
-        <v>4</v>
+        <v>337</v>
+      </c>
+      <c r="B75" s="1">
+        <v>21</v>
       </c>
       <c r="C75" t="s">
-        <v>319</v>
+        <v>350</v>
       </c>
       <c r="D75" t="s">
-        <v>67</v>
+        <v>460</v>
       </c>
       <c r="F75" t="s">
-        <v>336</v>
+        <v>280</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="B76" s="14">
-        <v>5</v>
+        <v>337</v>
+      </c>
+      <c r="B76" s="1">
+        <v>22</v>
       </c>
       <c r="C76" t="s">
-        <v>320</v>
+        <v>351</v>
       </c>
       <c r="D76" t="s">
-        <v>395</v>
+        <v>461</v>
       </c>
       <c r="F76" t="s">
-        <v>278</v>
+        <v>353</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="B77" s="5">
-        <v>6</v>
+        <v>337</v>
+      </c>
+      <c r="B77" s="1">
+        <v>23</v>
       </c>
       <c r="C77" t="s">
-        <v>5</v>
+        <v>352</v>
       </c>
       <c r="D77" t="s">
-        <v>5</v>
+        <v>352</v>
       </c>
       <c r="F77" t="s">
-        <v>156</v>
+        <v>225</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -12374,588 +12490,590 @@
         <v>317</v>
       </c>
       <c r="B78" s="14">
-        <v>7</v>
-      </c>
-      <c r="C78" t="s">
-        <v>321</v>
+        <v>1</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>213</v>
       </c>
       <c r="D78" t="s">
-        <v>321</v>
-      </c>
-      <c r="F78" t="s">
-        <v>251</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G78" s="3"/>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="B79" s="14">
-        <v>8</v>
+      <c r="B79" s="5">
+        <v>2</v>
       </c>
       <c r="C79" t="s">
-        <v>322</v>
+        <v>282</v>
       </c>
       <c r="D79" t="s">
-        <v>481</v>
+        <v>434</v>
       </c>
       <c r="F79" t="s">
-        <v>278</v>
+        <v>156</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="B80" s="2">
-        <v>9</v>
+      <c r="B80" s="14">
+        <v>3</v>
       </c>
       <c r="C80" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D80" t="s">
-        <v>474</v>
+        <v>26</v>
       </c>
       <c r="F80" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="B81" s="14">
-        <v>10</v>
+      <c r="B81" s="5">
+        <v>4</v>
       </c>
       <c r="C81" t="s">
-        <v>18</v>
+        <v>319</v>
       </c>
       <c r="D81" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="F81" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="3" t="s">
         <v>317</v>
       </c>
       <c r="B82" s="14">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C82" t="s">
-        <v>92</v>
+        <v>320</v>
       </c>
       <c r="D82" t="s">
-        <v>92</v>
+        <v>395</v>
       </c>
       <c r="F82" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="B83" s="1">
-        <v>12</v>
+      <c r="B83" s="5">
+        <v>6</v>
       </c>
       <c r="C83" t="s">
-        <v>324</v>
+        <v>5</v>
       </c>
       <c r="D83" t="s">
-        <v>463</v>
+        <v>5</v>
       </c>
       <c r="F83" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="B84" s="1">
-        <v>13</v>
+      <c r="B84" s="14">
+        <v>7</v>
       </c>
       <c r="C84" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D84" t="s">
-        <v>482</v>
+        <v>321</v>
       </c>
       <c r="F84" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="B85" s="1">
-        <v>14</v>
+      <c r="B85" s="14">
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D85" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F85" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="B86" s="16">
-        <v>15</v>
+      <c r="B86" s="2">
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D86" t="s">
-        <v>190</v>
+        <v>474</v>
       </c>
       <c r="F86" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="B87" s="1">
-        <v>16</v>
+      <c r="B87" s="14">
+        <v>10</v>
       </c>
       <c r="C87" t="s">
-        <v>328</v>
+        <v>18</v>
       </c>
       <c r="D87" t="s">
-        <v>464</v>
+        <v>18</v>
       </c>
       <c r="F87" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="B88" s="1">
-        <v>17</v>
+      <c r="B88" s="14">
+        <v>11</v>
       </c>
       <c r="C88" t="s">
-        <v>329</v>
+        <v>92</v>
       </c>
       <c r="D88" t="s">
-        <v>484</v>
+        <v>92</v>
       </c>
       <c r="F88" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="3" t="s">
         <v>317</v>
       </c>
       <c r="B89" s="1">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C89" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="D89" t="s">
-        <v>485</v>
+        <v>463</v>
       </c>
       <c r="F89" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:6">
       <c r="A90" s="3" t="s">
         <v>317</v>
       </c>
       <c r="B90" s="1">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C90" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="D90" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="F90" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="3" t="s">
         <v>317</v>
       </c>
       <c r="B91" s="1">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C91" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D91" t="s">
-        <v>332</v>
+        <v>483</v>
       </c>
       <c r="F91" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="B92" s="1">
-        <v>21</v>
+      <c r="B92" s="16">
+        <v>15</v>
       </c>
       <c r="C92" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D92" t="s">
-        <v>333</v>
+        <v>190</v>
       </c>
       <c r="F92" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="3" t="s">
         <v>317</v>
       </c>
       <c r="B93" s="1">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C93" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D93" t="s">
-        <v>334</v>
+        <v>464</v>
       </c>
       <c r="F93" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="B94" s="16">
-        <v>23</v>
+      <c r="B94" s="1">
+        <v>17</v>
       </c>
       <c r="C94" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D94" t="s">
-        <v>335</v>
+        <v>484</v>
       </c>
       <c r="F94" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B95" s="1">
+        <v>18</v>
+      </c>
+      <c r="C95" t="s">
+        <v>330</v>
+      </c>
+      <c r="D95" t="s">
+        <v>485</v>
+      </c>
+      <c r="F95" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B96" s="1">
+        <v>19</v>
+      </c>
+      <c r="C96" t="s">
+        <v>331</v>
+      </c>
+      <c r="D96" t="s">
+        <v>486</v>
+      </c>
+      <c r="F96" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
-      <c r="A95" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="B95" s="25"/>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
-      <c r="G95" s="3"/>
-    </row>
-    <row r="96" spans="1:7">
-      <c r="A96" t="s">
-        <v>316</v>
-      </c>
-      <c r="B96" s="1">
-        <v>1</v>
-      </c>
-      <c r="C96" t="s">
-        <v>213</v>
-      </c>
-      <c r="D96" t="s">
-        <v>394</v>
-      </c>
-      <c r="F96" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97" t="s">
-        <v>316</v>
+    <row r="97" spans="1:7">
+      <c r="A97" s="3" t="s">
+        <v>317</v>
       </c>
       <c r="B97" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C97" t="s">
-        <v>214</v>
+        <v>332</v>
       </c>
       <c r="D97" t="s">
-        <v>395</v>
+        <v>332</v>
       </c>
       <c r="F97" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
-      <c r="A98" t="s">
-        <v>316</v>
+    <row r="98" spans="1:7">
+      <c r="A98" s="3" t="s">
+        <v>317</v>
       </c>
       <c r="B98" s="1">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C98" t="s">
-        <v>215</v>
+        <v>333</v>
       </c>
       <c r="D98" t="s">
-        <v>26</v>
+        <v>333</v>
       </c>
       <c r="F98" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99" t="s">
-        <v>316</v>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="3" t="s">
+        <v>317</v>
       </c>
       <c r="B99" s="1">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C99" t="s">
-        <v>216</v>
+        <v>334</v>
       </c>
       <c r="D99" t="s">
-        <v>396</v>
+        <v>334</v>
       </c>
       <c r="F99" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100" t="s">
-        <v>316</v>
-      </c>
-      <c r="B100" s="1">
-        <v>5</v>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B100" s="16">
+        <v>23</v>
       </c>
       <c r="C100" t="s">
-        <v>217</v>
+        <v>335</v>
       </c>
       <c r="D100" t="s">
-        <v>67</v>
+        <v>335</v>
       </c>
       <c r="F100" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101" t="s">
-        <v>316</v>
-      </c>
-      <c r="B101" s="1">
-        <v>6</v>
-      </c>
-      <c r="C101" t="s">
-        <v>218</v>
-      </c>
-      <c r="D101" t="s">
-        <v>75</v>
-      </c>
-      <c r="F101" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B101" s="26"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" t="s">
         <v>316</v>
       </c>
       <c r="B102" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C102" t="s">
-        <v>263</v>
+        <v>213</v>
       </c>
       <c r="D102" t="s">
-        <v>321</v>
+        <v>394</v>
       </c>
       <c r="F102" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" t="s">
         <v>316</v>
       </c>
       <c r="B103" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C103" t="s">
-        <v>302</v>
+        <v>214</v>
       </c>
       <c r="D103" t="s">
-        <v>69</v>
+        <v>395</v>
       </c>
       <c r="F103" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:7">
       <c r="A104" t="s">
         <v>316</v>
       </c>
       <c r="B104" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C104" t="s">
-        <v>252</v>
+        <v>215</v>
       </c>
       <c r="D104" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="F104" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105" t="s">
         <v>316</v>
       </c>
       <c r="B105" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C105" t="s">
-        <v>71</v>
+        <v>216</v>
       </c>
       <c r="D105" t="s">
-        <v>71</v>
+        <v>396</v>
       </c>
       <c r="F105" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106" t="s">
         <v>316</v>
       </c>
       <c r="B106" s="1">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C106" t="s">
-        <v>83</v>
+        <v>217</v>
       </c>
       <c r="D106" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="F106" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107" t="s">
         <v>316</v>
       </c>
       <c r="B107" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C107" t="s">
-        <v>275</v>
+        <v>218</v>
       </c>
       <c r="D107" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F107" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108" t="s">
         <v>316</v>
       </c>
       <c r="B108" s="1">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C108" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="D108" t="s">
-        <v>397</v>
+        <v>321</v>
       </c>
       <c r="F108" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:7">
       <c r="A109" t="s">
         <v>316</v>
       </c>
       <c r="B109" s="1">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D109" t="s">
-        <v>398</v>
+        <v>69</v>
       </c>
       <c r="F109" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110" t="s">
         <v>316</v>
       </c>
       <c r="B110" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>305</v>
+        <v>252</v>
       </c>
       <c r="D110" t="s">
-        <v>189</v>
+        <v>62</v>
       </c>
       <c r="F110" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111" t="s">
         <v>316</v>
       </c>
       <c r="B111" s="1">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C111" t="s">
-        <v>306</v>
+        <v>71</v>
       </c>
       <c r="D111" t="s">
-        <v>399</v>
+        <v>71</v>
       </c>
       <c r="F111" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:7">
       <c r="A112" t="s">
         <v>316</v>
       </c>
       <c r="B112" s="1">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C112" t="s">
-        <v>307</v>
+        <v>83</v>
       </c>
       <c r="D112" t="s">
-        <v>400</v>
+        <v>83</v>
       </c>
       <c r="F112" t="s">
-        <v>251</v>
+        <v>156</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -12963,13 +13081,13 @@
         <v>316</v>
       </c>
       <c r="B113" s="1">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C113" t="s">
-        <v>308</v>
+        <v>275</v>
       </c>
       <c r="D113" t="s">
-        <v>401</v>
+        <v>80</v>
       </c>
       <c r="F113" t="s">
         <v>156</v>
@@ -12979,17 +13097,17 @@
       <c r="A114" t="s">
         <v>316</v>
       </c>
-      <c r="B114" s="16">
-        <v>19</v>
+      <c r="B114" s="1">
+        <v>13</v>
       </c>
       <c r="C114" t="s">
-        <v>18</v>
+        <v>303</v>
       </c>
       <c r="D114" t="s">
-        <v>18</v>
+        <v>397</v>
       </c>
       <c r="F114" t="s">
-        <v>156</v>
+        <v>251</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -12997,16 +13115,16 @@
         <v>316</v>
       </c>
       <c r="B115" s="1">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C115" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D115" t="s">
-        <v>309</v>
+        <v>398</v>
       </c>
       <c r="F115" t="s">
-        <v>295</v>
+        <v>251</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -13014,16 +13132,16 @@
         <v>316</v>
       </c>
       <c r="B116" s="1">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C116" t="s">
-        <v>14</v>
+        <v>305</v>
       </c>
       <c r="D116" t="s">
-        <v>14</v>
+        <v>189</v>
       </c>
       <c r="F116" t="s">
-        <v>156</v>
+        <v>251</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -13031,13 +13149,13 @@
         <v>316</v>
       </c>
       <c r="B117" s="1">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C117" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D117" t="s">
-        <v>310</v>
+        <v>399</v>
       </c>
       <c r="F117" t="s">
         <v>156</v>
@@ -13048,16 +13166,16 @@
         <v>316</v>
       </c>
       <c r="B118" s="1">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C118" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D118" t="s">
-        <v>311</v>
+        <v>400</v>
       </c>
       <c r="F118" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -13065,33 +13183,33 @@
         <v>316</v>
       </c>
       <c r="B119" s="1">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C119" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D119" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F119" t="s">
-        <v>280</v>
+        <v>156</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" t="s">
         <v>316</v>
       </c>
-      <c r="B120" s="1">
-        <v>25</v>
+      <c r="B120" s="16">
+        <v>19</v>
       </c>
       <c r="C120" t="s">
-        <v>313</v>
+        <v>18</v>
       </c>
       <c r="D120" t="s">
-        <v>403</v>
+        <v>18</v>
       </c>
       <c r="F120" t="s">
-        <v>280</v>
+        <v>156</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -13099,16 +13217,16 @@
         <v>316</v>
       </c>
       <c r="B121" s="1">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C121" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D121" t="s">
-        <v>404</v>
+        <v>309</v>
       </c>
       <c r="F121" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -13116,129 +13234,162 @@
         <v>316</v>
       </c>
       <c r="B122" s="1">
+        <v>21</v>
+      </c>
+      <c r="C122" t="s">
+        <v>14</v>
+      </c>
+      <c r="D122" t="s">
+        <v>14</v>
+      </c>
+      <c r="F122" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" t="s">
+        <v>316</v>
+      </c>
+      <c r="B123" s="1">
+        <v>22</v>
+      </c>
+      <c r="C123" t="s">
+        <v>310</v>
+      </c>
+      <c r="D123" t="s">
+        <v>310</v>
+      </c>
+      <c r="F123" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" t="s">
+        <v>316</v>
+      </c>
+      <c r="B124" s="1">
+        <v>23</v>
+      </c>
+      <c r="C124" t="s">
+        <v>311</v>
+      </c>
+      <c r="D124" t="s">
+        <v>311</v>
+      </c>
+      <c r="F124" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" t="s">
+        <v>316</v>
+      </c>
+      <c r="B125" s="1">
+        <v>24</v>
+      </c>
+      <c r="C125" t="s">
+        <v>312</v>
+      </c>
+      <c r="D125" t="s">
+        <v>402</v>
+      </c>
+      <c r="F125" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" t="s">
+        <v>316</v>
+      </c>
+      <c r="B126" s="1">
+        <v>25</v>
+      </c>
+      <c r="C126" t="s">
+        <v>313</v>
+      </c>
+      <c r="D126" t="s">
+        <v>403</v>
+      </c>
+      <c r="F126" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" t="s">
+        <v>316</v>
+      </c>
+      <c r="B127" s="1">
+        <v>26</v>
+      </c>
+      <c r="C127" t="s">
+        <v>314</v>
+      </c>
+      <c r="D127" t="s">
+        <v>404</v>
+      </c>
+      <c r="F127" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" t="s">
+        <v>316</v>
+      </c>
+      <c r="B128" s="1">
         <v>27</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C128" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="D122" s="3" t="s">
+      <c r="D128" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="E122" s="3"/>
-      <c r="F122" s="3" t="s">
+      <c r="E128" s="3"/>
+      <c r="F128" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="G122" s="3"/>
-    </row>
-    <row r="123" spans="1:7">
-      <c r="A123" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="B123" s="25"/>
-      <c r="C123" s="3"/>
-      <c r="D123" s="3"/>
-      <c r="E123" s="3"/>
-      <c r="F123" s="3"/>
-      <c r="G123" s="3"/>
-    </row>
-    <row r="124" spans="1:7">
-      <c r="A124" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="B124" s="1">
-        <v>1</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D124" t="s">
-        <v>394</v>
-      </c>
-      <c r="E124" s="3"/>
-      <c r="F124" s="3"/>
-      <c r="G124" s="3"/>
-    </row>
-    <row r="125" spans="1:7">
-      <c r="A125" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="B125" s="1">
-        <v>2</v>
-      </c>
-      <c r="C125" t="s">
-        <v>252</v>
-      </c>
-      <c r="D125" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7">
-      <c r="A126" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="B126" s="1">
-        <v>3</v>
-      </c>
-      <c r="C126" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7">
-      <c r="A127" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="B127" s="1">
-        <v>4</v>
-      </c>
-      <c r="C127" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7">
-      <c r="A128" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="B128" s="1">
-        <v>5</v>
-      </c>
-      <c r="C128" t="s">
-        <v>300</v>
-      </c>
-      <c r="D128" t="s">
-        <v>300</v>
-      </c>
+      <c r="G128" s="3"/>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="B129" s="1">
-        <v>6</v>
-      </c>
-      <c r="C129" t="s">
-        <v>301</v>
-      </c>
+        <v>508</v>
+      </c>
+      <c r="B129" s="26"/>
+      <c r="C129" s="3"/>
+      <c r="D129" s="3"/>
+      <c r="E129" s="3"/>
+      <c r="F129" s="3"/>
+      <c r="G129" s="3"/>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="3" t="s">
         <v>297</v>
       </c>
       <c r="B130" s="1">
-        <v>7</v>
-      </c>
-      <c r="C130" t="s">
-        <v>126</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D130" t="s">
+        <v>394</v>
+      </c>
+      <c r="E130" s="3"/>
+      <c r="F130" s="3"/>
+      <c r="G130" s="3"/>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="3" t="s">
         <v>297</v>
       </c>
       <c r="B131" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C131" t="s">
-        <v>223</v>
+        <v>252</v>
+      </c>
+      <c r="D131" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -13246,10 +13397,10 @@
         <v>297</v>
       </c>
       <c r="B132" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C132" t="s">
-        <v>224</v>
+        <v>298</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -13257,10 +13408,10 @@
         <v>297</v>
       </c>
       <c r="B133" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C133" t="s">
-        <v>230</v>
+        <v>299</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -13268,114 +13419,79 @@
         <v>297</v>
       </c>
       <c r="B134" s="1">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C134" t="s">
-        <v>278</v>
+        <v>300</v>
+      </c>
+      <c r="D134" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="3" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="B135" s="1">
-        <v>1</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D135" t="s">
-        <v>394</v>
-      </c>
-      <c r="E135" s="3"/>
-      <c r="F135" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="G135" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="C135" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="3" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="B136" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C136" t="s">
-        <v>214</v>
-      </c>
-      <c r="D136" t="s">
-        <v>395</v>
-      </c>
-      <c r="F136" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="3" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="B137" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>215</v>
-      </c>
-      <c r="D137" t="s">
-        <v>26</v>
-      </c>
-      <c r="F137" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="3" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="B138" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>216</v>
-      </c>
-      <c r="D138" t="s">
-        <v>396</v>
-      </c>
-      <c r="F138" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="3" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="B139" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C139" t="s">
-        <v>217</v>
-      </c>
-      <c r="D139" t="s">
-        <v>67</v>
-      </c>
-      <c r="F139" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="3" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="B140" s="1">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C140" t="s">
-        <v>218</v>
-      </c>
-      <c r="D140" t="s">
-        <v>75</v>
-      </c>
-      <c r="F140" t="s">
-        <v>224</v>
+        <v>278</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -13383,30 +13499,32 @@
         <v>281</v>
       </c>
       <c r="B141" s="1">
-        <v>7</v>
-      </c>
-      <c r="C141" t="s">
-        <v>282</v>
+        <v>1</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>213</v>
       </c>
       <c r="D141" t="s">
-        <v>434</v>
-      </c>
-      <c r="F141" t="s">
-        <v>156</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="E141" s="3"/>
+      <c r="F141" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G141" s="3"/>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="3" t="s">
         <v>281</v>
       </c>
       <c r="B142" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C142" t="s">
-        <v>283</v>
+        <v>214</v>
       </c>
       <c r="D142" t="s">
-        <v>474</v>
+        <v>395</v>
       </c>
       <c r="F142" t="s">
         <v>156</v>
@@ -13417,16 +13535,16 @@
         <v>281</v>
       </c>
       <c r="B143" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C143" t="s">
-        <v>284</v>
+        <v>215</v>
       </c>
       <c r="D143" t="s">
-        <v>475</v>
+        <v>26</v>
       </c>
       <c r="F143" t="s">
-        <v>156</v>
+        <v>223</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -13434,16 +13552,16 @@
         <v>281</v>
       </c>
       <c r="B144" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C144" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="D144" t="s">
-        <v>48</v>
+        <v>396</v>
       </c>
       <c r="F144" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -13451,16 +13569,16 @@
         <v>281</v>
       </c>
       <c r="B145" s="1">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C145" t="s">
-        <v>285</v>
+        <v>217</v>
       </c>
       <c r="D145" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="F145" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -13468,16 +13586,16 @@
         <v>281</v>
       </c>
       <c r="B146" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C146" t="s">
-        <v>10</v>
+        <v>218</v>
       </c>
       <c r="D146" t="s">
-        <v>229</v>
+        <v>75</v>
       </c>
       <c r="F146" t="s">
-        <v>156</v>
+        <v>224</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -13485,13 +13603,13 @@
         <v>281</v>
       </c>
       <c r="B147" s="1">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C147" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D147" t="s">
-        <v>191</v>
+        <v>434</v>
       </c>
       <c r="F147" t="s">
         <v>156</v>
@@ -13502,16 +13620,16 @@
         <v>281</v>
       </c>
       <c r="B148" s="1">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D148" t="s">
-        <v>5</v>
+        <v>474</v>
       </c>
       <c r="F148" t="s">
-        <v>223</v>
+        <v>156</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -13519,16 +13637,16 @@
         <v>281</v>
       </c>
       <c r="B149" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D149" t="s">
-        <v>288</v>
+        <v>475</v>
       </c>
       <c r="F149" t="s">
-        <v>223</v>
+        <v>156</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -13536,16 +13654,16 @@
         <v>281</v>
       </c>
       <c r="B150" s="1">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C150" t="s">
-        <v>289</v>
+        <v>227</v>
       </c>
       <c r="D150" t="s">
-        <v>289</v>
+        <v>48</v>
       </c>
       <c r="F150" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -13553,16 +13671,16 @@
         <v>281</v>
       </c>
       <c r="B151" s="1">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C151" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D151" t="s">
-        <v>290</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -13570,13 +13688,13 @@
         <v>281</v>
       </c>
       <c r="B152" s="1">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C152" t="s">
-        <v>291</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="F152" t="s">
         <v>156</v>
@@ -13587,16 +13705,16 @@
         <v>281</v>
       </c>
       <c r="B153" s="1">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C153" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D153" t="s">
-        <v>139</v>
+        <v>191</v>
       </c>
       <c r="F153" t="s">
-        <v>295</v>
+        <v>156</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -13604,16 +13722,16 @@
         <v>281</v>
       </c>
       <c r="B154" s="1">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C154" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D154" t="s">
-        <v>406</v>
+        <v>5</v>
       </c>
       <c r="F154" t="s">
-        <v>296</v>
+        <v>223</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -13621,16 +13739,16 @@
         <v>281</v>
       </c>
       <c r="B155" s="1">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C155" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D155" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="F155" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -13638,16 +13756,16 @@
         <v>281</v>
       </c>
       <c r="B156" s="1">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C156" t="s">
-        <v>245</v>
+        <v>289</v>
       </c>
       <c r="D156" t="s">
-        <v>476</v>
+        <v>289</v>
       </c>
       <c r="F156" t="s">
-        <v>156</v>
+        <v>224</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -13655,16 +13773,16 @@
         <v>281</v>
       </c>
       <c r="B157" s="1">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C157" t="s">
-        <v>246</v>
+        <v>290</v>
       </c>
       <c r="D157" t="s">
-        <v>477</v>
+        <v>290</v>
       </c>
       <c r="F157" t="s">
-        <v>156</v>
+        <v>251</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -13672,13 +13790,13 @@
         <v>281</v>
       </c>
       <c r="B158" s="1">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C158" t="s">
-        <v>247</v>
+        <v>291</v>
       </c>
       <c r="D158" t="s">
-        <v>478</v>
+        <v>222</v>
       </c>
       <c r="F158" t="s">
         <v>156</v>
@@ -13689,16 +13807,16 @@
         <v>281</v>
       </c>
       <c r="B159" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C159" t="s">
-        <v>248</v>
+        <v>292</v>
       </c>
       <c r="D159" t="s">
-        <v>479</v>
+        <v>139</v>
       </c>
       <c r="F159" t="s">
-        <v>250</v>
+        <v>295</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -13706,49 +13824,47 @@
         <v>281</v>
       </c>
       <c r="B160" s="1">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C160" t="s">
-        <v>249</v>
+        <v>293</v>
       </c>
       <c r="D160" t="s">
-        <v>480</v>
+        <v>406</v>
       </c>
       <c r="F160" t="s">
-        <v>250</v>
+        <v>296</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="3" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="B161" s="1">
-        <v>1</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D161" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="E161" s="3"/>
-      <c r="F161" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="G161" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="C161" t="s">
+        <v>294</v>
+      </c>
+      <c r="D161" t="s">
+        <v>294</v>
+      </c>
+      <c r="F161" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="3" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="B162" s="1">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C162" t="s">
-        <v>214</v>
-      </c>
-      <c r="D162" s="6" t="s">
-        <v>395</v>
+        <v>245</v>
+      </c>
+      <c r="D162" t="s">
+        <v>476</v>
       </c>
       <c r="F162" t="s">
         <v>156</v>
@@ -13756,70 +13872,70 @@
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="3" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="B163" s="1">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C163" t="s">
-        <v>215</v>
-      </c>
-      <c r="D163" s="7" t="s">
-        <v>26</v>
+        <v>246</v>
+      </c>
+      <c r="D163" t="s">
+        <v>477</v>
       </c>
       <c r="F163" t="s">
-        <v>223</v>
+        <v>156</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="3" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="B164" s="1">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C164" t="s">
-        <v>216</v>
-      </c>
-      <c r="D164" s="6" t="s">
-        <v>396</v>
+        <v>247</v>
+      </c>
+      <c r="D164" t="s">
+        <v>478</v>
       </c>
       <c r="F164" t="s">
-        <v>224</v>
+        <v>156</v>
       </c>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="3" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="B165" s="1">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C165" t="s">
-        <v>217</v>
-      </c>
-      <c r="D165" s="7" t="s">
-        <v>67</v>
+        <v>248</v>
+      </c>
+      <c r="D165" t="s">
+        <v>479</v>
       </c>
       <c r="F165" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="3" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="B166" s="1">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C166" t="s">
-        <v>218</v>
-      </c>
-      <c r="D166" s="6" t="s">
-        <v>75</v>
+        <v>249</v>
+      </c>
+      <c r="D166" t="s">
+        <v>480</v>
       </c>
       <c r="F166" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -13827,30 +13943,32 @@
         <v>262</v>
       </c>
       <c r="B167" s="1">
-        <v>7</v>
-      </c>
-      <c r="C167" t="s">
-        <v>263</v>
+        <v>1</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>213</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="F167" t="s">
-        <v>251</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="E167" s="3"/>
+      <c r="F167" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G167" s="3"/>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="3" t="s">
         <v>262</v>
       </c>
       <c r="B168" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C168" t="s">
-        <v>264</v>
+        <v>214</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>201</v>
+        <v>395</v>
       </c>
       <c r="F168" t="s">
         <v>156</v>
@@ -13861,16 +13979,16 @@
         <v>262</v>
       </c>
       <c r="B169" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C169" t="s">
-        <v>265</v>
+        <v>215</v>
       </c>
       <c r="D169" s="7" t="s">
-        <v>265</v>
+        <v>26</v>
       </c>
       <c r="F169" t="s">
-        <v>156</v>
+        <v>223</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -13878,16 +13996,16 @@
         <v>262</v>
       </c>
       <c r="B170" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C170" t="s">
-        <v>266</v>
+        <v>216</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>266</v>
+        <v>396</v>
       </c>
       <c r="F170" t="s">
-        <v>278</v>
+        <v>224</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -13895,16 +14013,16 @@
         <v>262</v>
       </c>
       <c r="B171" s="1">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C171" t="s">
-        <v>125</v>
+        <v>217</v>
       </c>
       <c r="D171" s="7" t="s">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="F171" t="s">
-        <v>156</v>
+        <v>223</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -13912,16 +14030,16 @@
         <v>262</v>
       </c>
       <c r="B172" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C172" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>193</v>
+        <v>75</v>
       </c>
       <c r="F172" t="s">
-        <v>156</v>
+        <v>224</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -13929,16 +14047,16 @@
         <v>262</v>
       </c>
       <c r="B173" s="1">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C173" t="s">
-        <v>192</v>
+        <v>263</v>
       </c>
       <c r="D173" s="7" t="s">
-        <v>192</v>
+        <v>251</v>
       </c>
       <c r="F173" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -13946,13 +14064,13 @@
         <v>262</v>
       </c>
       <c r="B174" s="1">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>433</v>
+        <v>201</v>
       </c>
       <c r="F174" t="s">
         <v>156</v>
@@ -13963,13 +14081,13 @@
         <v>262</v>
       </c>
       <c r="B175" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D175" s="7" t="s">
-        <v>33</v>
+        <v>265</v>
       </c>
       <c r="F175" t="s">
         <v>156</v>
@@ -13980,558 +14098,561 @@
         <v>262</v>
       </c>
       <c r="B176" s="1">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C176" t="s">
-        <v>269</v>
-      </c>
-      <c r="D176" t="s">
-        <v>489</v>
+        <v>266</v>
+      </c>
+      <c r="D176" s="6" t="s">
+        <v>266</v>
       </c>
       <c r="F176" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
       <c r="A177" s="3" t="s">
         <v>262</v>
       </c>
       <c r="B177" s="1">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C177" t="s">
-        <v>191</v>
+        <v>125</v>
       </c>
       <c r="D177" s="7" t="s">
-        <v>191</v>
+        <v>1</v>
       </c>
       <c r="F177" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:6">
       <c r="A178" s="3" t="s">
         <v>262</v>
       </c>
       <c r="B178" s="1">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C178" t="s">
-        <v>270</v>
+        <v>193</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>487</v>
+        <v>193</v>
       </c>
       <c r="F178" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
       <c r="A179" s="3" t="s">
         <v>262</v>
       </c>
       <c r="B179" s="1">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C179" t="s">
-        <v>271</v>
+        <v>192</v>
       </c>
       <c r="D179" s="7" t="s">
-        <v>490</v>
+        <v>192</v>
       </c>
       <c r="F179" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
       <c r="A180" s="3" t="s">
         <v>262</v>
       </c>
       <c r="B180" s="1">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C180" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>491</v>
+        <v>433</v>
       </c>
       <c r="F180" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:6">
       <c r="A181" s="3" t="s">
         <v>262</v>
       </c>
       <c r="B181" s="1">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C181" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D181" s="7" t="s">
-        <v>492</v>
+        <v>33</v>
       </c>
       <c r="F181" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:6">
       <c r="A182" s="3" t="s">
         <v>262</v>
       </c>
       <c r="B182" s="1">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C182" t="s">
-        <v>274</v>
-      </c>
-      <c r="D182" s="6" t="s">
-        <v>274</v>
+        <v>269</v>
+      </c>
+      <c r="D182" t="s">
+        <v>489</v>
       </c>
       <c r="F182" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
       <c r="A183" s="3" t="s">
         <v>262</v>
       </c>
       <c r="B183" s="1">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C183" t="s">
-        <v>275</v>
+        <v>191</v>
       </c>
       <c r="D183" s="7" t="s">
-        <v>80</v>
+        <v>191</v>
       </c>
       <c r="F183" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:6">
       <c r="A184" s="3" t="s">
         <v>262</v>
       </c>
       <c r="B184" s="1">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C184" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>434</v>
+        <v>487</v>
       </c>
       <c r="F184" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
       <c r="A185" s="3" t="s">
         <v>262</v>
       </c>
       <c r="B185" s="1">
+        <v>19</v>
+      </c>
+      <c r="C185" t="s">
+        <v>271</v>
+      </c>
+      <c r="D185" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="F185" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B186" s="1">
+        <v>20</v>
+      </c>
+      <c r="C186" t="s">
+        <v>272</v>
+      </c>
+      <c r="D186" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="F186" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B187" s="1">
+        <v>21</v>
+      </c>
+      <c r="C187" t="s">
+        <v>273</v>
+      </c>
+      <c r="D187" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="F187" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B188" s="1">
+        <v>22</v>
+      </c>
+      <c r="C188" t="s">
+        <v>274</v>
+      </c>
+      <c r="D188" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="F188" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B189" s="1">
+        <v>23</v>
+      </c>
+      <c r="C189" t="s">
+        <v>275</v>
+      </c>
+      <c r="D189" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F189" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B190" s="1">
+        <v>24</v>
+      </c>
+      <c r="C190" t="s">
+        <v>702</v>
+      </c>
+      <c r="D190" t="s">
+        <v>702</v>
+      </c>
+      <c r="F190" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B191" s="1">
         <v>25</v>
       </c>
-      <c r="C185" t="s">
+      <c r="C191" t="s">
+        <v>276</v>
+      </c>
+      <c r="D191" s="27" t="s">
+        <v>434</v>
+      </c>
+      <c r="F191" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B192" s="2">
+        <v>26</v>
+      </c>
+      <c r="C192" t="s">
         <v>277</v>
       </c>
-      <c r="D185" s="7" t="s">
+      <c r="D192" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="F185" t="s">
+      <c r="F192" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
-      <c r="A186" s="3" t="s">
+    <row r="193" spans="1:8">
+      <c r="A193" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="B186" s="25"/>
-      <c r="C186" s="3"/>
-      <c r="D186" s="3"/>
-      <c r="E186" s="3"/>
-      <c r="F186" s="3"/>
-      <c r="G186" s="3"/>
-    </row>
-    <row r="187" spans="1:7">
-      <c r="A187" t="s">
-        <v>261</v>
-      </c>
-      <c r="B187" s="1">
-        <v>1</v>
-      </c>
-      <c r="C187" t="s">
-        <v>213</v>
-      </c>
-      <c r="D187" t="s">
-        <v>394</v>
-      </c>
-      <c r="F187" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7">
-      <c r="A188" t="s">
-        <v>261</v>
-      </c>
-      <c r="B188" s="1">
-        <v>2</v>
-      </c>
-      <c r="C188" t="s">
-        <v>252</v>
-      </c>
-      <c r="D188" t="s">
-        <v>62</v>
-      </c>
-      <c r="F188" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7">
-      <c r="A189" t="s">
-        <v>261</v>
-      </c>
-      <c r="B189" s="1">
-        <v>3</v>
-      </c>
-      <c r="C189" t="s">
-        <v>253</v>
-      </c>
-      <c r="D189" t="s">
-        <v>396</v>
-      </c>
-      <c r="F189" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7">
-      <c r="A190" t="s">
-        <v>261</v>
-      </c>
-      <c r="B190" s="1">
-        <v>4</v>
-      </c>
-      <c r="C190" t="s">
-        <v>254</v>
-      </c>
-      <c r="D190" t="s">
-        <v>11</v>
-      </c>
-      <c r="F190" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7">
-      <c r="A191" t="s">
-        <v>261</v>
-      </c>
-      <c r="B191" s="1">
-        <v>5</v>
-      </c>
-      <c r="C191" t="s">
-        <v>219</v>
-      </c>
-      <c r="D191" t="s">
-        <v>493</v>
-      </c>
-      <c r="F191" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7">
-      <c r="A192" t="s">
-        <v>261</v>
-      </c>
-      <c r="B192" s="1">
-        <v>6</v>
-      </c>
-      <c r="C192" t="s">
-        <v>255</v>
-      </c>
-      <c r="D192" t="s">
-        <v>495</v>
-      </c>
-      <c r="F192" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7">
-      <c r="A193" t="s">
-        <v>261</v>
-      </c>
-      <c r="B193" s="1">
-        <v>7</v>
-      </c>
-      <c r="C193" t="s">
-        <v>256</v>
-      </c>
-      <c r="D193" t="s">
-        <v>496</v>
-      </c>
-      <c r="F193" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7">
+      <c r="B193" s="26"/>
+      <c r="C193" s="3"/>
+      <c r="D193" s="3"/>
+      <c r="E193" s="3"/>
+      <c r="F193" s="3"/>
+      <c r="G193" s="3"/>
+    </row>
+    <row r="194" spans="1:8">
       <c r="A194" t="s">
         <v>261</v>
       </c>
       <c r="B194" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C194" t="s">
-        <v>257</v>
+        <v>213</v>
       </c>
       <c r="D194" t="s">
-        <v>497</v>
+        <v>394</v>
       </c>
       <c r="F194" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
       <c r="A195" t="s">
         <v>261</v>
       </c>
       <c r="B195" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C195" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D195" t="s">
-        <v>498</v>
+        <v>62</v>
       </c>
       <c r="F195" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
       <c r="A196" t="s">
         <v>261</v>
       </c>
       <c r="B196" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C196" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D196" t="s">
-        <v>220</v>
+        <v>396</v>
       </c>
       <c r="F196" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
       <c r="A197" t="s">
         <v>261</v>
       </c>
       <c r="B197" s="1">
+        <v>4</v>
+      </c>
+      <c r="C197" t="s">
+        <v>254</v>
+      </c>
+      <c r="D197" t="s">
         <v>11</v>
       </c>
-      <c r="C197" s="3" t="s">
+      <c r="F197" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
+      <c r="A198" t="s">
+        <v>261</v>
+      </c>
+      <c r="B198" s="1">
+        <v>5</v>
+      </c>
+      <c r="C198" t="s">
+        <v>219</v>
+      </c>
+      <c r="D198" t="s">
+        <v>493</v>
+      </c>
+      <c r="F198" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
+      <c r="A199" t="s">
+        <v>261</v>
+      </c>
+      <c r="B199" s="1">
+        <v>6</v>
+      </c>
+      <c r="C199" t="s">
+        <v>255</v>
+      </c>
+      <c r="D199" t="s">
+        <v>495</v>
+      </c>
+      <c r="F199" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
+      <c r="A200" t="s">
+        <v>261</v>
+      </c>
+      <c r="B200" s="1">
+        <v>7</v>
+      </c>
+      <c r="C200" t="s">
+        <v>256</v>
+      </c>
+      <c r="D200" t="s">
+        <v>496</v>
+      </c>
+      <c r="F200" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
+      <c r="A201" t="s">
+        <v>261</v>
+      </c>
+      <c r="B201" s="1">
+        <v>8</v>
+      </c>
+      <c r="C201" t="s">
+        <v>257</v>
+      </c>
+      <c r="D201" t="s">
+        <v>497</v>
+      </c>
+      <c r="F201" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
+      <c r="A202" t="s">
+        <v>261</v>
+      </c>
+      <c r="B202" s="1">
+        <v>9</v>
+      </c>
+      <c r="C202" t="s">
+        <v>258</v>
+      </c>
+      <c r="D202" t="s">
+        <v>498</v>
+      </c>
+      <c r="F202" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
+      <c r="A203" t="s">
+        <v>261</v>
+      </c>
+      <c r="B203" s="1">
+        <v>10</v>
+      </c>
+      <c r="C203" t="s">
+        <v>259</v>
+      </c>
+      <c r="D203" t="s">
+        <v>220</v>
+      </c>
+      <c r="F203" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
+      <c r="A204" t="s">
+        <v>261</v>
+      </c>
+      <c r="B204" s="1">
+        <v>11</v>
+      </c>
+      <c r="C204" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="D197" s="3" t="s">
+      <c r="D204" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="E197" s="3"/>
-      <c r="F197" s="3" t="s">
+      <c r="E204" s="3"/>
+      <c r="F204" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="G197" s="3"/>
-    </row>
-    <row r="198" spans="1:7">
-      <c r="A198" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="B198" s="1">
-        <v>1</v>
-      </c>
-      <c r="C198" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D198" t="s">
-        <v>394</v>
-      </c>
-      <c r="E198" s="3"/>
-      <c r="F198" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="G198" s="3"/>
-    </row>
-    <row r="199" spans="1:7">
-      <c r="A199" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="B199" s="1">
-        <v>2</v>
-      </c>
-      <c r="C199" t="s">
-        <v>214</v>
-      </c>
-      <c r="D199" t="s">
-        <v>395</v>
-      </c>
-      <c r="F199" t="s">
+      <c r="G204" s="3"/>
+    </row>
+    <row r="205" spans="1:8">
+      <c r="A205" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B205" s="26">
+        <v>12</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="D205" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="E205" s="3"/>
+      <c r="F205" s="3" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="200" spans="1:7">
-      <c r="A200" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="B200" s="1">
-        <v>3</v>
-      </c>
-      <c r="C200" t="s">
-        <v>215</v>
-      </c>
-      <c r="D200" t="s">
-        <v>26</v>
-      </c>
-      <c r="F200" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7">
-      <c r="A201" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="B201" s="1">
-        <v>4</v>
-      </c>
-      <c r="C201" t="s">
-        <v>216</v>
-      </c>
-      <c r="D201" t="s">
-        <v>396</v>
-      </c>
-      <c r="F201" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7">
-      <c r="A202" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="B202" s="1">
-        <v>5</v>
-      </c>
-      <c r="C202" t="s">
-        <v>217</v>
-      </c>
-      <c r="D202" t="s">
-        <v>67</v>
-      </c>
-      <c r="F202" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7">
-      <c r="A203" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="B203" s="1">
-        <v>6</v>
-      </c>
-      <c r="C203" t="s">
-        <v>218</v>
-      </c>
-      <c r="D203" t="s">
-        <v>75</v>
-      </c>
-      <c r="F203" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7">
-      <c r="A204" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="B204" s="1">
-        <v>7</v>
-      </c>
-      <c r="C204" t="s">
-        <v>189</v>
-      </c>
-      <c r="D204" t="s">
-        <v>189</v>
-      </c>
-      <c r="F204" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7">
-      <c r="A205" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="B205" s="1">
-        <v>8</v>
-      </c>
-      <c r="C205" t="s">
-        <v>49</v>
-      </c>
-      <c r="D205" t="s">
-        <v>49</v>
-      </c>
-      <c r="F205" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7">
+      <c r="G205" s="3"/>
+      <c r="H205" s="3"/>
+    </row>
+    <row r="206" spans="1:8">
       <c r="A206" s="3" t="s">
         <v>243</v>
       </c>
       <c r="B206" s="1">
-        <v>9</v>
-      </c>
-      <c r="C206" t="s">
-        <v>244</v>
+        <v>1</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>213</v>
       </c>
       <c r="D206" t="s">
-        <v>28</v>
-      </c>
-      <c r="F206" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7">
+        <v>394</v>
+      </c>
+      <c r="E206" s="3"/>
+      <c r="F206" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G206" s="3"/>
+    </row>
+    <row r="207" spans="1:8">
       <c r="A207" s="3" t="s">
         <v>243</v>
       </c>
       <c r="B207" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C207" t="s">
-        <v>65</v>
+        <v>214</v>
       </c>
       <c r="D207" t="s">
-        <v>65</v>
+        <v>395</v>
       </c>
       <c r="F207" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:8">
       <c r="A208" s="3" t="s">
         <v>243</v>
       </c>
       <c r="B208" s="1">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C208" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="D208" t="s">
-        <v>507</v>
+        <v>26</v>
       </c>
       <c r="F208" t="s">
-        <v>156</v>
+        <v>223</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -14539,16 +14660,16 @@
         <v>243</v>
       </c>
       <c r="B209" s="1">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C209" t="s">
-        <v>246</v>
+        <v>216</v>
       </c>
       <c r="D209" t="s">
-        <v>477</v>
+        <v>396</v>
       </c>
       <c r="F209" t="s">
-        <v>156</v>
+        <v>224</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -14556,16 +14677,16 @@
         <v>243</v>
       </c>
       <c r="B210" s="1">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C210" t="s">
-        <v>247</v>
+        <v>217</v>
       </c>
       <c r="D210" t="s">
-        <v>478</v>
+        <v>67</v>
       </c>
       <c r="F210" t="s">
-        <v>156</v>
+        <v>223</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -14573,16 +14694,16 @@
         <v>243</v>
       </c>
       <c r="B211" s="1">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C211" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="D211" t="s">
-        <v>479</v>
+        <v>75</v>
       </c>
       <c r="F211" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -14590,152 +14711,152 @@
         <v>243</v>
       </c>
       <c r="B212" s="1">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C212" t="s">
-        <v>249</v>
+        <v>189</v>
       </c>
       <c r="D212" t="s">
-        <v>480</v>
+        <v>189</v>
       </c>
       <c r="F212" t="s">
-        <v>250</v>
+        <v>156</v>
       </c>
     </row>
     <row r="213" spans="1:6">
-      <c r="A213" t="s">
-        <v>242</v>
+      <c r="A213" s="3" t="s">
+        <v>243</v>
       </c>
       <c r="B213" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C213" t="s">
-        <v>213</v>
+        <v>49</v>
       </c>
       <c r="D213" t="s">
-        <v>394</v>
+        <v>49</v>
       </c>
       <c r="F213" t="s">
-        <v>126</v>
+        <v>230</v>
       </c>
     </row>
     <row r="214" spans="1:6">
-      <c r="A214" t="s">
-        <v>242</v>
+      <c r="A214" s="3" t="s">
+        <v>243</v>
       </c>
       <c r="B214" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C214" t="s">
-        <v>214</v>
+        <v>244</v>
       </c>
       <c r="D214" t="s">
-        <v>395</v>
+        <v>28</v>
       </c>
       <c r="F214" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="215" spans="1:6">
-      <c r="A215" t="s">
-        <v>242</v>
+      <c r="A215" s="3" t="s">
+        <v>243</v>
       </c>
       <c r="B215" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C215" t="s">
-        <v>215</v>
+        <v>65</v>
       </c>
       <c r="D215" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="F215" t="s">
-        <v>223</v>
+        <v>156</v>
       </c>
     </row>
     <row r="216" spans="1:6">
-      <c r="A216" t="s">
-        <v>242</v>
+      <c r="A216" s="3" t="s">
+        <v>243</v>
       </c>
       <c r="B216" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C216" t="s">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c r="D216" t="s">
-        <v>396</v>
+        <v>507</v>
       </c>
       <c r="F216" t="s">
-        <v>224</v>
+        <v>156</v>
       </c>
     </row>
     <row r="217" spans="1:6">
-      <c r="A217" t="s">
-        <v>242</v>
+      <c r="A217" s="3" t="s">
+        <v>243</v>
       </c>
       <c r="B217" s="1">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C217" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="D217" t="s">
-        <v>67</v>
+        <v>477</v>
       </c>
       <c r="F217" t="s">
-        <v>223</v>
+        <v>156</v>
       </c>
     </row>
     <row r="218" spans="1:6">
-      <c r="A218" t="s">
-        <v>242</v>
+      <c r="A218" s="3" t="s">
+        <v>243</v>
       </c>
       <c r="B218" s="1">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C218" t="s">
-        <v>218</v>
+        <v>247</v>
       </c>
       <c r="D218" t="s">
-        <v>75</v>
+        <v>478</v>
       </c>
       <c r="F218" t="s">
-        <v>224</v>
+        <v>156</v>
       </c>
     </row>
     <row r="219" spans="1:6">
-      <c r="A219" t="s">
-        <v>242</v>
+      <c r="A219" s="3" t="s">
+        <v>243</v>
       </c>
       <c r="B219" s="1">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C219" t="s">
-        <v>6</v>
+        <v>248</v>
       </c>
       <c r="D219" t="s">
-        <v>205</v>
+        <v>479</v>
       </c>
       <c r="F219" t="s">
-        <v>156</v>
+        <v>250</v>
       </c>
     </row>
     <row r="220" spans="1:6">
-      <c r="A220" t="s">
-        <v>242</v>
+      <c r="A220" s="3" t="s">
+        <v>243</v>
       </c>
       <c r="B220" s="1">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C220" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="D220" t="s">
-        <v>231</v>
+        <v>480</v>
       </c>
       <c r="F220" t="s">
-        <v>156</v>
+        <v>250</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -14743,16 +14864,16 @@
         <v>242</v>
       </c>
       <c r="B221" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C221" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="D221" t="s">
-        <v>2</v>
+        <v>394</v>
       </c>
       <c r="F221" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -14760,13 +14881,13 @@
         <v>242</v>
       </c>
       <c r="B222" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C222" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="D222" t="s">
-        <v>441</v>
+        <v>395</v>
       </c>
       <c r="F222" t="s">
         <v>156</v>
@@ -14777,16 +14898,16 @@
         <v>242</v>
       </c>
       <c r="B223" s="1">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C223" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="D223" t="s">
-        <v>499</v>
+        <v>26</v>
       </c>
       <c r="F223" t="s">
-        <v>156</v>
+        <v>223</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -14794,16 +14915,16 @@
         <v>242</v>
       </c>
       <c r="B224" s="1">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C224" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="D224" t="s">
-        <v>500</v>
+        <v>396</v>
       </c>
       <c r="F224" t="s">
-        <v>156</v>
+        <v>224</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -14811,16 +14932,16 @@
         <v>242</v>
       </c>
       <c r="B225" s="1">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C225" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="D225" t="s">
-        <v>501</v>
+        <v>67</v>
       </c>
       <c r="F225" t="s">
-        <v>126</v>
+        <v>223</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -14828,16 +14949,16 @@
         <v>242</v>
       </c>
       <c r="B226" s="1">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C226" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="D226" t="s">
-        <v>502</v>
+        <v>75</v>
       </c>
       <c r="F226" t="s">
-        <v>126</v>
+        <v>224</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -14845,13 +14966,13 @@
         <v>242</v>
       </c>
       <c r="B227" s="1">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C227" t="s">
-        <v>237</v>
+        <v>6</v>
       </c>
       <c r="D227" t="s">
-        <v>503</v>
+        <v>205</v>
       </c>
       <c r="F227" t="s">
         <v>156</v>
@@ -14862,13 +14983,13 @@
         <v>242</v>
       </c>
       <c r="B228" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C228" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D228" t="s">
-        <v>504</v>
+        <v>231</v>
       </c>
       <c r="F228" t="s">
         <v>156</v>
@@ -14879,13 +15000,13 @@
         <v>242</v>
       </c>
       <c r="B229" s="1">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C229" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D229" t="s">
-        <v>505</v>
+        <v>2</v>
       </c>
       <c r="F229" t="s">
         <v>156</v>
@@ -14896,13 +15017,13 @@
         <v>242</v>
       </c>
       <c r="B230" s="1">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C230" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D230" t="s">
-        <v>332</v>
+        <v>441</v>
       </c>
       <c r="F230" t="s">
         <v>156</v>
@@ -14913,476 +15034,949 @@
         <v>242</v>
       </c>
       <c r="B231" s="1">
+        <v>11</v>
+      </c>
+      <c r="C231" t="s">
+        <v>191</v>
+      </c>
+      <c r="D231" t="s">
+        <v>499</v>
+      </c>
+      <c r="F231" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232" t="s">
+        <v>242</v>
+      </c>
+      <c r="B232" s="1">
+        <v>12</v>
+      </c>
+      <c r="C232" t="s">
+        <v>234</v>
+      </c>
+      <c r="D232" t="s">
+        <v>500</v>
+      </c>
+      <c r="F232" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233" t="s">
+        <v>242</v>
+      </c>
+      <c r="B233" s="1">
+        <v>13</v>
+      </c>
+      <c r="C233" t="s">
+        <v>235</v>
+      </c>
+      <c r="D233" t="s">
+        <v>501</v>
+      </c>
+      <c r="F233" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234" t="s">
+        <v>242</v>
+      </c>
+      <c r="B234" s="1">
+        <v>14</v>
+      </c>
+      <c r="C234" t="s">
+        <v>236</v>
+      </c>
+      <c r="D234" t="s">
+        <v>502</v>
+      </c>
+      <c r="F234" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235" t="s">
+        <v>242</v>
+      </c>
+      <c r="B235" s="1">
+        <v>15</v>
+      </c>
+      <c r="C235" t="s">
+        <v>237</v>
+      </c>
+      <c r="D235" t="s">
+        <v>503</v>
+      </c>
+      <c r="F235" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236" t="s">
+        <v>242</v>
+      </c>
+      <c r="B236" s="1">
+        <v>16</v>
+      </c>
+      <c r="C236" t="s">
+        <v>238</v>
+      </c>
+      <c r="D236" t="s">
+        <v>504</v>
+      </c>
+      <c r="F236" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237" t="s">
+        <v>242</v>
+      </c>
+      <c r="B237" s="1">
+        <v>17</v>
+      </c>
+      <c r="C237" t="s">
+        <v>239</v>
+      </c>
+      <c r="D237" t="s">
+        <v>505</v>
+      </c>
+      <c r="F237" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238" t="s">
+        <v>242</v>
+      </c>
+      <c r="B238" s="1">
+        <v>18</v>
+      </c>
+      <c r="C238" t="s">
+        <v>240</v>
+      </c>
+      <c r="D238" t="s">
+        <v>332</v>
+      </c>
+      <c r="F238" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="A239" t="s">
+        <v>242</v>
+      </c>
+      <c r="B239" s="1">
         <v>19</v>
       </c>
-      <c r="C231" s="3" t="s">
+      <c r="C239" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="D231" s="3" t="s">
+      <c r="D239" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="E231" s="3"/>
-      <c r="F231" s="3" t="s">
+      <c r="E239" s="3"/>
+      <c r="F239" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="G231" s="3"/>
-    </row>
-    <row r="232" spans="1:7">
-      <c r="A232" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="B232" s="1">
-        <v>1</v>
-      </c>
-      <c r="C232" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D232" t="s">
-        <v>394</v>
-      </c>
-      <c r="E232" s="3"/>
-      <c r="F232" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="G232" s="3"/>
-    </row>
-    <row r="233" spans="1:7">
-      <c r="A233" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="B233" s="1">
-        <v>2</v>
-      </c>
-      <c r="C233" t="s">
-        <v>214</v>
-      </c>
-      <c r="D233" t="s">
-        <v>395</v>
-      </c>
-      <c r="F233" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7">
-      <c r="A234" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="B234" s="1">
-        <v>3</v>
-      </c>
-      <c r="C234" t="s">
-        <v>215</v>
-      </c>
-      <c r="D234" t="s">
-        <v>26</v>
-      </c>
-      <c r="F234" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7">
-      <c r="A235" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="B235" s="1">
-        <v>4</v>
-      </c>
-      <c r="C235" t="s">
-        <v>216</v>
-      </c>
-      <c r="D235" t="s">
-        <v>396</v>
-      </c>
-      <c r="F235" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7">
-      <c r="A236" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="B236" s="1">
-        <v>5</v>
-      </c>
-      <c r="C236" t="s">
-        <v>217</v>
-      </c>
-      <c r="D236" t="s">
-        <v>67</v>
-      </c>
-      <c r="F236" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7">
-      <c r="A237" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="B237" s="1">
-        <v>6</v>
-      </c>
-      <c r="C237" t="s">
-        <v>218</v>
-      </c>
-      <c r="D237" t="s">
-        <v>75</v>
-      </c>
-      <c r="F237" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7">
-      <c r="A238" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="B238" s="1">
-        <v>7</v>
-      </c>
-      <c r="C238" t="s">
-        <v>227</v>
-      </c>
-      <c r="D238" t="s">
-        <v>48</v>
-      </c>
-      <c r="F238" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7">
-      <c r="A239" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="B239" s="1">
-        <v>8</v>
-      </c>
-      <c r="C239" t="s">
-        <v>228</v>
-      </c>
-      <c r="D239" t="s">
-        <v>11</v>
-      </c>
-      <c r="F239" t="s">
-        <v>156</v>
-      </c>
+      <c r="G239" s="3"/>
     </row>
     <row r="240" spans="1:7">
       <c r="A240" s="3" t="s">
         <v>226</v>
       </c>
       <c r="B240" s="1">
-        <v>9</v>
-      </c>
-      <c r="C240" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>213</v>
       </c>
       <c r="D240" t="s">
-        <v>3</v>
-      </c>
-      <c r="F240" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8">
+        <v>394</v>
+      </c>
+      <c r="E240" s="3"/>
+      <c r="F240" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G240" s="3"/>
+    </row>
+    <row r="241" spans="1:7">
       <c r="A241" s="3" t="s">
         <v>226</v>
       </c>
       <c r="B241" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C241" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="D241" t="s">
-        <v>229</v>
+        <v>395</v>
       </c>
       <c r="F241" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242" spans="1:7">
       <c r="A242" s="3" t="s">
-        <v>509</v>
-      </c>
-      <c r="B242" s="25"/>
-      <c r="C242" s="3"/>
-      <c r="D242" s="3"/>
-      <c r="E242" s="3"/>
-      <c r="F242" s="3"/>
-      <c r="G242" s="3"/>
-    </row>
-    <row r="243" spans="1:8">
-      <c r="A243" t="s">
-        <v>211</v>
+        <v>226</v>
+      </c>
+      <c r="B242" s="1">
+        <v>3</v>
+      </c>
+      <c r="C242" t="s">
+        <v>215</v>
+      </c>
+      <c r="D242" t="s">
+        <v>26</v>
+      </c>
+      <c r="F242" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
+      <c r="A243" s="3" t="s">
+        <v>226</v>
       </c>
       <c r="B243" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C243" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D243" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F243" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8">
-      <c r="A244" t="s">
-        <v>211</v>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
+      <c r="A244" s="3" t="s">
+        <v>226</v>
       </c>
       <c r="B244" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C244" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D244" t="s">
-        <v>395</v>
+        <v>67</v>
       </c>
       <c r="F244" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
+      <c r="A245" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B245" s="1">
+        <v>6</v>
+      </c>
+      <c r="C245" t="s">
+        <v>218</v>
+      </c>
+      <c r="D245" t="s">
+        <v>75</v>
+      </c>
+      <c r="F245" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
+      <c r="A246" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B246" s="1">
+        <v>7</v>
+      </c>
+      <c r="C246" t="s">
+        <v>227</v>
+      </c>
+      <c r="D246" t="s">
+        <v>48</v>
+      </c>
+      <c r="F246" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
+      <c r="A247" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B247" s="1">
+        <v>8</v>
+      </c>
+      <c r="C247" t="s">
+        <v>228</v>
+      </c>
+      <c r="D247" t="s">
+        <v>11</v>
+      </c>
+      <c r="F247" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="245" spans="1:8">
-      <c r="A245" t="s">
-        <v>211</v>
-      </c>
-      <c r="B245" s="1">
+    <row r="248" spans="1:7">
+      <c r="A248" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B248" s="1">
+        <v>9</v>
+      </c>
+      <c r="C248" t="s">
         <v>3</v>
       </c>
-      <c r="C245" t="s">
-        <v>215</v>
-      </c>
-      <c r="D245" t="s">
-        <v>26</v>
-      </c>
-      <c r="F245" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8">
-      <c r="A246" t="s">
-        <v>211</v>
-      </c>
-      <c r="B246" s="1">
-        <v>4</v>
-      </c>
-      <c r="C246" t="s">
-        <v>216</v>
-      </c>
-      <c r="D246" t="s">
-        <v>396</v>
-      </c>
-      <c r="F246" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8">
-      <c r="A247" t="s">
-        <v>211</v>
-      </c>
-      <c r="B247" s="1">
-        <v>5</v>
-      </c>
-      <c r="C247" t="s">
-        <v>217</v>
-      </c>
-      <c r="D247" t="s">
-        <v>67</v>
-      </c>
-      <c r="F247" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8">
-      <c r="A248" t="s">
-        <v>211</v>
-      </c>
-      <c r="B248" s="1">
-        <v>6</v>
-      </c>
-      <c r="C248" t="s">
-        <v>218</v>
-      </c>
       <c r="D248" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="F248" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8">
-      <c r="A249" t="s">
-        <v>211</v>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
+      <c r="A249" s="3" t="s">
+        <v>226</v>
       </c>
       <c r="B249" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C249" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="D249" t="s">
-        <v>475</v>
+        <v>229</v>
       </c>
       <c r="F249" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="250" spans="1:8">
-      <c r="A250" t="s">
-        <v>211</v>
-      </c>
-      <c r="B250" s="1">
-        <v>8</v>
-      </c>
-      <c r="C250" t="s">
-        <v>220</v>
-      </c>
-      <c r="D250" t="s">
-        <v>44</v>
-      </c>
-      <c r="F250" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8">
+    <row r="250" spans="1:7">
+      <c r="A250" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B250" s="26"/>
+      <c r="C250" s="3"/>
+      <c r="D250" s="3"/>
+      <c r="E250" s="3"/>
+      <c r="F250" s="3"/>
+      <c r="G250" s="3"/>
+    </row>
+    <row r="251" spans="1:7">
       <c r="A251" t="s">
         <v>211</v>
       </c>
       <c r="B251" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C251" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="D251" t="s">
-        <v>221</v>
+        <v>394</v>
       </c>
       <c r="F251" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
       <c r="A252" t="s">
         <v>211</v>
       </c>
       <c r="B252" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C252" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D252" t="s">
-        <v>222</v>
+        <v>395</v>
       </c>
       <c r="F252" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="253" spans="1:8">
-      <c r="A253" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="B253" s="25">
+    <row r="253" spans="1:7">
+      <c r="A253" t="s">
+        <v>211</v>
+      </c>
+      <c r="B253" s="1">
+        <v>3</v>
+      </c>
+      <c r="C253" t="s">
+        <v>215</v>
+      </c>
+      <c r="D253" t="s">
+        <v>26</v>
+      </c>
+      <c r="F253" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
+      <c r="A254" t="s">
+        <v>211</v>
+      </c>
+      <c r="B254" s="1">
+        <v>4</v>
+      </c>
+      <c r="C254" t="s">
+        <v>216</v>
+      </c>
+      <c r="D254" t="s">
+        <v>396</v>
+      </c>
+      <c r="F254" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
+      <c r="A255" t="s">
+        <v>211</v>
+      </c>
+      <c r="B255" s="1">
+        <v>5</v>
+      </c>
+      <c r="C255" t="s">
+        <v>217</v>
+      </c>
+      <c r="D255" t="s">
+        <v>67</v>
+      </c>
+      <c r="F255" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
+      <c r="A256" t="s">
+        <v>211</v>
+      </c>
+      <c r="B256" s="1">
+        <v>6</v>
+      </c>
+      <c r="C256" t="s">
+        <v>218</v>
+      </c>
+      <c r="D256" t="s">
+        <v>75</v>
+      </c>
+      <c r="F256" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8">
+      <c r="A257" t="s">
+        <v>211</v>
+      </c>
+      <c r="B257" s="1">
+        <v>7</v>
+      </c>
+      <c r="C257" t="s">
+        <v>219</v>
+      </c>
+      <c r="D257" t="s">
+        <v>475</v>
+      </c>
+      <c r="F257" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8">
+      <c r="A258" t="s">
+        <v>211</v>
+      </c>
+      <c r="B258" s="1">
+        <v>8</v>
+      </c>
+      <c r="C258" t="s">
+        <v>220</v>
+      </c>
+      <c r="D258" t="s">
+        <v>44</v>
+      </c>
+      <c r="F258" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8">
+      <c r="A259" t="s">
+        <v>211</v>
+      </c>
+      <c r="B259" s="1">
+        <v>9</v>
+      </c>
+      <c r="C259" t="s">
+        <v>221</v>
+      </c>
+      <c r="D259" t="s">
+        <v>221</v>
+      </c>
+      <c r="F259" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8">
+      <c r="A260" t="s">
+        <v>211</v>
+      </c>
+      <c r="B260" s="1">
+        <v>10</v>
+      </c>
+      <c r="C260" t="s">
+        <v>222</v>
+      </c>
+      <c r="D260" t="s">
+        <v>222</v>
+      </c>
+      <c r="F260" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8">
+      <c r="A261" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="B261" s="17">
         <v>1</v>
       </c>
-      <c r="C253" s="3" t="s">
+      <c r="C261" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D253" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="E253" s="3"/>
-      <c r="F253" s="3" t="s">
+      <c r="D261" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E261" s="3"/>
+      <c r="F261" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="G253" s="3"/>
-      <c r="H253" s="3"/>
-    </row>
-    <row r="254" spans="1:8">
-      <c r="A254" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="B254" s="14">
+      <c r="G261" s="3"/>
+      <c r="H261" s="3"/>
+    </row>
+    <row r="262" spans="1:8">
+      <c r="A262" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="B262" s="14">
         <v>2</v>
       </c>
-      <c r="C254" t="s">
-        <v>374</v>
-      </c>
-      <c r="D254" t="s">
-        <v>296</v>
-      </c>
-      <c r="F254" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8">
-      <c r="A255" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="B255" s="14">
+      <c r="C262" t="s">
+        <v>680</v>
+      </c>
+      <c r="F262" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8">
+      <c r="A263" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="B263" s="14">
         <v>3</v>
       </c>
-      <c r="C255" t="s">
-        <v>673</v>
-      </c>
-      <c r="D255" t="s">
-        <v>493</v>
-      </c>
-      <c r="F255" t="s">
+      <c r="C263" t="s">
+        <v>681</v>
+      </c>
+      <c r="F263" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8">
+      <c r="A264" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="B264" s="14">
+        <v>4</v>
+      </c>
+      <c r="C264" t="s">
+        <v>682</v>
+      </c>
+      <c r="F264" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="256" spans="1:8">
-      <c r="A256" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="B256" s="14">
+    <row r="265" spans="1:8">
+      <c r="A265" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="B265" s="14">
+        <v>5</v>
+      </c>
+      <c r="C265" t="s">
+        <v>683</v>
+      </c>
+      <c r="F265" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8">
+      <c r="A266" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="B266" s="14">
+        <v>6</v>
+      </c>
+      <c r="C266" t="s">
+        <v>684</v>
+      </c>
+      <c r="F266" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8">
+      <c r="A267" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="B267" s="14">
+        <v>7</v>
+      </c>
+      <c r="C267" t="s">
+        <v>685</v>
+      </c>
+      <c r="F267" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8">
+      <c r="A268" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="B268" s="14">
+        <v>8</v>
+      </c>
+      <c r="C268" t="s">
+        <v>686</v>
+      </c>
+      <c r="F268" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8">
+      <c r="A269" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="B269" s="14">
+        <v>9</v>
+      </c>
+      <c r="C269" t="s">
+        <v>687</v>
+      </c>
+      <c r="F269" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8">
+      <c r="A270" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="B270" s="14">
+        <v>10</v>
+      </c>
+      <c r="C270" t="s">
+        <v>688</v>
+      </c>
+      <c r="F270" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8">
+      <c r="A271" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="B271" s="14">
+        <v>11</v>
+      </c>
+      <c r="C271" t="s">
+        <v>689</v>
+      </c>
+      <c r="F271" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8">
+      <c r="A272" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="B272" s="14">
+        <v>12</v>
+      </c>
+      <c r="C272" t="s">
+        <v>690</v>
+      </c>
+      <c r="F272" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8">
+      <c r="A273" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="B273" s="14">
+        <v>13</v>
+      </c>
+      <c r="C273" t="s">
+        <v>691</v>
+      </c>
+      <c r="F273" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8">
+      <c r="A274" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="B274" s="14">
+        <v>14</v>
+      </c>
+      <c r="C274" t="s">
+        <v>692</v>
+      </c>
+      <c r="F274" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8">
+      <c r="A275" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="B275" s="14">
+        <v>15</v>
+      </c>
+      <c r="C275" t="s">
+        <v>693</v>
+      </c>
+      <c r="F275" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8">
+      <c r="A276" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="B276" s="14">
+        <v>16</v>
+      </c>
+      <c r="C276" t="s">
+        <v>694</v>
+      </c>
+      <c r="F276" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8">
+      <c r="A277" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="B277" s="14">
+        <v>17</v>
+      </c>
+      <c r="C277" t="s">
+        <v>695</v>
+      </c>
+      <c r="F277" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8">
+      <c r="A278" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="B278" s="14">
+        <v>18</v>
+      </c>
+      <c r="C278" t="s">
+        <v>696</v>
+      </c>
+      <c r="F278" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8">
+      <c r="A279" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="B279" s="14">
+        <v>19</v>
+      </c>
+      <c r="C279" t="s">
+        <v>697</v>
+      </c>
+      <c r="F279" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8">
+      <c r="A280" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="B280" s="14">
+        <v>20</v>
+      </c>
+      <c r="C280" t="s">
+        <v>698</v>
+      </c>
+      <c r="F280" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8">
+      <c r="A281" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="B281" s="26">
+        <v>1</v>
+      </c>
+      <c r="C281" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D281" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E281" s="3"/>
+      <c r="F281" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G281" s="3"/>
+      <c r="H281" s="3"/>
+    </row>
+    <row r="282" spans="1:8">
+      <c r="A282" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="B282" s="14">
+        <v>2</v>
+      </c>
+      <c r="C282" t="s">
+        <v>214</v>
+      </c>
+      <c r="D282" t="s">
+        <v>395</v>
+      </c>
+      <c r="F282" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8">
+      <c r="A283" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="B283" s="14">
+        <v>3</v>
+      </c>
+      <c r="C283" t="s">
+        <v>215</v>
+      </c>
+      <c r="D283" t="s">
+        <v>26</v>
+      </c>
+      <c r="F283" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8">
+      <c r="A284" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="B284" s="14">
         <v>4</v>
       </c>
-      <c r="C256" t="s">
-        <v>674</v>
-      </c>
-      <c r="D256" t="s">
-        <v>676</v>
-      </c>
-      <c r="F256" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6">
-      <c r="A257" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="B257" s="14">
+      <c r="C284" t="s">
+        <v>216</v>
+      </c>
+      <c r="D284" t="s">
+        <v>396</v>
+      </c>
+      <c r="F284" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8">
+      <c r="A285" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="B285" s="14">
         <v>5</v>
       </c>
-      <c r="C257" t="s">
-        <v>675</v>
-      </c>
-      <c r="D257" t="s">
-        <v>677</v>
-      </c>
-      <c r="F257" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6">
-      <c r="A258" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="B258" s="14">
+      <c r="C285" t="s">
+        <v>217</v>
+      </c>
+      <c r="D285" t="s">
+        <v>67</v>
+      </c>
+      <c r="F285" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8">
+      <c r="A286" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="B286" s="14">
         <v>6</v>
       </c>
-      <c r="C258" t="s">
-        <v>190</v>
-      </c>
-      <c r="D258" t="s">
-        <v>483</v>
-      </c>
-      <c r="F258" t="s">
-        <v>251</v>
+      <c r="C286" t="s">
+        <v>218</v>
+      </c>
+      <c r="D286" t="s">
+        <v>75</v>
+      </c>
+      <c r="F286" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8">
+      <c r="A287" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="B287" s="14">
+        <v>7</v>
+      </c>
+      <c r="C287" t="s">
+        <v>227</v>
+      </c>
+      <c r="D287" t="s">
+        <v>48</v>
+      </c>
+      <c r="F287" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8">
+      <c r="A288" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="B288" s="14">
+        <v>8</v>
+      </c>
+      <c r="C288" t="s">
+        <v>481</v>
+      </c>
+      <c r="D288" t="s">
+        <v>481</v>
+      </c>
+      <c r="F288" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6">
+      <c r="A289" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="B289" s="14">
+        <v>9</v>
+      </c>
+      <c r="C289" t="s">
+        <v>701</v>
+      </c>
+      <c r="D289" t="s">
+        <v>229</v>
+      </c>
+      <c r="F289" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -16270,1124 +16864,1124 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>373</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>622</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>521</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="18" t="s">
         <v>529</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="18" t="s">
         <v>547</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17" t="s">
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18" t="s">
         <v>639</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="L2" s="22" t="s">
         <v>415</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="M2" s="19" t="s">
         <v>393</v>
       </c>
-      <c r="N2" s="17"/>
+      <c r="N2" s="18"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>367</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="18" t="s">
         <v>622</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="18" t="s">
         <v>522</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="18" t="s">
         <v>530</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="18" t="s">
         <v>548</v>
       </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17" t="s">
+      <c r="G3" s="22"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18" t="s">
         <v>640</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="L3" s="21" t="s">
+      <c r="L3" s="22" t="s">
         <v>415</v>
       </c>
-      <c r="M3" s="18" t="s">
+      <c r="M3" s="19" t="s">
         <v>393</v>
       </c>
-      <c r="N3" s="17"/>
+      <c r="N3" s="18"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="18" t="s">
         <v>622</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="18" t="s">
         <v>388</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="18" t="s">
         <v>515</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="18" t="s">
         <v>516</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="22" t="s">
         <v>388</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="18" t="s">
         <v>520</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="18" t="s">
         <v>641</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="L4" s="21" t="s">
+      <c r="L4" s="22" t="s">
         <v>415</v>
       </c>
-      <c r="M4" s="18" t="s">
+      <c r="M4" s="19" t="s">
         <v>393</v>
       </c>
-      <c r="N4" s="17" t="s">
+      <c r="N4" s="18" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="20" t="s">
         <v>512</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="18" t="s">
         <v>622</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="20" t="s">
         <v>523</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="20" t="s">
         <v>531</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="20" t="s">
         <v>549</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19" t="s">
+      <c r="G5" s="18"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20" t="s">
         <v>642</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="J5" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="K5" s="18" t="s">
+      <c r="K5" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="L5" s="21" t="s">
+      <c r="L5" s="22" t="s">
         <v>415</v>
       </c>
-      <c r="M5" s="18" t="s">
+      <c r="M5" s="19" t="s">
         <v>393</v>
       </c>
-      <c r="N5" s="19"/>
+      <c r="N5" s="20"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="18" t="s">
         <v>337</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>622</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="18" t="s">
         <v>387</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="18" t="s">
         <v>532</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="18" t="s">
         <v>550</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="20" t="s">
         <v>387</v>
       </c>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17" t="s">
+      <c r="H6" s="18"/>
+      <c r="I6" s="18" t="s">
         <v>643</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="J6" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="K6" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="L6" s="21" t="s">
+      <c r="L6" s="22" t="s">
         <v>415</v>
       </c>
-      <c r="M6" s="18" t="s">
+      <c r="M6" s="19" t="s">
         <v>393</v>
       </c>
-      <c r="N6" s="17"/>
+      <c r="N6" s="18"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="18" t="s">
         <v>317</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="18" t="s">
         <v>622</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="18" t="s">
         <v>386</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="18" t="s">
         <v>533</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="18" t="s">
         <v>551</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="23" t="s">
         <v>386</v>
       </c>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17" t="s">
+      <c r="H7" s="18"/>
+      <c r="I7" s="18" t="s">
         <v>644</v>
       </c>
-      <c r="J7" s="17" t="s">
+      <c r="J7" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="K7" s="18" t="s">
+      <c r="K7" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="L7" s="21" t="s">
+      <c r="L7" s="22" t="s">
         <v>415</v>
       </c>
-      <c r="M7" s="18" t="s">
+      <c r="M7" s="19" t="s">
         <v>393</v>
       </c>
-      <c r="N7" s="17"/>
+      <c r="N7" s="18"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="18" t="s">
         <v>511</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="18" t="s">
         <v>622</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="18" t="s">
         <v>524</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="18" t="s">
         <v>534</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="18" t="s">
         <v>552</v>
       </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17" t="s">
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18" t="s">
         <v>645</v>
       </c>
-      <c r="J8" s="17" t="s">
+      <c r="J8" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="K8" s="18" t="s">
+      <c r="K8" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="L8" s="21" t="s">
+      <c r="L8" s="22" t="s">
         <v>415</v>
       </c>
-      <c r="M8" s="18" t="s">
+      <c r="M8" s="19" t="s">
         <v>393</v>
       </c>
-      <c r="N8" s="17"/>
+      <c r="N8" s="18"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="18" t="s">
         <v>316</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="18" t="s">
         <v>622</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="18" t="s">
         <v>385</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="18" t="s">
         <v>535</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="18" t="s">
         <v>553</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="18" t="s">
         <v>385</v>
       </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17" t="s">
+      <c r="H9" s="18"/>
+      <c r="I9" s="18" t="s">
         <v>646</v>
       </c>
-      <c r="J9" s="17" t="s">
+      <c r="J9" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="K9" s="18" t="s">
+      <c r="K9" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="L9" s="21" t="s">
+      <c r="L9" s="22" t="s">
         <v>415</v>
       </c>
-      <c r="M9" s="18" t="s">
+      <c r="M9" s="19" t="s">
         <v>393</v>
       </c>
-      <c r="N9" s="17"/>
+      <c r="N9" s="18"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="18" t="s">
         <v>508</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="18" t="s">
         <v>622</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="18" t="s">
         <v>525</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="18" t="s">
         <v>554</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="20" t="s">
         <v>390</v>
       </c>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17" t="s">
+      <c r="H10" s="18"/>
+      <c r="I10" s="18" t="s">
         <v>647</v>
       </c>
-      <c r="J10" s="17" t="s">
+      <c r="J10" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="K10" s="18" t="s">
+      <c r="K10" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="L10" s="21" t="s">
+      <c r="L10" s="22" t="s">
         <v>415</v>
       </c>
-      <c r="M10" s="18" t="s">
+      <c r="M10" s="19" t="s">
         <v>393</v>
       </c>
-      <c r="N10" s="17"/>
+      <c r="N10" s="18"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="18" t="s">
         <v>297</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="18" t="s">
         <v>622</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="18" t="s">
         <v>526</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="18" t="s">
         <v>537</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="18" t="s">
         <v>555</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="18" t="s">
         <v>389</v>
       </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17" t="s">
+      <c r="H11" s="18"/>
+      <c r="I11" s="18" t="s">
         <v>648</v>
       </c>
-      <c r="J11" s="17" t="s">
+      <c r="J11" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="K11" s="18" t="s">
+      <c r="K11" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="L11" s="21" t="s">
+      <c r="L11" s="22" t="s">
         <v>415</v>
       </c>
-      <c r="M11" s="18" t="s">
+      <c r="M11" s="19" t="s">
         <v>393</v>
       </c>
-      <c r="N11" s="17"/>
+      <c r="N11" s="18"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="18" t="s">
         <v>622</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="18" t="s">
         <v>384</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="18" t="s">
         <v>556</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="20" t="s">
         <v>384</v>
       </c>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17" t="s">
+      <c r="H12" s="18"/>
+      <c r="I12" s="18" t="s">
         <v>649</v>
       </c>
-      <c r="J12" s="17" t="s">
+      <c r="J12" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="K12" s="18" t="s">
+      <c r="K12" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="L12" s="21" t="s">
+      <c r="L12" s="22" t="s">
         <v>415</v>
       </c>
-      <c r="M12" s="18" t="s">
+      <c r="M12" s="19" t="s">
         <v>393</v>
       </c>
-      <c r="N12" s="17"/>
+      <c r="N12" s="18"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="18" t="s">
         <v>622</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="18" t="s">
         <v>383</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="18" t="s">
         <v>539</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="18" t="s">
         <v>557</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="20" t="s">
         <v>383</v>
       </c>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17" t="s">
+      <c r="H13" s="18"/>
+      <c r="I13" s="18" t="s">
         <v>650</v>
       </c>
-      <c r="J13" s="17" t="s">
+      <c r="J13" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="K13" s="18" t="s">
+      <c r="K13" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="L13" s="21" t="s">
+      <c r="L13" s="22" t="s">
         <v>415</v>
       </c>
-      <c r="M13" s="18" t="s">
+      <c r="M13" s="19" t="s">
         <v>393</v>
       </c>
-      <c r="N13" s="17"/>
+      <c r="N13" s="18"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="18" t="s">
         <v>510</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="18" t="s">
         <v>622</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="18" t="s">
         <v>527</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="18" t="s">
         <v>540</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="18" t="s">
         <v>558</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="18" t="s">
         <v>382</v>
       </c>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17" t="s">
+      <c r="H14" s="18"/>
+      <c r="I14" s="18" t="s">
         <v>651</v>
       </c>
-      <c r="J14" s="17" t="s">
+      <c r="J14" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="K14" s="18" t="s">
+      <c r="K14" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="L14" s="21" t="s">
+      <c r="L14" s="22" t="s">
         <v>415</v>
       </c>
-      <c r="M14" s="18" t="s">
+      <c r="M14" s="19" t="s">
         <v>393</v>
       </c>
-      <c r="N14" s="17"/>
+      <c r="N14" s="18"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="18" t="s">
         <v>261</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="18" t="s">
         <v>622</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="18" t="s">
         <v>382</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="18" t="s">
         <v>541</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="18" t="s">
         <v>559</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="20" t="s">
         <v>381</v>
       </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17" t="s">
+      <c r="H15" s="18"/>
+      <c r="I15" s="18" t="s">
         <v>652</v>
       </c>
-      <c r="J15" s="17" t="s">
+      <c r="J15" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="K15" s="18" t="s">
+      <c r="K15" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="L15" s="21" t="s">
+      <c r="L15" s="22" t="s">
         <v>415</v>
       </c>
-      <c r="M15" s="18" t="s">
+      <c r="M15" s="19" t="s">
         <v>393</v>
       </c>
-      <c r="N15" s="17"/>
+      <c r="N15" s="18"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="18" t="s">
         <v>622</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="18" t="s">
         <v>381</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="18" t="s">
         <v>542</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="18" t="s">
         <v>560</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="20" t="s">
         <v>381</v>
       </c>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17" t="s">
+      <c r="H16" s="18"/>
+      <c r="I16" s="18" t="s">
         <v>653</v>
       </c>
-      <c r="J16" s="17" t="s">
+      <c r="J16" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="K16" s="18" t="s">
+      <c r="K16" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="L16" s="21" t="s">
+      <c r="L16" s="22" t="s">
         <v>415</v>
       </c>
-      <c r="M16" s="18" t="s">
+      <c r="M16" s="19" t="s">
         <v>393</v>
       </c>
-      <c r="N16" s="17"/>
+      <c r="N16" s="18"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="18" t="s">
         <v>622</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="18" t="s">
         <v>380</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="18" t="s">
         <v>543</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="18" t="s">
         <v>561</v>
       </c>
-      <c r="G17" s="22" t="s">
+      <c r="G17" s="23" t="s">
         <v>380</v>
       </c>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17" t="s">
+      <c r="H17" s="18"/>
+      <c r="I17" s="18" t="s">
         <v>654</v>
       </c>
-      <c r="J17" s="17" t="s">
+      <c r="J17" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="K17" s="18" t="s">
+      <c r="K17" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="L17" s="21" t="s">
+      <c r="L17" s="22" t="s">
         <v>415</v>
       </c>
-      <c r="M17" s="18" t="s">
+      <c r="M17" s="19" t="s">
         <v>393</v>
       </c>
-      <c r="N17" s="17"/>
+      <c r="N17" s="18"/>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="18" t="s">
         <v>622</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="18" t="s">
         <v>379</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="18" t="s">
         <v>544</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="18" t="s">
         <v>562</v>
       </c>
-      <c r="G18" s="22" t="s">
+      <c r="G18" s="23" t="s">
         <v>379</v>
       </c>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17" t="s">
+      <c r="H18" s="18"/>
+      <c r="I18" s="18" t="s">
         <v>655</v>
       </c>
-      <c r="J18" s="17" t="s">
+      <c r="J18" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="K18" s="18" t="s">
+      <c r="K18" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="L18" s="21" t="s">
+      <c r="L18" s="22" t="s">
         <v>415</v>
       </c>
-      <c r="M18" s="18" t="s">
+      <c r="M18" s="19" t="s">
         <v>393</v>
       </c>
-      <c r="N18" s="17"/>
+      <c r="N18" s="18"/>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="18" t="s">
         <v>509</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="18" t="s">
         <v>622</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="18" t="s">
         <v>528</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="18" t="s">
         <v>545</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="18" t="s">
         <v>563</v>
       </c>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17" t="s">
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18" t="s">
         <v>656</v>
       </c>
-      <c r="J19" s="17" t="s">
+      <c r="J19" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="K19" s="18" t="s">
+      <c r="K19" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="L19" s="21" t="s">
+      <c r="L19" s="22" t="s">
         <v>415</v>
       </c>
-      <c r="M19" s="18" t="s">
+      <c r="M19" s="19" t="s">
         <v>393</v>
       </c>
-      <c r="N19" s="17"/>
+      <c r="N19" s="18"/>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="18" t="s">
         <v>622</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="18" t="s">
         <v>378</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="18" t="s">
         <v>546</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="18" t="s">
         <v>564</v>
       </c>
-      <c r="G20" s="21" t="s">
+      <c r="G20" s="22" t="s">
         <v>378</v>
       </c>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17" t="s">
+      <c r="H20" s="18"/>
+      <c r="I20" s="18" t="s">
         <v>657</v>
       </c>
-      <c r="J20" s="17" t="s">
+      <c r="J20" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="K20" s="18" t="s">
+      <c r="K20" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="L20" s="21" t="s">
+      <c r="L20" s="22" t="s">
         <v>415</v>
       </c>
-      <c r="M20" s="18" t="s">
+      <c r="M20" s="19" t="s">
         <v>393</v>
       </c>
-      <c r="N20" s="17"/>
+      <c r="N20" s="18"/>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="18" t="s">
         <v>627</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="18" t="s">
         <v>636</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="21" t="s">
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="22" t="s">
         <v>658</v>
       </c>
-      <c r="J21" s="17" t="s">
+      <c r="J21" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="K21" s="18"/>
-      <c r="L21" s="21" t="s">
+      <c r="K21" s="19"/>
+      <c r="L21" s="22" t="s">
         <v>415</v>
       </c>
-      <c r="M21" s="18" t="s">
+      <c r="M21" s="19" t="s">
         <v>416</v>
       </c>
-      <c r="N21" s="17"/>
+      <c r="N21" s="18"/>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="18" t="s">
         <v>627</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="18" t="s">
         <v>637</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="21" t="s">
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="22" t="s">
         <v>659</v>
       </c>
-      <c r="J22" s="17" t="s">
+      <c r="J22" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="K22" s="18"/>
-      <c r="L22" s="21" t="s">
+      <c r="K22" s="19"/>
+      <c r="L22" s="22" t="s">
         <v>415</v>
       </c>
-      <c r="M22" s="18" t="s">
+      <c r="M22" s="19" t="s">
         <v>416</v>
       </c>
-      <c r="N22" s="17"/>
+      <c r="N22" s="18"/>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="18" t="s">
         <v>627</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="18" t="s">
         <v>635</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17" t="s">
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18" t="s">
         <v>660</v>
       </c>
-      <c r="J23" s="17"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="17"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="18"/>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="18" t="s">
         <v>626</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="18" t="s">
         <v>634</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="21" t="s">
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="22" t="s">
         <v>661</v>
       </c>
-      <c r="J24" s="17"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="17"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="18"/>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="20" t="s">
         <v>631</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="20" t="s">
         <v>623</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="18" t="s">
         <v>630</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="24" t="s">
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="25" t="s">
         <v>662</v>
       </c>
-      <c r="J25" s="17" t="s">
+      <c r="J25" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="K25" s="18"/>
-      <c r="L25" s="21" t="s">
+      <c r="K25" s="19"/>
+      <c r="L25" s="22" t="s">
         <v>415</v>
       </c>
-      <c r="M25" s="18" t="s">
+      <c r="M25" s="19" t="s">
         <v>416</v>
       </c>
-      <c r="N25" s="17"/>
+      <c r="N25" s="18"/>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="20" t="s">
         <v>565</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="20" t="s">
         <v>623</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="18" t="s">
         <v>629</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="22" t="s">
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="23" t="s">
         <v>638</v>
       </c>
-      <c r="J26" s="17" t="s">
+      <c r="J26" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="K26" s="18"/>
-      <c r="L26" s="21" t="s">
+      <c r="K26" s="19"/>
+      <c r="L26" s="22" t="s">
         <v>415</v>
       </c>
-      <c r="M26" s="18" t="s">
+      <c r="M26" s="19" t="s">
         <v>416</v>
       </c>
-      <c r="N26" s="17"/>
+      <c r="N26" s="18"/>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="20" t="s">
         <v>442</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="20" t="s">
         <v>624</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="18" t="s">
         <v>633</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="21" t="s">
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="22" t="s">
         <v>663</v>
       </c>
-      <c r="J27" s="17" t="s">
+      <c r="J27" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="K27" s="18"/>
-      <c r="L27" s="21" t="s">
+      <c r="K27" s="19"/>
+      <c r="L27" s="22" t="s">
         <v>415</v>
       </c>
-      <c r="M27" s="18" t="s">
+      <c r="M27" s="19" t="s">
         <v>416</v>
       </c>
-      <c r="N27" s="17"/>
+      <c r="N27" s="18"/>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="20" t="s">
         <v>443</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="20" t="s">
         <v>623</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="18" t="s">
         <v>632</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="21" t="s">
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="22" t="s">
         <v>664</v>
       </c>
-      <c r="J28" s="17" t="s">
+      <c r="J28" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="K28" s="18"/>
-      <c r="L28" s="21" t="s">
+      <c r="K28" s="19"/>
+      <c r="L28" s="22" t="s">
         <v>415</v>
       </c>
-      <c r="M28" s="18" t="s">
+      <c r="M28" s="19" t="s">
         <v>416</v>
       </c>
-      <c r="N28" s="17"/>
+      <c r="N28" s="18"/>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="20" t="s">
         <v>628</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="20" t="s">
         <v>628</v>
       </c>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="21" t="s">
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="22" t="s">
         <v>665</v>
       </c>
-      <c r="J29" s="19"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="19"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="20"/>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="17"/>
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="18"/>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="17"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="18"/>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="17"/>
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="18"/>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="17"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="18"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="17"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="17"/>
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="18"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="17"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="18"/>
-      <c r="N35" s="17"/>
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
